--- a/JupyterNotebooks/AvgHW/GossA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,31 +82,31 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
     <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,31 +653,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001309339523482</v>
+        <v>0.9995919374725618</v>
       </c>
       <c r="D3">
         <v>0.998417457385777</v>
       </c>
       <c r="E3">
+        <v>0.998417457385777</v>
+      </c>
+      <c r="F3">
         <v>1.000252584110811</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.001309339523482</v>
       </c>
-      <c r="G3">
-        <v>0.9996513516244195</v>
-      </c>
       <c r="H3">
-        <v>1.000572410175627</v>
+        <v>1.001309339523482</v>
       </c>
       <c r="I3">
         <v>1.001309339523482</v>
       </c>
       <c r="J3">
-        <v>0.998417457385777</v>
+        <v>1.000572410175627</v>
       </c>
       <c r="K3">
-        <v>0.9995919374725618</v>
+        <v>0.9996513516244195</v>
       </c>
       <c r="L3">
         <v>1.000475110494009</v>
@@ -764,7 +716,7 @@
         <v>0.9999020557474031</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,31 +724,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002532032879154</v>
+        <v>0.9992105715851728</v>
       </c>
       <c r="D4">
         <v>0.99694737855699</v>
       </c>
       <c r="E4">
+        <v>0.99694737855699</v>
+      </c>
+      <c r="F4">
         <v>1.000483617637495</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.002532032879154</v>
       </c>
-      <c r="G4">
-        <v>0.9993272647152831</v>
-      </c>
       <c r="H4">
-        <v>1.001103762898346</v>
+        <v>1.002532032879154</v>
       </c>
       <c r="I4">
         <v>1.002532032879154</v>
       </c>
       <c r="J4">
-        <v>0.99694737855699</v>
+        <v>1.001103762898346</v>
       </c>
       <c r="K4">
-        <v>0.9992105715851728</v>
+        <v>0.9993272647152831</v>
       </c>
       <c r="L4">
         <v>1.000918454697044</v>
@@ -835,7 +787,7 @@
         <v>0.9998112316256169</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,31 +795,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004809098569759</v>
+        <v>0.9985036944963006</v>
       </c>
       <c r="D5">
         <v>0.9941257153295334</v>
       </c>
       <c r="E5">
+        <v>0.9941257153295334</v>
+      </c>
+      <c r="F5">
         <v>1.000966309005693</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.004809098569759</v>
       </c>
-      <c r="G5">
-        <v>0.9987075729724719</v>
-      </c>
       <c r="H5">
-        <v>1.002127757514393</v>
+        <v>1.004809098569759</v>
       </c>
       <c r="I5">
         <v>1.004809098569759</v>
       </c>
       <c r="J5">
-        <v>0.9941257153295334</v>
+        <v>1.002127757514392</v>
       </c>
       <c r="K5">
-        <v>0.9985036944963006</v>
+        <v>0.9987075729724719</v>
       </c>
       <c r="L5">
         <v>1.001747605040423</v>
@@ -906,7 +858,7 @@
         <v>0.9996351618601242</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,31 +866,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.007032548113844</v>
+        <v>0.9978133812074885</v>
       </c>
       <c r="D6">
         <v>0.9913725499258402</v>
       </c>
       <c r="E6">
+        <v>0.9913725499258402</v>
+      </c>
+      <c r="F6">
         <v>1.001436347624764</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.007032548113844</v>
       </c>
-      <c r="G6">
-        <v>0.9981028668106035</v>
-      </c>
       <c r="H6">
-        <v>1.003126794342685</v>
+        <v>1.007032548113844</v>
       </c>
       <c r="I6">
         <v>1.007032548113844</v>
       </c>
       <c r="J6">
-        <v>0.9913725499258402</v>
+        <v>1.003126794342685</v>
       </c>
       <c r="K6">
-        <v>0.9978133812074885</v>
+        <v>0.9981028668106035</v>
       </c>
       <c r="L6">
         <v>1.002557141953514</v>
@@ -977,7 +929,7 @@
         <v>0.9994634076822839</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,37 +937,37 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000018818678323</v>
+        <v>0.9999955526119443</v>
       </c>
       <c r="D7">
         <v>0.9999417582930989</v>
       </c>
       <c r="E7">
+        <v>0.9999417582930989</v>
+      </c>
+      <c r="F7">
         <v>1.000025814220723</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1.000018818678323</v>
       </c>
-      <c r="G7">
-        <v>0.9999881614183147</v>
-      </c>
       <c r="H7">
-        <v>1.000022800664458</v>
+        <v>1.000018818678323</v>
       </c>
       <c r="I7">
         <v>1.000018818678323</v>
       </c>
       <c r="J7">
-        <v>0.9999417582930989</v>
+        <v>1.000022800664458</v>
       </c>
       <c r="K7">
-        <v>0.9999955526119443</v>
+        <v>0.9999881614183147</v>
       </c>
       <c r="L7">
         <v>1.000008310364364</v>
       </c>
       <c r="M7">
-        <v>0.9999640814344909</v>
+        <v>0.999964081434491</v>
       </c>
       <c r="N7">
         <v>1.000018818678323</v>
@@ -1024,7 +976,7 @@
         <v>1.000025814220723</v>
       </c>
       <c r="P7">
-        <v>0.9999837862569108</v>
+        <v>0.9999837862569109</v>
       </c>
       <c r="Q7">
         <v>1.000006987819519</v>
@@ -1045,10 +997,10 @@
         <v>0.9999986742577563</v>
       </c>
       <c r="W7">
-        <v>0.9999956622107145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999956622107147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,31 +1008,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999801819934753</v>
+        <v>1.000008613809069</v>
       </c>
       <c r="D8">
-        <v>0.999962962746296</v>
+        <v>0.9999629627462964</v>
       </c>
       <c r="E8">
+        <v>0.9999629627462964</v>
+      </c>
+      <c r="F8">
         <v>1.000034294730554</v>
       </c>
-      <c r="F8">
-        <v>0.9999801819934753</v>
-      </c>
       <c r="G8">
+        <v>0.999980181993475</v>
+      </c>
+      <c r="H8">
+        <v>0.999980181993475</v>
+      </c>
+      <c r="I8">
+        <v>0.999980181993475</v>
+      </c>
+      <c r="J8">
+        <v>1.000016376142092</v>
+      </c>
+      <c r="K8">
         <v>0.9999935461405631</v>
-      </c>
-      <c r="H8">
-        <v>1.000016376142093</v>
-      </c>
-      <c r="I8">
-        <v>0.9999801819934753</v>
-      </c>
-      <c r="J8">
-        <v>0.999962962746296</v>
-      </c>
-      <c r="K8">
-        <v>1.000008613809069</v>
       </c>
       <c r="L8">
         <v>0.9999953532520527</v>
@@ -1089,25 +1041,25 @@
         <v>0.9999802549430595</v>
       </c>
       <c r="N8">
-        <v>0.9999801819934753</v>
+        <v>0.999980181993475</v>
       </c>
       <c r="O8">
         <v>1.000034294730554</v>
       </c>
       <c r="P8">
-        <v>0.9999986287384248</v>
+        <v>0.999998628738425</v>
       </c>
       <c r="Q8">
         <v>1.000013920435558</v>
       </c>
       <c r="R8">
-        <v>0.9999924798234416</v>
+        <v>0.9999924798234417</v>
       </c>
       <c r="S8">
         <v>0.9999969345391376</v>
       </c>
       <c r="T8">
-        <v>0.9999924798234416</v>
+        <v>0.9999924798234417</v>
       </c>
       <c r="U8">
         <v>0.9999927464027221</v>
@@ -1119,7 +1071,7 @@
         <v>0.9999964479696453</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,31 +1079,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9998511278963021</v>
+        <v>1.000047493195834</v>
       </c>
       <c r="D9">
         <v>1.000152453616179</v>
       </c>
       <c r="E9">
+        <v>1.000152453616179</v>
+      </c>
+      <c r="F9">
         <v>0.9999884561728483</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.9998511278963021</v>
       </c>
-      <c r="G9">
-        <v>1.00003435517359</v>
-      </c>
       <c r="H9">
-        <v>0.999946200109595</v>
+        <v>0.9998511278963021</v>
       </c>
       <c r="I9">
         <v>0.9998511278963021</v>
       </c>
       <c r="J9">
-        <v>1.000152453616179</v>
+        <v>0.999946200109595</v>
       </c>
       <c r="K9">
-        <v>1.000047493195834</v>
+        <v>1.00003435517359</v>
       </c>
       <c r="L9">
         <v>0.9999471284895873</v>
@@ -1190,7 +1142,7 @@
         <v>1.000008867885305</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,31 +1150,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9997855729726347</v>
+        <v>1.000071521503119</v>
       </c>
       <c r="D10">
         <v>1.000141760205109</v>
       </c>
       <c r="E10">
+        <v>1.000141760205109</v>
+      </c>
+      <c r="F10">
         <v>1.000032012198073</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.9997855729726347</v>
       </c>
-      <c r="G10">
-        <v>1.000034515336138</v>
-      </c>
       <c r="H10">
-        <v>0.9999544598172817</v>
+        <v>0.9997855729726347</v>
       </c>
       <c r="I10">
         <v>0.9997855729726347</v>
       </c>
       <c r="J10">
-        <v>1.000141760205109</v>
+        <v>0.9999544598172817</v>
       </c>
       <c r="K10">
-        <v>1.000071521503119</v>
+        <v>1.000034515336138</v>
       </c>
       <c r="L10">
         <v>0.9999270877467316</v>
@@ -1261,7 +1213,7 @@
         <v>1.0000063481015</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,31 +1221,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9993704709480303</v>
+        <v>1.000198545047889</v>
       </c>
       <c r="D11">
         <v>1.000702043745861</v>
       </c>
       <c r="E11">
+        <v>1.000702043745861</v>
+      </c>
+      <c r="F11">
         <v>0.9999153296641975</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.9993704709480303</v>
       </c>
-      <c r="G11">
-        <v>1.000156311448642</v>
-      </c>
       <c r="H11">
-        <v>0.9997489440449054</v>
+        <v>0.9993704709480303</v>
       </c>
       <c r="I11">
         <v>0.9993704709480303</v>
       </c>
       <c r="J11">
-        <v>1.000702043745861</v>
+        <v>0.9997489440449054</v>
       </c>
       <c r="K11">
-        <v>1.000198545047889</v>
+        <v>1.000156311448642</v>
       </c>
       <c r="L11">
         <v>0.9997740197104076</v>
@@ -1332,7 +1284,7 @@
         <v>1.000042233865791</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,31 +1292,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.002417857854792</v>
+        <v>0.9992346878604407</v>
       </c>
       <c r="D12">
         <v>0.9973719629308202</v>
       </c>
       <c r="E12">
+        <v>0.9973719629308202</v>
+      </c>
+      <c r="F12">
         <v>1.000282481962374</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.002417857854792</v>
       </c>
-      <c r="G12">
-        <v>0.9994127906670638</v>
-      </c>
       <c r="H12">
-        <v>1.000936190435607</v>
+        <v>1.002417857854792</v>
       </c>
       <c r="I12">
         <v>1.002417857854792</v>
       </c>
       <c r="J12">
-        <v>0.9973719629308202</v>
+        <v>1.000936190435607</v>
       </c>
       <c r="K12">
-        <v>0.9992346878604405</v>
+        <v>0.9994127906670638</v>
       </c>
       <c r="L12">
         <v>1.000865077468418</v>
@@ -1403,7 +1355,7 @@
         <v>0.9998434290381222</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000290957719287</v>
+        <v>0.9999319837421722</v>
       </c>
       <c r="D13">
         <v>0.9990817833146899</v>
       </c>
       <c r="E13">
+        <v>0.9990817833146899</v>
+      </c>
+      <c r="F13">
         <v>1.000410226801606</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.000290957719287</v>
       </c>
-      <c r="G13">
-        <v>0.9998135526204949</v>
-      </c>
       <c r="H13">
-        <v>1.000359801015239</v>
+        <v>1.000290957719287</v>
       </c>
       <c r="I13">
         <v>1.000290957719287</v>
       </c>
       <c r="J13">
-        <v>0.9990817833146899</v>
+        <v>1.000359801015239</v>
       </c>
       <c r="K13">
-        <v>0.9999319837421724</v>
+        <v>0.9998135526204949</v>
       </c>
       <c r="L13">
         <v>1.000129187227138</v>
       </c>
       <c r="M13">
-        <v>0.9994342523920382</v>
+        <v>0.9994342523920381</v>
       </c>
       <c r="N13">
         <v>1.000290957719287</v>
@@ -1450,7 +1402,7 @@
         <v>1.000410226801606</v>
       </c>
       <c r="P13">
-        <v>0.9997460050581481</v>
+        <v>0.999746005058148</v>
       </c>
       <c r="Q13">
         <v>1.000111889711051</v>
@@ -1471,10 +1423,10 @@
         <v>0.9999774956350729</v>
       </c>
       <c r="W13">
-        <v>0.9999314681040832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>0.9999314681040831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,31 +1434,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8196082955855434</v>
+        <v>1.053822836603556</v>
       </c>
       <c r="D14">
         <v>1.277954329490422</v>
       </c>
       <c r="E14">
-        <v>0.9277488733131458</v>
+        <v>1.277954329490422</v>
       </c>
       <c r="F14">
+        <v>0.9277488733131457</v>
+      </c>
+      <c r="G14">
         <v>0.8196082955855434</v>
       </c>
-      <c r="G14">
-        <v>1.059559687412855</v>
-      </c>
       <c r="H14">
-        <v>0.8965358238763459</v>
+        <v>0.8196082955855434</v>
       </c>
       <c r="I14">
         <v>0.8196082955855434</v>
       </c>
       <c r="J14">
-        <v>1.277954329490422</v>
+        <v>0.8965358238763459</v>
       </c>
       <c r="K14">
-        <v>1.053822836603556</v>
+        <v>1.059559687412855</v>
       </c>
       <c r="L14">
         <v>0.9320461621327375</v>
@@ -1518,7 +1470,7 @@
         <v>0.8196082955855434</v>
       </c>
       <c r="O14">
-        <v>0.9277488733131458</v>
+        <v>0.9277488733131457</v>
       </c>
       <c r="P14">
         <v>1.102851601401784</v>
@@ -1539,13 +1491,13 @@
         <v>1.021217796450492</v>
       </c>
       <c r="V14">
-        <v>0.9808958962775021</v>
+        <v>0.980895896277502</v>
       </c>
       <c r="W14">
         <v>1.018440652503847</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,31 +1505,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9494224432153224</v>
+        <v>1.015300701163529</v>
       </c>
       <c r="D15">
         <v>1.072680463717056</v>
       </c>
       <c r="E15">
+        <v>1.072680463717056</v>
+      </c>
+      <c r="F15">
         <v>0.9830245918534591</v>
       </c>
-      <c r="F15">
-        <v>0.9494224432153224</v>
-      </c>
       <c r="G15">
+        <v>0.9494224432153225</v>
+      </c>
+      <c r="H15">
+        <v>0.9494224432153225</v>
+      </c>
+      <c r="I15">
+        <v>0.9494224432153225</v>
+      </c>
+      <c r="J15">
+        <v>0.9731470645764246</v>
+      </c>
+      <c r="K15">
         <v>1.015689095667364</v>
-      </c>
-      <c r="H15">
-        <v>0.9731470645764246</v>
-      </c>
-      <c r="I15">
-        <v>0.9494224432153224</v>
-      </c>
-      <c r="J15">
-        <v>1.072680463717056</v>
-      </c>
-      <c r="K15">
-        <v>1.015300701163529</v>
       </c>
       <c r="L15">
         <v>0.9811661573293712</v>
@@ -1586,7 +1538,7 @@
         <v>1.04746410601897</v>
       </c>
       <c r="N15">
-        <v>0.9494224432153224</v>
+        <v>0.9494224432153225</v>
       </c>
       <c r="O15">
         <v>0.9830245918534591</v>
@@ -1616,7 +1568,7 @@
         <v>1.004736827942687</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999558269506368</v>
+        <v>0.9922280446287014</v>
       </c>
       <c r="D16">
-        <v>0.9999655756815368</v>
+        <v>0.9689097110013526</v>
       </c>
       <c r="E16">
-        <v>1.000046361193685</v>
+        <v>0.9689097110013526</v>
       </c>
       <c r="F16">
-        <v>0.9999558269506368</v>
+        <v>1.005344596364361</v>
       </c>
       <c r="G16">
-        <v>0.9999948721144788</v>
+        <v>1.025043251916226</v>
       </c>
       <c r="H16">
-        <v>1.000016741574441</v>
+        <v>1.025043251916226</v>
       </c>
       <c r="I16">
-        <v>0.9999558269506368</v>
+        <v>1.025043251916226</v>
       </c>
       <c r="J16">
-        <v>0.9999655756815368</v>
+        <v>1.011285572788407</v>
       </c>
       <c r="K16">
-        <v>1.000017276893865</v>
+        <v>0.9931735139939232</v>
       </c>
       <c r="L16">
-        <v>0.9999876331927574</v>
+        <v>1.009121441050548</v>
       </c>
       <c r="M16">
-        <v>0.9999841562078304</v>
+        <v>0.9793645282457094</v>
       </c>
       <c r="N16">
-        <v>0.9999558269506368</v>
+        <v>1.025043251916226</v>
       </c>
       <c r="O16">
-        <v>1.000046361193685</v>
+        <v>1.005344596364361</v>
       </c>
       <c r="P16">
-        <v>1.000005968437611</v>
+        <v>0.9871271536828568</v>
       </c>
       <c r="Q16">
-        <v>1.000020616654082</v>
+        <v>0.999259055179142</v>
       </c>
       <c r="R16">
-        <v>0.9999892546086194</v>
+        <v>0.9997658530939798</v>
       </c>
       <c r="S16">
-        <v>1.000002269663234</v>
+        <v>0.9891426071198789</v>
       </c>
       <c r="T16">
-        <v>0.9999892546086194</v>
+        <v>0.9997658530939798</v>
       </c>
       <c r="U16">
-        <v>0.9999906589850843</v>
+        <v>0.9981177683189656</v>
       </c>
       <c r="V16">
-        <v>0.9999836925781949</v>
+        <v>1.003502865038418</v>
       </c>
       <c r="W16">
-        <v>0.9999960554761538</v>
+        <v>0.9980588324986535</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000143519341251</v>
+        <v>0.9940362334840839</v>
       </c>
       <c r="D17">
-        <v>0.9998779240781552</v>
+        <v>0.9741518358116981</v>
       </c>
       <c r="E17">
-        <v>0.9999955658476287</v>
+        <v>0.9741518358116981</v>
       </c>
       <c r="F17">
-        <v>1.000143519341251</v>
+        <v>1.005221200660163</v>
       </c>
       <c r="G17">
-        <v>0.9999716678036198</v>
+        <v>1.019438040978662</v>
       </c>
       <c r="H17">
-        <v>1.000041645095209</v>
+        <v>1.019438040978662</v>
       </c>
       <c r="I17">
-        <v>1.000143519341251</v>
+        <v>1.019438040978662</v>
       </c>
       <c r="J17">
-        <v>0.9998779240781552</v>
+        <v>1.009464357108274</v>
       </c>
       <c r="K17">
-        <v>0.9999532137378868</v>
+        <v>0.9943712719046848</v>
       </c>
       <c r="L17">
-        <v>1.000049939544589</v>
+        <v>1.00715139285431</v>
       </c>
       <c r="M17">
-        <v>0.9999145757953288</v>
+        <v>0.9829785330659314</v>
       </c>
       <c r="N17">
-        <v>1.000143519341251</v>
+        <v>1.019438040978662</v>
       </c>
       <c r="O17">
-        <v>0.9999955658476287</v>
+        <v>1.005221200660163</v>
       </c>
       <c r="P17">
-        <v>0.999936744962892</v>
+        <v>0.9896865182359307</v>
       </c>
       <c r="Q17">
-        <v>0.9999836168256242</v>
+        <v>0.999796236282424</v>
       </c>
       <c r="R17">
-        <v>1.000005669755678</v>
+        <v>0.9996036924835078</v>
       </c>
       <c r="S17">
-        <v>0.9999483859098013</v>
+        <v>0.991248102792182</v>
       </c>
       <c r="T17">
-        <v>1.000005669755678</v>
+        <v>0.9996036924835078</v>
       </c>
       <c r="U17">
-        <v>0.9999971692676637</v>
+        <v>0.998295587338802</v>
       </c>
       <c r="V17">
-        <v>1.000026439282381</v>
+        <v>1.002524078066774</v>
       </c>
       <c r="W17">
-        <v>0.9999935064054586</v>
+        <v>0.998351608233476</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000287516832997</v>
+        <v>0.9977043880564197</v>
       </c>
       <c r="D18">
-        <v>0.9994477109054805</v>
+        <v>0.9849810648624727</v>
       </c>
       <c r="E18">
-        <v>1.000183448643836</v>
+        <v>0.9849810648624727</v>
       </c>
       <c r="F18">
-        <v>1.000287516832997</v>
+        <v>1.004861258239289</v>
       </c>
       <c r="G18">
-        <v>0.9998840541412199</v>
+        <v>1.008045461036991</v>
       </c>
       <c r="H18">
-        <v>1.000209768435695</v>
+        <v>1.008045461036991</v>
       </c>
       <c r="I18">
-        <v>1.000287516832997</v>
+        <v>1.008045461036991</v>
       </c>
       <c r="J18">
-        <v>0.9994477109054805</v>
+        <v>1.005691046831508</v>
       </c>
       <c r="K18">
-        <v>0.9999185844993872</v>
+        <v>0.9968392999292747</v>
       </c>
       <c r="L18">
-        <v>1.000112863738293</v>
+        <v>1.00313999994478</v>
       </c>
       <c r="M18">
-        <v>0.9996487598310622</v>
+        <v>0.9904261919714085</v>
       </c>
       <c r="N18">
-        <v>1.000287516832997</v>
+        <v>1.008045461036991</v>
       </c>
       <c r="O18">
-        <v>1.000183448643836</v>
+        <v>1.004861258239289</v>
       </c>
       <c r="P18">
-        <v>0.9998155797746583</v>
+        <v>0.9949211615508808</v>
       </c>
       <c r="Q18">
-        <v>1.000033751392528</v>
+        <v>1.000850279084282</v>
       </c>
       <c r="R18">
-        <v>0.9999728921274377</v>
+        <v>0.999295928046251</v>
       </c>
       <c r="S18">
-        <v>0.9998384045635121</v>
+        <v>0.9955605410103455</v>
       </c>
       <c r="T18">
-        <v>0.9999728921274377</v>
+        <v>0.9992959280462509</v>
       </c>
       <c r="U18">
-        <v>0.9999506826308833</v>
+        <v>0.9986817710170068</v>
       </c>
       <c r="V18">
-        <v>1.000018049471306</v>
+        <v>1.000554509021004</v>
       </c>
       <c r="W18">
-        <v>0.9999615883784962</v>
+        <v>0.9989610888590179</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9975032763085385</v>
+      </c>
+      <c r="D19">
+        <v>0.9825261832867465</v>
+      </c>
+      <c r="E19">
+        <v>0.9825261832867465</v>
+      </c>
+      <c r="F19">
+        <v>1.005927892849819</v>
+      </c>
+      <c r="G19">
+        <v>1.008876871757501</v>
+      </c>
+      <c r="H19">
+        <v>1.008876871757501</v>
+      </c>
+      <c r="I19">
+        <v>1.008876871757501</v>
+      </c>
+      <c r="J19">
+        <v>1.006649818581047</v>
+      </c>
+      <c r="K19">
+        <v>0.9963390256845401</v>
+      </c>
+      <c r="L19">
+        <v>1.003502097975585</v>
+      </c>
+      <c r="M19">
+        <v>0.9889084342968603</v>
+      </c>
+      <c r="N19">
+        <v>1.008876871757501</v>
+      </c>
+      <c r="O19">
+        <v>1.005927892849819</v>
+      </c>
+      <c r="P19">
+        <v>0.9942270380682826</v>
+      </c>
+      <c r="Q19">
+        <v>1.001133459267179</v>
+      </c>
+      <c r="R19">
+        <v>0.9991103159646887</v>
+      </c>
+      <c r="S19">
+        <v>0.9949310339403684</v>
+      </c>
+      <c r="T19">
+        <v>0.9991103159646887</v>
+      </c>
+      <c r="U19">
+        <v>0.9984174933946516</v>
+      </c>
+      <c r="V19">
+        <v>1.000509369067222</v>
+      </c>
+      <c r="W19">
+        <v>0.9987792000925797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000017276893865</v>
+      </c>
+      <c r="D20">
+        <v>0.9999655756815365</v>
+      </c>
+      <c r="E20">
+        <v>0.9999655756815365</v>
+      </c>
+      <c r="F20">
+        <v>1.000046361193685</v>
+      </c>
+      <c r="G20">
+        <v>0.9999558269506368</v>
+      </c>
+      <c r="H20">
+        <v>0.9999558269506368</v>
+      </c>
+      <c r="I20">
+        <v>0.9999558269506368</v>
+      </c>
+      <c r="J20">
+        <v>1.000016741574441</v>
+      </c>
+      <c r="K20">
+        <v>0.9999948721144788</v>
+      </c>
+      <c r="L20">
+        <v>0.9999876331927574</v>
+      </c>
+      <c r="M20">
+        <v>0.9999841562078305</v>
+      </c>
+      <c r="N20">
+        <v>0.9999558269506368</v>
+      </c>
+      <c r="O20">
+        <v>1.000046361193685</v>
+      </c>
+      <c r="P20">
+        <v>1.000005968437611</v>
+      </c>
+      <c r="Q20">
+        <v>1.000020616654082</v>
+      </c>
+      <c r="R20">
+        <v>0.9999892546086194</v>
+      </c>
+      <c r="S20">
+        <v>1.000002269663234</v>
+      </c>
+      <c r="T20">
+        <v>0.9999892546086194</v>
+      </c>
+      <c r="U20">
+        <v>0.9999906589850843</v>
+      </c>
+      <c r="V20">
+        <v>0.9999836925781949</v>
+      </c>
+      <c r="W20">
+        <v>0.9999960554761538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999532137378868</v>
+      </c>
+      <c r="D21">
+        <v>0.9998779240781555</v>
+      </c>
+      <c r="E21">
+        <v>0.9998779240781555</v>
+      </c>
+      <c r="F21">
+        <v>0.9999955658476287</v>
+      </c>
+      <c r="G21">
+        <v>1.000143519341251</v>
+      </c>
+      <c r="H21">
+        <v>1.000143519341251</v>
+      </c>
+      <c r="I21">
+        <v>1.000143519341251</v>
+      </c>
+      <c r="J21">
+        <v>1.000041645095209</v>
+      </c>
+      <c r="K21">
+        <v>0.9999716678036198</v>
+      </c>
+      <c r="L21">
+        <v>1.000049939544589</v>
+      </c>
+      <c r="M21">
+        <v>0.9999145757953288</v>
+      </c>
+      <c r="N21">
+        <v>1.000143519341251</v>
+      </c>
+      <c r="O21">
+        <v>0.9999955658476287</v>
+      </c>
+      <c r="P21">
+        <v>0.9999367449628921</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999836168256242</v>
+      </c>
+      <c r="R21">
+        <v>1.000005669755679</v>
+      </c>
+      <c r="S21">
+        <v>0.9999483859098013</v>
+      </c>
+      <c r="T21">
+        <v>1.000005669755678</v>
+      </c>
+      <c r="U21">
+        <v>0.9999971692676637</v>
+      </c>
+      <c r="V21">
+        <v>1.000026439282381</v>
+      </c>
+      <c r="W21">
+        <v>0.9999935064054586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999185844993872</v>
+      </c>
+      <c r="D22">
+        <v>0.9994477109054802</v>
+      </c>
+      <c r="E22">
+        <v>0.9994477109054802</v>
+      </c>
+      <c r="F22">
+        <v>1.000183448643837</v>
+      </c>
+      <c r="G22">
+        <v>1.000287516832997</v>
+      </c>
+      <c r="H22">
+        <v>1.000287516832997</v>
+      </c>
+      <c r="I22">
+        <v>1.000287516832997</v>
+      </c>
+      <c r="J22">
+        <v>1.000209768435695</v>
+      </c>
+      <c r="K22">
+        <v>0.9998840541412201</v>
+      </c>
+      <c r="L22">
+        <v>1.000112863738293</v>
+      </c>
+      <c r="M22">
+        <v>0.9996487598310621</v>
+      </c>
+      <c r="N22">
+        <v>1.000287516832997</v>
+      </c>
+      <c r="O22">
+        <v>1.000183448643837</v>
+      </c>
+      <c r="P22">
+        <v>0.9998155797746584</v>
+      </c>
+      <c r="Q22">
+        <v>1.000033751392528</v>
+      </c>
+      <c r="R22">
+        <v>0.9999728921274378</v>
+      </c>
+      <c r="S22">
+        <v>0.9998384045635124</v>
+      </c>
+      <c r="T22">
+        <v>0.9999728921274378</v>
+      </c>
+      <c r="U22">
+        <v>0.9999506826308834</v>
+      </c>
+      <c r="V22">
+        <v>1.000018049471306</v>
+      </c>
+      <c r="W22">
+        <v>0.9999615883784964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9998502573002208</v>
+      </c>
+      <c r="D23">
+        <v>0.9986458786381561</v>
+      </c>
+      <c r="E23">
+        <v>0.9986458786381561</v>
+      </c>
+      <c r="F23">
+        <v>1.000527720428362</v>
+      </c>
+      <c r="G23">
         <v>1.000566402307763</v>
       </c>
-      <c r="D19">
-        <v>0.9986458786381561</v>
-      </c>
-      <c r="E19">
+      <c r="H23">
+        <v>1.000566402307763</v>
+      </c>
+      <c r="I23">
+        <v>1.000566402307763</v>
+      </c>
+      <c r="J23">
+        <v>1.000522497441397</v>
+      </c>
+      <c r="K23">
+        <v>0.9997204040067069</v>
+      </c>
+      <c r="L23">
+        <v>1.000233419849397</v>
+      </c>
+      <c r="M23">
+        <v>0.9991523043883592</v>
+      </c>
+      <c r="N23">
+        <v>1.000566402307763</v>
+      </c>
+      <c r="O23">
         <v>1.000527720428362</v>
       </c>
-      <c r="F19">
-        <v>1.000566402307763</v>
-      </c>
-      <c r="G19">
-        <v>0.9997204040067069</v>
-      </c>
-      <c r="H19">
-        <v>1.000522497441397</v>
-      </c>
-      <c r="I19">
-        <v>1.000566402307763</v>
-      </c>
-      <c r="J19">
-        <v>0.9986458786381561</v>
-      </c>
-      <c r="K19">
-        <v>0.9998502573002208</v>
-      </c>
-      <c r="L19">
-        <v>1.000233419849397</v>
-      </c>
-      <c r="M19">
-        <v>0.9991523043883592</v>
-      </c>
-      <c r="N19">
-        <v>1.000566402307763</v>
-      </c>
-      <c r="O19">
-        <v>1.000527720428362</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9995867995332592</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000124062217535</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999133337914273</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9996313343577418</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999133337914273</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9998651013452473</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.00000536153775</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9999023605450453</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 2, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9995919374725618</v>
+        <v>0.9970447433213279</v>
       </c>
       <c r="D3">
-        <v>0.998417457385777</v>
+        <v>0.9813121635086443</v>
       </c>
       <c r="E3">
-        <v>0.998417457385777</v>
+        <v>0.9813121635086443</v>
       </c>
       <c r="F3">
-        <v>1.000252584110811</v>
+        <v>1.005894320396254</v>
       </c>
       <c r="G3">
-        <v>1.001309339523482</v>
+        <v>1.010285465994235</v>
       </c>
       <c r="H3">
-        <v>1.001309339523482</v>
+        <v>1.010285465994235</v>
       </c>
       <c r="I3">
-        <v>1.001309339523482</v>
+        <v>1.010285465994235</v>
       </c>
       <c r="J3">
-        <v>1.000572410175627</v>
+        <v>1.007065070756483</v>
       </c>
       <c r="K3">
-        <v>0.9996513516244195</v>
+        <v>0.9960579020316999</v>
       </c>
       <c r="L3">
-        <v>1.000475110494009</v>
+        <v>1.003992870180115</v>
       </c>
       <c r="M3">
-        <v>0.9989462551925379</v>
+        <v>0.9880607074711844</v>
       </c>
       <c r="N3">
-        <v>1.001309339523482</v>
+        <v>1.010285465994235</v>
       </c>
       <c r="O3">
-        <v>1.000252584110811</v>
+        <v>1.005894320396254</v>
       </c>
       <c r="P3">
-        <v>0.9993350207482943</v>
+        <v>0.9936032419524494</v>
       </c>
       <c r="Q3">
-        <v>0.9999519678676154</v>
+        <v>1.000976111213977</v>
       </c>
       <c r="R3">
-        <v>0.9999931270066901</v>
+        <v>0.9991639832997112</v>
       </c>
       <c r="S3">
-        <v>0.9994404643736693</v>
+        <v>0.9944214619788663</v>
       </c>
       <c r="T3">
-        <v>0.9999931270066901</v>
+        <v>0.9991639832997112</v>
       </c>
       <c r="U3">
-        <v>0.9999076831611224</v>
+        <v>0.9983874629827084</v>
       </c>
       <c r="V3">
-        <v>1.000188014433594</v>
+        <v>1.000767063585014</v>
       </c>
       <c r="W3">
-        <v>0.9999020557474031</v>
+        <v>0.998714155457493</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9992105715851728</v>
+        <v>0.9973272216250427</v>
       </c>
       <c r="D4">
-        <v>0.99694737855699</v>
+        <v>0.9828770964358945</v>
       </c>
       <c r="E4">
-        <v>0.99694737855699</v>
+        <v>0.9828770964358945</v>
       </c>
       <c r="F4">
-        <v>1.000483617637495</v>
+        <v>1.005455418741148</v>
       </c>
       <c r="G4">
-        <v>1.002532032879154</v>
+        <v>1.009326922406817</v>
       </c>
       <c r="H4">
-        <v>1.002532032879154</v>
+        <v>1.009326922406817</v>
       </c>
       <c r="I4">
-        <v>1.002532032879154</v>
+        <v>1.009326922406817</v>
       </c>
       <c r="J4">
-        <v>1.001103762898346</v>
+        <v>1.006479178003168</v>
       </c>
       <c r="K4">
-        <v>0.9993272647152831</v>
+        <v>0.9963913033255648</v>
       </c>
       <c r="L4">
-        <v>1.000918454697044</v>
+        <v>1.003628119865824</v>
       </c>
       <c r="M4">
-        <v>0.9979667700354508</v>
+        <v>0.9890699822856954</v>
       </c>
       <c r="N4">
-        <v>1.002532032879154</v>
+        <v>1.009326922406817</v>
       </c>
       <c r="O4">
-        <v>1.000483617637495</v>
+        <v>1.005455418741148</v>
       </c>
       <c r="P4">
-        <v>0.9987154980972426</v>
+        <v>0.9941662575885211</v>
       </c>
       <c r="Q4">
-        <v>0.9999054411763891</v>
+        <v>1.000923361033356</v>
       </c>
       <c r="R4">
-        <v>0.9999876763578798</v>
+        <v>0.999219812527953</v>
       </c>
       <c r="S4">
-        <v>0.9989194203032561</v>
+        <v>0.994907939500869</v>
       </c>
       <c r="T4">
-        <v>0.9999876763578798</v>
+        <v>0.9992198125279531</v>
       </c>
       <c r="U4">
-        <v>0.9998225734472306</v>
+        <v>0.998512685227356</v>
       </c>
       <c r="V4">
-        <v>1.000364465333615</v>
+        <v>1.000675532663248</v>
       </c>
       <c r="W4">
-        <v>0.9998112316256169</v>
+        <v>0.9988194053361442</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9985036944963006</v>
+        <v>0.9965573880053907</v>
       </c>
       <c r="D5">
-        <v>0.9941257153295334</v>
+        <v>0.9785629583557948</v>
       </c>
       <c r="E5">
-        <v>0.9941257153295334</v>
+        <v>0.9785629583557948</v>
       </c>
       <c r="F5">
-        <v>1.000966309005693</v>
+        <v>1.006679250512128</v>
       </c>
       <c r="G5">
-        <v>1.004809098569759</v>
+        <v>1.011944697762802</v>
       </c>
       <c r="H5">
-        <v>1.004809098569759</v>
+        <v>1.011944697762802</v>
       </c>
       <c r="I5">
-        <v>1.004809098569759</v>
+        <v>1.011944697762802</v>
       </c>
       <c r="J5">
-        <v>1.002127757514392</v>
+        <v>1.008095801536388</v>
       </c>
       <c r="K5">
-        <v>0.9987075729724719</v>
+        <v>0.9954730349326151</v>
       </c>
       <c r="L5">
-        <v>1.001747605040423</v>
+        <v>1.004625931671158</v>
       </c>
       <c r="M5">
-        <v>0.9960935419524207</v>
+        <v>0.9862900611320751</v>
       </c>
       <c r="N5">
-        <v>1.004809098569759</v>
+        <v>1.011944697762802</v>
       </c>
       <c r="O5">
-        <v>1.000966309005693</v>
+        <v>1.006679250512128</v>
       </c>
       <c r="P5">
-        <v>0.997546012167613</v>
+        <v>0.9926211044339615</v>
       </c>
       <c r="Q5">
-        <v>0.9998369409890823</v>
+        <v>1.001076142722372</v>
       </c>
       <c r="R5">
-        <v>0.9999670409683284</v>
+        <v>0.9990623022102416</v>
       </c>
       <c r="S5">
-        <v>0.9979331991025658</v>
+        <v>0.9935717479335127</v>
       </c>
       <c r="T5">
-        <v>0.9999670409683284</v>
+        <v>0.9990623022102417</v>
       </c>
       <c r="U5">
-        <v>0.9996521739693642</v>
+        <v>0.9981649853908351</v>
       </c>
       <c r="V5">
-        <v>1.000683558889443</v>
+        <v>1.000920927865228</v>
       </c>
       <c r="W5">
-        <v>0.9996351618601242</v>
+        <v>0.9985286404885441</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9978133812074885</v>
+        <v>0.9961607338636366</v>
       </c>
       <c r="D6">
-        <v>0.9913725499258402</v>
+        <v>0.9762609464204551</v>
       </c>
       <c r="E6">
-        <v>0.9913725499258402</v>
+        <v>0.9762609464204551</v>
       </c>
       <c r="F6">
-        <v>1.001436347624764</v>
+        <v>1.007354363352273</v>
       </c>
       <c r="G6">
-        <v>1.007032548113844</v>
+        <v>1.013302290568183</v>
       </c>
       <c r="H6">
-        <v>1.007032548113844</v>
+        <v>1.013302290568183</v>
       </c>
       <c r="I6">
-        <v>1.007032548113844</v>
+        <v>1.013302290568183</v>
       </c>
       <c r="J6">
-        <v>1.003126794342685</v>
+        <v>1.008960735</v>
       </c>
       <c r="K6">
-        <v>0.9981028668106035</v>
+        <v>0.9949843739772736</v>
       </c>
       <c r="L6">
-        <v>1.002557141953514</v>
+        <v>1.005146095340909</v>
       </c>
       <c r="M6">
-        <v>0.9942656314795321</v>
+        <v>0.9848105284090913</v>
       </c>
       <c r="N6">
-        <v>1.007032548113844</v>
+        <v>1.013302290568183</v>
       </c>
       <c r="O6">
-        <v>1.001436347624764</v>
+        <v>1.007354363352273</v>
       </c>
       <c r="P6">
-        <v>0.9964044487753023</v>
+        <v>0.9918076548863639</v>
       </c>
       <c r="Q6">
-        <v>0.9997696072176838</v>
+        <v>1.001169368664773</v>
       </c>
       <c r="R6">
-        <v>0.9999471485548161</v>
+        <v>0.99897253344697</v>
       </c>
       <c r="S6">
-        <v>0.9969705881204027</v>
+        <v>0.9928665612500005</v>
       </c>
       <c r="T6">
-        <v>0.9999471485548161</v>
+        <v>0.99897253344697</v>
       </c>
       <c r="U6">
-        <v>0.999486078118763</v>
+        <v>0.997975493579546</v>
       </c>
       <c r="V6">
-        <v>1.000995372117779</v>
+        <v>1.001040852977273</v>
       </c>
       <c r="W6">
-        <v>0.9994634076822839</v>
+        <v>0.9983725083664776</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999955526119443</v>
+        <v>0.9910470254937581</v>
       </c>
       <c r="D7">
-        <v>0.9999417582930989</v>
+        <v>0.9693838702959789</v>
       </c>
       <c r="E7">
-        <v>0.9999417582930989</v>
+        <v>0.9693838702959789</v>
       </c>
       <c r="F7">
-        <v>1.000025814220723</v>
+        <v>1.003232533580409</v>
       </c>
       <c r="G7">
-        <v>1.000018818678323</v>
+        <v>1.028271182575444</v>
       </c>
       <c r="H7">
-        <v>1.000018818678323</v>
+        <v>1.028271182575444</v>
       </c>
       <c r="I7">
-        <v>1.000018818678323</v>
+        <v>1.028271182575444</v>
       </c>
       <c r="J7">
-        <v>1.000022800664458</v>
+        <v>1.010900308869072</v>
       </c>
       <c r="K7">
-        <v>0.9999881614183147</v>
+        <v>0.9931555810675778</v>
       </c>
       <c r="L7">
-        <v>1.000008310364364</v>
+        <v>1.010110411111063</v>
       </c>
       <c r="M7">
-        <v>0.999964081434491</v>
+        <v>0.9793276633124426</v>
       </c>
       <c r="N7">
-        <v>1.000018818678323</v>
+        <v>1.028271182575444</v>
       </c>
       <c r="O7">
-        <v>1.000025814220723</v>
+        <v>1.003232533580409</v>
       </c>
       <c r="P7">
-        <v>0.9999837862569109</v>
+        <v>0.9863082019381938</v>
       </c>
       <c r="Q7">
-        <v>1.000006987819519</v>
+        <v>0.9981940573239932</v>
       </c>
       <c r="R7">
-        <v>0.9999954637307148</v>
+        <v>1.000295862150611</v>
       </c>
       <c r="S7">
-        <v>0.9999852446440455</v>
+        <v>0.9885906616479886</v>
       </c>
       <c r="T7">
-        <v>0.9999954637307148</v>
+        <v>1.000295862150611</v>
       </c>
       <c r="U7">
-        <v>0.9999936381526148</v>
+        <v>0.9985107918798524</v>
       </c>
       <c r="V7">
-        <v>0.9999986742577563</v>
+        <v>1.004462870018971</v>
       </c>
       <c r="W7">
-        <v>0.9999956622107147</v>
+        <v>0.998178572038218</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000008613809069</v>
+        <v>0.9912151717551803</v>
       </c>
       <c r="D8">
-        <v>0.9999629627462964</v>
+        <v>0.9700504114319629</v>
       </c>
       <c r="E8">
-        <v>0.9999629627462964</v>
+        <v>0.9700504114319629</v>
       </c>
       <c r="F8">
-        <v>1.000034294730554</v>
+        <v>1.003120332843378</v>
       </c>
       <c r="G8">
-        <v>0.999980181993475</v>
+        <v>1.027730049476684</v>
       </c>
       <c r="H8">
-        <v>0.999980181993475</v>
+        <v>1.027730049476684</v>
       </c>
       <c r="I8">
-        <v>0.999980181993475</v>
+        <v>1.027730049476684</v>
       </c>
       <c r="J8">
-        <v>1.000016376142092</v>
+        <v>1.010658608555417</v>
       </c>
       <c r="K8">
-        <v>0.9999935461405631</v>
+        <v>0.9933020766029648</v>
       </c>
       <c r="L8">
-        <v>0.9999953532520527</v>
+        <v>1.009913534414464</v>
       </c>
       <c r="M8">
-        <v>0.9999802549430595</v>
+        <v>0.9797704772413025</v>
       </c>
       <c r="N8">
-        <v>0.999980181993475</v>
+        <v>1.027730049476684</v>
       </c>
       <c r="O8">
-        <v>1.000034294730554</v>
+        <v>1.003120332843378</v>
       </c>
       <c r="P8">
-        <v>0.999998628738425</v>
+        <v>0.9865853721376703</v>
       </c>
       <c r="Q8">
-        <v>1.000013920435558</v>
+        <v>0.9982112047231713</v>
       </c>
       <c r="R8">
-        <v>0.9999924798234417</v>
+        <v>1.000300264584008</v>
       </c>
       <c r="S8">
-        <v>0.9999969345391376</v>
+        <v>0.9888242736261018</v>
       </c>
       <c r="T8">
-        <v>0.9999924798234417</v>
+        <v>1.000300264584008</v>
       </c>
       <c r="U8">
-        <v>0.9999927464027221</v>
+        <v>0.9985507175887474</v>
       </c>
       <c r="V8">
-        <v>0.9999902335208727</v>
+        <v>1.004386583966335</v>
       </c>
       <c r="W8">
-        <v>0.9999964479696453</v>
+        <v>0.9982200827901692</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000047493195834</v>
+        <v>0.991282972965981</v>
       </c>
       <c r="D9">
-        <v>1.000152453616179</v>
+        <v>0.9701907819581814</v>
       </c>
       <c r="E9">
-        <v>1.000152453616179</v>
+        <v>0.9701907819581814</v>
       </c>
       <c r="F9">
-        <v>0.9999884561728483</v>
+        <v>1.003147313828966</v>
       </c>
       <c r="G9">
-        <v>0.9998511278963021</v>
+        <v>1.027526115922885</v>
       </c>
       <c r="H9">
-        <v>0.9998511278963021</v>
+        <v>1.027526115922885</v>
       </c>
       <c r="I9">
-        <v>0.9998511278963021</v>
+        <v>1.027526115922885</v>
       </c>
       <c r="J9">
-        <v>0.999946200109595</v>
+        <v>1.010613020031397</v>
       </c>
       <c r="K9">
-        <v>1.00003435517359</v>
+        <v>0.9933359697882103</v>
       </c>
       <c r="L9">
-        <v>0.9999471284895873</v>
+        <v>1.009843956396129</v>
       </c>
       <c r="M9">
-        <v>1.000103728428504</v>
+        <v>0.9798724946505983</v>
       </c>
       <c r="N9">
-        <v>0.9998511278963021</v>
+        <v>1.027526115922885</v>
       </c>
       <c r="O9">
-        <v>0.9999884561728483</v>
+        <v>1.003147313828966</v>
       </c>
       <c r="P9">
-        <v>1.000070454894514</v>
+        <v>0.9866690478935738</v>
       </c>
       <c r="Q9">
-        <v>1.000011405673219</v>
+        <v>0.9982416418085882</v>
       </c>
       <c r="R9">
-        <v>0.9999973458951098</v>
+        <v>1.000288070570011</v>
       </c>
       <c r="S9">
-        <v>1.000058421654206</v>
+        <v>0.9888913551917859</v>
       </c>
       <c r="T9">
-        <v>0.9999973458951098</v>
+        <v>1.000288070570011</v>
       </c>
       <c r="U9">
-        <v>1.00000659821473</v>
+        <v>0.9985500453745608</v>
       </c>
       <c r="V9">
-        <v>0.9999755041510443</v>
+        <v>1.004345259484226</v>
       </c>
       <c r="W9">
-        <v>1.000008867885305</v>
+        <v>0.9982265781927937</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000071521503119</v>
+        <v>0.9921738109463355</v>
       </c>
       <c r="D10">
-        <v>1.000141760205109</v>
+        <v>0.9743884169910537</v>
       </c>
       <c r="E10">
-        <v>1.000141760205109</v>
+        <v>0.9743884169910537</v>
       </c>
       <c r="F10">
-        <v>1.000032012198073</v>
+        <v>1.002178078401319</v>
       </c>
       <c r="G10">
-        <v>0.9997855729726347</v>
+        <v>1.024585161801206</v>
       </c>
       <c r="H10">
-        <v>0.9997855729726347</v>
+        <v>1.024585161801206</v>
       </c>
       <c r="I10">
-        <v>0.9997855729726347</v>
+        <v>1.024585161801206</v>
       </c>
       <c r="J10">
-        <v>0.9999544598172817</v>
+        <v>1.009063310511692</v>
       </c>
       <c r="K10">
-        <v>1.000034515336138</v>
+        <v>0.9942427600149272</v>
       </c>
       <c r="L10">
-        <v>0.9999270877467316</v>
+        <v>1.008750006809369</v>
       </c>
       <c r="M10">
-        <v>1.000103855032913</v>
+        <v>0.9826157028664211</v>
       </c>
       <c r="N10">
-        <v>0.9997855729726347</v>
+        <v>1.024585161801206</v>
       </c>
       <c r="O10">
-        <v>1.000032012198073</v>
+        <v>1.002178078401319</v>
       </c>
       <c r="P10">
-        <v>1.000086886201591</v>
+        <v>0.9882832476961861</v>
       </c>
       <c r="Q10">
-        <v>1.000033263767106</v>
+        <v>0.9982104192081229</v>
       </c>
       <c r="R10">
-        <v>0.9999864484586057</v>
+        <v>1.000383885731193</v>
       </c>
       <c r="S10">
-        <v>1.00006942924644</v>
+        <v>0.9902697518024332</v>
       </c>
       <c r="T10">
-        <v>0.9999864484586057</v>
+        <v>1.000383885731193</v>
       </c>
       <c r="U10">
-        <v>0.9999984651779888</v>
+        <v>0.9988486043021265</v>
       </c>
       <c r="V10">
-        <v>0.9999558867369179</v>
+        <v>1.003995915801942</v>
       </c>
       <c r="W10">
-        <v>1.0000063481015</v>
+        <v>0.9984996560427903</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000198545047889</v>
+        <v>0.9995226474797871</v>
       </c>
       <c r="D11">
-        <v>1.000702043745861</v>
+        <v>0.9981634941999236</v>
       </c>
       <c r="E11">
-        <v>1.000702043745861</v>
+        <v>0.9981634941999236</v>
       </c>
       <c r="F11">
-        <v>0.9999153296641975</v>
+        <v>1.000287172508489</v>
       </c>
       <c r="G11">
-        <v>0.9993704709480303</v>
+        <v>1.001530029670082</v>
       </c>
       <c r="H11">
-        <v>0.9993704709480303</v>
+        <v>1.001530029670082</v>
       </c>
       <c r="I11">
-        <v>0.9993704709480303</v>
+        <v>1.001530029670082</v>
       </c>
       <c r="J11">
-        <v>0.9997489440449054</v>
+        <v>1.00066364529721</v>
       </c>
       <c r="K11">
-        <v>1.000156311448642</v>
+        <v>0.9995950436385362</v>
       </c>
       <c r="L11">
-        <v>0.9997740197104076</v>
+        <v>1.000554658191328</v>
       </c>
       <c r="M11">
-        <v>1.000472206316395</v>
+        <v>0.9987761223084084</v>
       </c>
       <c r="N11">
-        <v>0.9993704709480303</v>
+        <v>1.001530029670082</v>
       </c>
       <c r="O11">
-        <v>0.9999153296641975</v>
+        <v>1.000287172508489</v>
       </c>
       <c r="P11">
-        <v>1.000308686705029</v>
+        <v>0.9992253333542064</v>
       </c>
       <c r="Q11">
-        <v>1.00003582055642</v>
+        <v>0.9999411080735128</v>
       </c>
       <c r="R11">
-        <v>0.9999959481193629</v>
+        <v>0.9999935654594981</v>
       </c>
       <c r="S11">
-        <v>1.0002578949529</v>
+        <v>0.9993485701156497</v>
       </c>
       <c r="T11">
-        <v>0.9999959481193629</v>
+        <v>0.9999935654594981</v>
       </c>
       <c r="U11">
-        <v>1.000036038951683</v>
+        <v>0.9998939350042576</v>
       </c>
       <c r="V11">
-        <v>0.9999029253509523</v>
+        <v>1.000221153937422</v>
       </c>
       <c r="W11">
-        <v>1.000042233865791</v>
+        <v>0.9998866016617205</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9992346878604407</v>
+        <v>0.9997930215133821</v>
       </c>
       <c r="D12">
-        <v>0.9973719629308202</v>
+        <v>0.9992592215091433</v>
       </c>
       <c r="E12">
-        <v>0.9973719629308202</v>
+        <v>0.9992592215091433</v>
       </c>
       <c r="F12">
-        <v>1.000282481962374</v>
+        <v>1.000093285853399</v>
       </c>
       <c r="G12">
-        <v>1.002417857854792</v>
+        <v>1.000657243230547</v>
       </c>
       <c r="H12">
-        <v>1.002417857854792</v>
+        <v>1.000657243230547</v>
       </c>
       <c r="I12">
-        <v>1.002417857854792</v>
+        <v>1.000657243230547</v>
       </c>
       <c r="J12">
-        <v>1.000936190435607</v>
+        <v>1.000265323157849</v>
       </c>
       <c r="K12">
-        <v>0.9994127906670638</v>
+        <v>0.999835300226101</v>
       </c>
       <c r="L12">
-        <v>1.000865077468418</v>
+        <v>1.000236256869926</v>
       </c>
       <c r="M12">
-        <v>0.9982263831254611</v>
+        <v>0.9995024301855689</v>
       </c>
       <c r="N12">
-        <v>1.002417857854792</v>
+        <v>1.000657243230547</v>
       </c>
       <c r="O12">
-        <v>1.000282481962374</v>
+        <v>1.000093285853399</v>
       </c>
       <c r="P12">
-        <v>0.9988272224465973</v>
+        <v>0.9996762536812711</v>
       </c>
       <c r="Q12">
-        <v>0.9998476363147191</v>
+        <v>0.9999642930397501</v>
       </c>
       <c r="R12">
-        <v>1.000024100915995</v>
+        <v>1.000003250197696</v>
       </c>
       <c r="S12">
-        <v>0.9990224118534194</v>
+        <v>0.9997292691962144</v>
       </c>
       <c r="T12">
-        <v>1.000024100915995</v>
+        <v>1.000003250197696</v>
       </c>
       <c r="U12">
-        <v>0.9998712733537625</v>
+        <v>0.9999612627047973</v>
       </c>
       <c r="V12">
-        <v>1.000380590253968</v>
+        <v>1.000100458809947</v>
       </c>
       <c r="W12">
-        <v>0.9998434290381222</v>
+        <v>0.9999552603182396</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9999319837421722</v>
+        <v>0.9995836731982793</v>
       </c>
       <c r="D13">
-        <v>0.9990817833146899</v>
+        <v>0.998966902034584</v>
       </c>
       <c r="E13">
-        <v>0.9990817833146899</v>
+        <v>0.998966902034584</v>
       </c>
       <c r="F13">
-        <v>1.000410226801606</v>
+        <v>0.9999306057302135</v>
       </c>
       <c r="G13">
-        <v>1.000290957719287</v>
+        <v>1.001271250706059</v>
       </c>
       <c r="H13">
-        <v>1.000290957719287</v>
+        <v>1.001271250706059</v>
       </c>
       <c r="I13">
-        <v>1.000290957719287</v>
+        <v>1.001271250706059</v>
       </c>
       <c r="J13">
-        <v>1.000359801015239</v>
+        <v>1.000349086927605</v>
       </c>
       <c r="K13">
-        <v>0.9998135526204949</v>
+        <v>0.9997583199410087</v>
       </c>
       <c r="L13">
-        <v>1.000129187227138</v>
+        <v>1.000440313895917</v>
       </c>
       <c r="M13">
-        <v>0.9994342523920381</v>
+        <v>0.9992715397221912</v>
       </c>
       <c r="N13">
-        <v>1.000290957719287</v>
+        <v>1.001271250706059</v>
       </c>
       <c r="O13">
-        <v>1.000410226801606</v>
+        <v>0.9999306057302135</v>
       </c>
       <c r="P13">
-        <v>0.999746005058148</v>
+        <v>0.9994487538823988</v>
       </c>
       <c r="Q13">
-        <v>1.000111889711051</v>
+        <v>0.9998444628356111</v>
       </c>
       <c r="R13">
-        <v>0.9999276559451943</v>
+        <v>1.000056252823619</v>
       </c>
       <c r="S13">
-        <v>0.9997685209122636</v>
+        <v>0.9995519425686021</v>
       </c>
       <c r="T13">
-        <v>0.9999276559451943</v>
+        <v>1.000056252823619</v>
       </c>
       <c r="U13">
-        <v>0.9998991301140194</v>
+        <v>0.9999817696029664</v>
       </c>
       <c r="V13">
-        <v>0.9999774956350729</v>
+        <v>1.000239665823585</v>
       </c>
       <c r="W13">
-        <v>0.9999314681040831</v>
+        <v>0.9999464615194822</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.053822836603556</v>
+        <v>0.9988783062023268</v>
       </c>
       <c r="D14">
-        <v>1.277954329490422</v>
+        <v>0.9956013407811746</v>
       </c>
       <c r="E14">
-        <v>1.277954329490422</v>
+        <v>0.9956013407811746</v>
       </c>
       <c r="F14">
-        <v>0.9277488733131457</v>
+        <v>1.000721601546542</v>
       </c>
       <c r="G14">
-        <v>0.8196082955855434</v>
+        <v>1.003604545184614</v>
       </c>
       <c r="H14">
-        <v>0.8196082955855434</v>
+        <v>1.003604545184614</v>
       </c>
       <c r="I14">
-        <v>0.8196082955855434</v>
+        <v>1.003604545184614</v>
       </c>
       <c r="J14">
-        <v>0.8965358238763459</v>
+        <v>1.001593048966618</v>
       </c>
       <c r="K14">
-        <v>1.059559687412855</v>
+        <v>0.9990321105318153</v>
       </c>
       <c r="L14">
-        <v>0.9320461621327375</v>
+        <v>1.001309697480607</v>
       </c>
       <c r="M14">
-        <v>1.180249211616174</v>
+        <v>0.9970745091541838</v>
       </c>
       <c r="N14">
-        <v>0.8196082955855434</v>
+        <v>1.003604545184614</v>
       </c>
       <c r="O14">
-        <v>0.9277488733131457</v>
+        <v>1.000721601546542</v>
       </c>
       <c r="P14">
-        <v>1.102851601401784</v>
+        <v>0.9981614711638582</v>
       </c>
       <c r="Q14">
-        <v>0.9936542803630006</v>
+        <v>0.9998768560391786</v>
       </c>
       <c r="R14">
-        <v>1.008437166129704</v>
+        <v>0.9999758291707769</v>
       </c>
       <c r="S14">
-        <v>1.088420963405474</v>
+        <v>0.9984516842865107</v>
       </c>
       <c r="T14">
-        <v>1.008437166129704</v>
+        <v>0.9999758291707769</v>
       </c>
       <c r="U14">
-        <v>1.021217796450492</v>
+        <v>0.9997398995110365</v>
       </c>
       <c r="V14">
-        <v>0.980895896277502</v>
+        <v>1.000512828645752</v>
       </c>
       <c r="W14">
-        <v>1.018440652503847</v>
+        <v>0.9997268949809852</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.015300701163529</v>
+        <v>0.9995919374725618</v>
       </c>
       <c r="D15">
-        <v>1.072680463717056</v>
+        <v>0.998417457385777</v>
       </c>
       <c r="E15">
-        <v>1.072680463717056</v>
+        <v>0.998417457385777</v>
       </c>
       <c r="F15">
-        <v>0.9830245918534591</v>
+        <v>1.000252584110811</v>
       </c>
       <c r="G15">
-        <v>0.9494224432153225</v>
+        <v>1.001309339523482</v>
       </c>
       <c r="H15">
-        <v>0.9494224432153225</v>
+        <v>1.001309339523482</v>
       </c>
       <c r="I15">
-        <v>0.9494224432153225</v>
+        <v>1.001309339523482</v>
       </c>
       <c r="J15">
-        <v>0.9731470645764246</v>
+        <v>1.000572410175627</v>
       </c>
       <c r="K15">
-        <v>1.015689095667364</v>
+        <v>0.9996513516244195</v>
       </c>
       <c r="L15">
-        <v>0.9811661573293712</v>
+        <v>1.000475110494009</v>
       </c>
       <c r="M15">
-        <v>1.04746410601897</v>
+        <v>0.9989462551925379</v>
       </c>
       <c r="N15">
-        <v>0.9494224432153225</v>
+        <v>1.001309339523482</v>
       </c>
       <c r="O15">
-        <v>0.9830245918534591</v>
+        <v>1.000252584110811</v>
       </c>
       <c r="P15">
-        <v>1.027852527785258</v>
+        <v>0.9993350207482943</v>
       </c>
       <c r="Q15">
-        <v>0.9993568437604115</v>
+        <v>0.9999519678676154</v>
       </c>
       <c r="R15">
-        <v>1.001709166261946</v>
+        <v>0.9999931270066901</v>
       </c>
       <c r="S15">
-        <v>1.023798050412626</v>
+        <v>0.9994404643736693</v>
       </c>
       <c r="T15">
-        <v>1.001709166261946</v>
+        <v>0.9999931270066901</v>
       </c>
       <c r="U15">
-        <v>1.0052041486133</v>
+        <v>0.9999076831611224</v>
       </c>
       <c r="V15">
-        <v>0.9940478075337047</v>
+        <v>1.000188014433594</v>
       </c>
       <c r="W15">
-        <v>1.004736827942687</v>
+        <v>0.9999020557474031</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9922280446287014</v>
+        <v>0.9992105715851728</v>
       </c>
       <c r="D16">
-        <v>0.9689097110013526</v>
+        <v>0.99694737855699</v>
       </c>
       <c r="E16">
-        <v>0.9689097110013526</v>
+        <v>0.99694737855699</v>
       </c>
       <c r="F16">
-        <v>1.005344596364361</v>
+        <v>1.000483617637495</v>
       </c>
       <c r="G16">
-        <v>1.025043251916226</v>
+        <v>1.002532032879154</v>
       </c>
       <c r="H16">
-        <v>1.025043251916226</v>
+        <v>1.002532032879154</v>
       </c>
       <c r="I16">
-        <v>1.025043251916226</v>
+        <v>1.002532032879154</v>
       </c>
       <c r="J16">
-        <v>1.011285572788407</v>
+        <v>1.001103762898346</v>
       </c>
       <c r="K16">
-        <v>0.9931735139939232</v>
+        <v>0.9993272647152831</v>
       </c>
       <c r="L16">
-        <v>1.009121441050548</v>
+        <v>1.000918454697044</v>
       </c>
       <c r="M16">
-        <v>0.9793645282457094</v>
+        <v>0.9979667700354508</v>
       </c>
       <c r="N16">
-        <v>1.025043251916226</v>
+        <v>1.002532032879154</v>
       </c>
       <c r="O16">
-        <v>1.005344596364361</v>
+        <v>1.000483617637495</v>
       </c>
       <c r="P16">
-        <v>0.9871271536828568</v>
+        <v>0.9987154980972426</v>
       </c>
       <c r="Q16">
-        <v>0.999259055179142</v>
+        <v>0.9999054411763891</v>
       </c>
       <c r="R16">
-        <v>0.9997658530939798</v>
+        <v>0.9999876763578798</v>
       </c>
       <c r="S16">
-        <v>0.9891426071198789</v>
+        <v>0.9989194203032561</v>
       </c>
       <c r="T16">
-        <v>0.9997658530939798</v>
+        <v>0.9999876763578798</v>
       </c>
       <c r="U16">
-        <v>0.9981177683189656</v>
+        <v>0.9998225734472306</v>
       </c>
       <c r="V16">
-        <v>1.003502865038418</v>
+        <v>1.000364465333615</v>
       </c>
       <c r="W16">
-        <v>0.9980588324986535</v>
+        <v>0.9998112316256169</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9940362334840839</v>
+        <v>0.9985036944963006</v>
       </c>
       <c r="D17">
-        <v>0.9741518358116981</v>
+        <v>0.9941257153295334</v>
       </c>
       <c r="E17">
-        <v>0.9741518358116981</v>
+        <v>0.9941257153295334</v>
       </c>
       <c r="F17">
-        <v>1.005221200660163</v>
+        <v>1.000966309005693</v>
       </c>
       <c r="G17">
-        <v>1.019438040978662</v>
+        <v>1.004809098569759</v>
       </c>
       <c r="H17">
-        <v>1.019438040978662</v>
+        <v>1.004809098569759</v>
       </c>
       <c r="I17">
-        <v>1.019438040978662</v>
+        <v>1.004809098569759</v>
       </c>
       <c r="J17">
-        <v>1.009464357108274</v>
+        <v>1.002127757514392</v>
       </c>
       <c r="K17">
-        <v>0.9943712719046848</v>
+        <v>0.9987075729724719</v>
       </c>
       <c r="L17">
-        <v>1.00715139285431</v>
+        <v>1.001747605040423</v>
       </c>
       <c r="M17">
-        <v>0.9829785330659314</v>
+        <v>0.9960935419524207</v>
       </c>
       <c r="N17">
-        <v>1.019438040978662</v>
+        <v>1.004809098569759</v>
       </c>
       <c r="O17">
-        <v>1.005221200660163</v>
+        <v>1.000966309005693</v>
       </c>
       <c r="P17">
-        <v>0.9896865182359307</v>
+        <v>0.997546012167613</v>
       </c>
       <c r="Q17">
-        <v>0.999796236282424</v>
+        <v>0.9998369409890823</v>
       </c>
       <c r="R17">
-        <v>0.9996036924835078</v>
+        <v>0.9999670409683284</v>
       </c>
       <c r="S17">
-        <v>0.991248102792182</v>
+        <v>0.9979331991025658</v>
       </c>
       <c r="T17">
-        <v>0.9996036924835078</v>
+        <v>0.9999670409683284</v>
       </c>
       <c r="U17">
-        <v>0.998295587338802</v>
+        <v>0.9996521739693642</v>
       </c>
       <c r="V17">
-        <v>1.002524078066774</v>
+        <v>1.000683558889443</v>
       </c>
       <c r="W17">
-        <v>0.998351608233476</v>
+        <v>0.9996351618601242</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9977043880564197</v>
+        <v>0.9978133812074885</v>
       </c>
       <c r="D18">
-        <v>0.9849810648624727</v>
+        <v>0.9913725499258402</v>
       </c>
       <c r="E18">
-        <v>0.9849810648624727</v>
+        <v>0.9913725499258402</v>
       </c>
       <c r="F18">
-        <v>1.004861258239289</v>
+        <v>1.001436347624764</v>
       </c>
       <c r="G18">
-        <v>1.008045461036991</v>
+        <v>1.007032548113844</v>
       </c>
       <c r="H18">
-        <v>1.008045461036991</v>
+        <v>1.007032548113844</v>
       </c>
       <c r="I18">
-        <v>1.008045461036991</v>
+        <v>1.007032548113844</v>
       </c>
       <c r="J18">
-        <v>1.005691046831508</v>
+        <v>1.003126794342685</v>
       </c>
       <c r="K18">
-        <v>0.9968392999292747</v>
+        <v>0.9981028668106035</v>
       </c>
       <c r="L18">
-        <v>1.00313999994478</v>
+        <v>1.002557141953514</v>
       </c>
       <c r="M18">
-        <v>0.9904261919714085</v>
+        <v>0.9942656314795321</v>
       </c>
       <c r="N18">
-        <v>1.008045461036991</v>
+        <v>1.007032548113844</v>
       </c>
       <c r="O18">
-        <v>1.004861258239289</v>
+        <v>1.001436347624764</v>
       </c>
       <c r="P18">
-        <v>0.9949211615508808</v>
+        <v>0.9964044487753023</v>
       </c>
       <c r="Q18">
-        <v>1.000850279084282</v>
+        <v>0.9997696072176838</v>
       </c>
       <c r="R18">
-        <v>0.999295928046251</v>
+        <v>0.9999471485548161</v>
       </c>
       <c r="S18">
-        <v>0.9955605410103455</v>
+        <v>0.9969705881204027</v>
       </c>
       <c r="T18">
-        <v>0.9992959280462509</v>
+        <v>0.9999471485548161</v>
       </c>
       <c r="U18">
-        <v>0.9986817710170068</v>
+        <v>0.999486078118763</v>
       </c>
       <c r="V18">
-        <v>1.000554509021004</v>
+        <v>1.000995372117779</v>
       </c>
       <c r="W18">
-        <v>0.9989610888590179</v>
+        <v>0.9994634076822839</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9975032763085385</v>
+        <v>0.9999955526119443</v>
       </c>
       <c r="D19">
-        <v>0.9825261832867465</v>
+        <v>0.9999417582930989</v>
       </c>
       <c r="E19">
-        <v>0.9825261832867465</v>
+        <v>0.9999417582930989</v>
       </c>
       <c r="F19">
-        <v>1.005927892849819</v>
+        <v>1.000025814220723</v>
       </c>
       <c r="G19">
-        <v>1.008876871757501</v>
+        <v>1.000018818678323</v>
       </c>
       <c r="H19">
-        <v>1.008876871757501</v>
+        <v>1.000018818678323</v>
       </c>
       <c r="I19">
-        <v>1.008876871757501</v>
+        <v>1.000018818678323</v>
       </c>
       <c r="J19">
-        <v>1.006649818581047</v>
+        <v>1.000022800664458</v>
       </c>
       <c r="K19">
-        <v>0.9963390256845401</v>
+        <v>0.9999881614183147</v>
       </c>
       <c r="L19">
-        <v>1.003502097975585</v>
+        <v>1.000008310364364</v>
       </c>
       <c r="M19">
-        <v>0.9889084342968603</v>
+        <v>0.999964081434491</v>
       </c>
       <c r="N19">
-        <v>1.008876871757501</v>
+        <v>1.000018818678323</v>
       </c>
       <c r="O19">
-        <v>1.005927892849819</v>
+        <v>1.000025814220723</v>
       </c>
       <c r="P19">
-        <v>0.9942270380682826</v>
+        <v>0.9999837862569109</v>
       </c>
       <c r="Q19">
-        <v>1.001133459267179</v>
+        <v>1.000006987819519</v>
       </c>
       <c r="R19">
-        <v>0.9991103159646887</v>
+        <v>0.9999954637307148</v>
       </c>
       <c r="S19">
-        <v>0.9949310339403684</v>
+        <v>0.9999852446440455</v>
       </c>
       <c r="T19">
-        <v>0.9991103159646887</v>
+        <v>0.9999954637307148</v>
       </c>
       <c r="U19">
-        <v>0.9984174933946516</v>
+        <v>0.9999936381526148</v>
       </c>
       <c r="V19">
-        <v>1.000509369067222</v>
+        <v>0.9999986742577563</v>
       </c>
       <c r="W19">
-        <v>0.9987792000925797</v>
+        <v>0.9999956622107147</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000017276893865</v>
+        <v>1.000008613809069</v>
       </c>
       <c r="D20">
-        <v>0.9999655756815365</v>
+        <v>0.9999629627462964</v>
       </c>
       <c r="E20">
-        <v>0.9999655756815365</v>
+        <v>0.9999629627462964</v>
       </c>
       <c r="F20">
-        <v>1.000046361193685</v>
+        <v>1.000034294730554</v>
       </c>
       <c r="G20">
-        <v>0.9999558269506368</v>
+        <v>0.999980181993475</v>
       </c>
       <c r="H20">
-        <v>0.9999558269506368</v>
+        <v>0.999980181993475</v>
       </c>
       <c r="I20">
-        <v>0.9999558269506368</v>
+        <v>0.999980181993475</v>
       </c>
       <c r="J20">
-        <v>1.000016741574441</v>
+        <v>1.000016376142092</v>
       </c>
       <c r="K20">
-        <v>0.9999948721144788</v>
+        <v>0.9999935461405631</v>
       </c>
       <c r="L20">
-        <v>0.9999876331927574</v>
+        <v>0.9999953532520527</v>
       </c>
       <c r="M20">
-        <v>0.9999841562078305</v>
+        <v>0.9999802549430595</v>
       </c>
       <c r="N20">
-        <v>0.9999558269506368</v>
+        <v>0.999980181993475</v>
       </c>
       <c r="O20">
-        <v>1.000046361193685</v>
+        <v>1.000034294730554</v>
       </c>
       <c r="P20">
-        <v>1.000005968437611</v>
+        <v>0.999998628738425</v>
       </c>
       <c r="Q20">
-        <v>1.000020616654082</v>
+        <v>1.000013920435558</v>
       </c>
       <c r="R20">
-        <v>0.9999892546086194</v>
+        <v>0.9999924798234417</v>
       </c>
       <c r="S20">
-        <v>1.000002269663234</v>
+        <v>0.9999969345391376</v>
       </c>
       <c r="T20">
-        <v>0.9999892546086194</v>
+        <v>0.9999924798234417</v>
       </c>
       <c r="U20">
-        <v>0.9999906589850843</v>
+        <v>0.9999927464027221</v>
       </c>
       <c r="V20">
-        <v>0.9999836925781949</v>
+        <v>0.9999902335208727</v>
       </c>
       <c r="W20">
-        <v>0.9999960554761538</v>
+        <v>0.9999964479696453</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999532137378868</v>
+        <v>1.000047493195834</v>
       </c>
       <c r="D21">
-        <v>0.9998779240781555</v>
+        <v>1.000152453616179</v>
       </c>
       <c r="E21">
-        <v>0.9998779240781555</v>
+        <v>1.000152453616179</v>
       </c>
       <c r="F21">
-        <v>0.9999955658476287</v>
+        <v>0.9999884561728483</v>
       </c>
       <c r="G21">
-        <v>1.000143519341251</v>
+        <v>0.9998511278963021</v>
       </c>
       <c r="H21">
-        <v>1.000143519341251</v>
+        <v>0.9998511278963021</v>
       </c>
       <c r="I21">
-        <v>1.000143519341251</v>
+        <v>0.9998511278963021</v>
       </c>
       <c r="J21">
-        <v>1.000041645095209</v>
+        <v>0.999946200109595</v>
       </c>
       <c r="K21">
-        <v>0.9999716678036198</v>
+        <v>1.00003435517359</v>
       </c>
       <c r="L21">
-        <v>1.000049939544589</v>
+        <v>0.9999471284895873</v>
       </c>
       <c r="M21">
-        <v>0.9999145757953288</v>
+        <v>1.000103728428504</v>
       </c>
       <c r="N21">
-        <v>1.000143519341251</v>
+        <v>0.9998511278963021</v>
       </c>
       <c r="O21">
-        <v>0.9999955658476287</v>
+        <v>0.9999884561728483</v>
       </c>
       <c r="P21">
-        <v>0.9999367449628921</v>
+        <v>1.000070454894514</v>
       </c>
       <c r="Q21">
-        <v>0.9999836168256242</v>
+        <v>1.000011405673219</v>
       </c>
       <c r="R21">
-        <v>1.000005669755679</v>
+        <v>0.9999973458951098</v>
       </c>
       <c r="S21">
-        <v>0.9999483859098013</v>
+        <v>1.000058421654206</v>
       </c>
       <c r="T21">
-        <v>1.000005669755678</v>
+        <v>0.9999973458951098</v>
       </c>
       <c r="U21">
-        <v>0.9999971692676637</v>
+        <v>1.00000659821473</v>
       </c>
       <c r="V21">
-        <v>1.000026439282381</v>
+        <v>0.9999755041510443</v>
       </c>
       <c r="W21">
-        <v>0.9999935064054586</v>
+        <v>1.000008867885305</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999185844993872</v>
+        <v>1.000071521503119</v>
       </c>
       <c r="D22">
-        <v>0.9994477109054802</v>
+        <v>1.000141760205109</v>
       </c>
       <c r="E22">
-        <v>0.9994477109054802</v>
+        <v>1.000141760205109</v>
       </c>
       <c r="F22">
-        <v>1.000183448643837</v>
+        <v>1.000032012198073</v>
       </c>
       <c r="G22">
-        <v>1.000287516832997</v>
+        <v>0.9997855729726347</v>
       </c>
       <c r="H22">
-        <v>1.000287516832997</v>
+        <v>0.9997855729726347</v>
       </c>
       <c r="I22">
-        <v>1.000287516832997</v>
+        <v>0.9997855729726347</v>
       </c>
       <c r="J22">
-        <v>1.000209768435695</v>
+        <v>0.9999544598172817</v>
       </c>
       <c r="K22">
-        <v>0.9998840541412201</v>
+        <v>1.000034515336138</v>
       </c>
       <c r="L22">
-        <v>1.000112863738293</v>
+        <v>0.9999270877467316</v>
       </c>
       <c r="M22">
-        <v>0.9996487598310621</v>
+        <v>1.000103855032913</v>
       </c>
       <c r="N22">
-        <v>1.000287516832997</v>
+        <v>0.9997855729726347</v>
       </c>
       <c r="O22">
-        <v>1.000183448643837</v>
+        <v>1.000032012198073</v>
       </c>
       <c r="P22">
-        <v>0.9998155797746584</v>
+        <v>1.000086886201591</v>
       </c>
       <c r="Q22">
-        <v>1.000033751392528</v>
+        <v>1.000033263767106</v>
       </c>
       <c r="R22">
-        <v>0.9999728921274378</v>
+        <v>0.9999864484586057</v>
       </c>
       <c r="S22">
-        <v>0.9998384045635124</v>
+        <v>1.00006942924644</v>
       </c>
       <c r="T22">
-        <v>0.9999728921274378</v>
+        <v>0.9999864484586057</v>
       </c>
       <c r="U22">
-        <v>0.9999506826308834</v>
+        <v>0.9999984651779888</v>
       </c>
       <c r="V22">
-        <v>1.000018049471306</v>
+        <v>0.9999558867369179</v>
       </c>
       <c r="W22">
-        <v>0.9999615883784964</v>
+        <v>1.0000063481015</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000198545047889</v>
+      </c>
+      <c r="D23">
+        <v>1.000702043745861</v>
+      </c>
+      <c r="E23">
+        <v>1.000702043745861</v>
+      </c>
+      <c r="F23">
+        <v>0.9999153296641975</v>
+      </c>
+      <c r="G23">
+        <v>0.9993704709480303</v>
+      </c>
+      <c r="H23">
+        <v>0.9993704709480303</v>
+      </c>
+      <c r="I23">
+        <v>0.9993704709480303</v>
+      </c>
+      <c r="J23">
+        <v>0.9997489440449054</v>
+      </c>
+      <c r="K23">
+        <v>1.000156311448642</v>
+      </c>
+      <c r="L23">
+        <v>0.9997740197104076</v>
+      </c>
+      <c r="M23">
+        <v>1.000472206316395</v>
+      </c>
+      <c r="N23">
+        <v>0.9993704709480303</v>
+      </c>
+      <c r="O23">
+        <v>0.9999153296641975</v>
+      </c>
+      <c r="P23">
+        <v>1.000308686705029</v>
+      </c>
+      <c r="Q23">
+        <v>1.00003582055642</v>
+      </c>
+      <c r="R23">
+        <v>0.9999959481193629</v>
+      </c>
+      <c r="S23">
+        <v>1.0002578949529</v>
+      </c>
+      <c r="T23">
+        <v>0.9999959481193629</v>
+      </c>
+      <c r="U23">
+        <v>1.000036038951683</v>
+      </c>
+      <c r="V23">
+        <v>0.9999029253509523</v>
+      </c>
+      <c r="W23">
+        <v>1.000042233865791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9992346878604407</v>
+      </c>
+      <c r="D24">
+        <v>0.9973719629308202</v>
+      </c>
+      <c r="E24">
+        <v>0.9973719629308202</v>
+      </c>
+      <c r="F24">
+        <v>1.000282481962374</v>
+      </c>
+      <c r="G24">
+        <v>1.002417857854792</v>
+      </c>
+      <c r="H24">
+        <v>1.002417857854792</v>
+      </c>
+      <c r="I24">
+        <v>1.002417857854792</v>
+      </c>
+      <c r="J24">
+        <v>1.000936190435607</v>
+      </c>
+      <c r="K24">
+        <v>0.9994127906670638</v>
+      </c>
+      <c r="L24">
+        <v>1.000865077468418</v>
+      </c>
+      <c r="M24">
+        <v>0.9982263831254611</v>
+      </c>
+      <c r="N24">
+        <v>1.002417857854792</v>
+      </c>
+      <c r="O24">
+        <v>1.000282481962374</v>
+      </c>
+      <c r="P24">
+        <v>0.9988272224465973</v>
+      </c>
+      <c r="Q24">
+        <v>0.9998476363147191</v>
+      </c>
+      <c r="R24">
+        <v>1.000024100915995</v>
+      </c>
+      <c r="S24">
+        <v>0.9990224118534194</v>
+      </c>
+      <c r="T24">
+        <v>1.000024100915995</v>
+      </c>
+      <c r="U24">
+        <v>0.9998712733537625</v>
+      </c>
+      <c r="V24">
+        <v>1.000380590253968</v>
+      </c>
+      <c r="W24">
+        <v>0.9998434290381222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9999319837421722</v>
+      </c>
+      <c r="D25">
+        <v>0.9990817833146899</v>
+      </c>
+      <c r="E25">
+        <v>0.9990817833146899</v>
+      </c>
+      <c r="F25">
+        <v>1.000410226801606</v>
+      </c>
+      <c r="G25">
+        <v>1.000290957719287</v>
+      </c>
+      <c r="H25">
+        <v>1.000290957719287</v>
+      </c>
+      <c r="I25">
+        <v>1.000290957719287</v>
+      </c>
+      <c r="J25">
+        <v>1.000359801015239</v>
+      </c>
+      <c r="K25">
+        <v>0.9998135526204949</v>
+      </c>
+      <c r="L25">
+        <v>1.000129187227138</v>
+      </c>
+      <c r="M25">
+        <v>0.9994342523920381</v>
+      </c>
+      <c r="N25">
+        <v>1.000290957719287</v>
+      </c>
+      <c r="O25">
+        <v>1.000410226801606</v>
+      </c>
+      <c r="P25">
+        <v>0.999746005058148</v>
+      </c>
+      <c r="Q25">
+        <v>1.000111889711051</v>
+      </c>
+      <c r="R25">
+        <v>0.9999276559451943</v>
+      </c>
+      <c r="S25">
+        <v>0.9997685209122636</v>
+      </c>
+      <c r="T25">
+        <v>0.9999276559451943</v>
+      </c>
+      <c r="U25">
+        <v>0.9998991301140194</v>
+      </c>
+      <c r="V25">
+        <v>0.9999774956350729</v>
+      </c>
+      <c r="W25">
+        <v>0.9999314681040831</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.053822836603556</v>
+      </c>
+      <c r="D26">
+        <v>1.277954329490422</v>
+      </c>
+      <c r="E26">
+        <v>1.277954329490422</v>
+      </c>
+      <c r="F26">
+        <v>0.9277488733131457</v>
+      </c>
+      <c r="G26">
+        <v>0.8196082955855434</v>
+      </c>
+      <c r="H26">
+        <v>0.8196082955855434</v>
+      </c>
+      <c r="I26">
+        <v>0.8196082955855434</v>
+      </c>
+      <c r="J26">
+        <v>0.8965358238763459</v>
+      </c>
+      <c r="K26">
+        <v>1.059559687412855</v>
+      </c>
+      <c r="L26">
+        <v>0.9320461621327375</v>
+      </c>
+      <c r="M26">
+        <v>1.180249211616174</v>
+      </c>
+      <c r="N26">
+        <v>0.8196082955855434</v>
+      </c>
+      <c r="O26">
+        <v>0.9277488733131457</v>
+      </c>
+      <c r="P26">
+        <v>1.102851601401784</v>
+      </c>
+      <c r="Q26">
+        <v>0.9936542803630006</v>
+      </c>
+      <c r="R26">
+        <v>1.008437166129704</v>
+      </c>
+      <c r="S26">
+        <v>1.088420963405474</v>
+      </c>
+      <c r="T26">
+        <v>1.008437166129704</v>
+      </c>
+      <c r="U26">
+        <v>1.021217796450492</v>
+      </c>
+      <c r="V26">
+        <v>0.980895896277502</v>
+      </c>
+      <c r="W26">
+        <v>1.018440652503847</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.015300701163529</v>
+      </c>
+      <c r="D27">
+        <v>1.072680463717056</v>
+      </c>
+      <c r="E27">
+        <v>1.072680463717056</v>
+      </c>
+      <c r="F27">
+        <v>0.9830245918534591</v>
+      </c>
+      <c r="G27">
+        <v>0.9494224432153225</v>
+      </c>
+      <c r="H27">
+        <v>0.9494224432153225</v>
+      </c>
+      <c r="I27">
+        <v>0.9494224432153225</v>
+      </c>
+      <c r="J27">
+        <v>0.9731470645764246</v>
+      </c>
+      <c r="K27">
+        <v>1.015689095667364</v>
+      </c>
+      <c r="L27">
+        <v>0.9811661573293712</v>
+      </c>
+      <c r="M27">
+        <v>1.04746410601897</v>
+      </c>
+      <c r="N27">
+        <v>0.9494224432153225</v>
+      </c>
+      <c r="O27">
+        <v>0.9830245918534591</v>
+      </c>
+      <c r="P27">
+        <v>1.027852527785258</v>
+      </c>
+      <c r="Q27">
+        <v>0.9993568437604115</v>
+      </c>
+      <c r="R27">
+        <v>1.001709166261946</v>
+      </c>
+      <c r="S27">
+        <v>1.023798050412626</v>
+      </c>
+      <c r="T27">
+        <v>1.001709166261946</v>
+      </c>
+      <c r="U27">
+        <v>1.0052041486133</v>
+      </c>
+      <c r="V27">
+        <v>0.9940478075337047</v>
+      </c>
+      <c r="W27">
+        <v>1.004736827942687</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9922280446287014</v>
+      </c>
+      <c r="D28">
+        <v>0.9689097110013526</v>
+      </c>
+      <c r="E28">
+        <v>0.9689097110013526</v>
+      </c>
+      <c r="F28">
+        <v>1.005344596364361</v>
+      </c>
+      <c r="G28">
+        <v>1.025043251916226</v>
+      </c>
+      <c r="H28">
+        <v>1.025043251916226</v>
+      </c>
+      <c r="I28">
+        <v>1.025043251916226</v>
+      </c>
+      <c r="J28">
+        <v>1.011285572788407</v>
+      </c>
+      <c r="K28">
+        <v>0.9931735139939232</v>
+      </c>
+      <c r="L28">
+        <v>1.009121441050548</v>
+      </c>
+      <c r="M28">
+        <v>0.9793645282457094</v>
+      </c>
+      <c r="N28">
+        <v>1.025043251916226</v>
+      </c>
+      <c r="O28">
+        <v>1.005344596364361</v>
+      </c>
+      <c r="P28">
+        <v>0.9871271536828568</v>
+      </c>
+      <c r="Q28">
+        <v>0.999259055179142</v>
+      </c>
+      <c r="R28">
+        <v>0.9997658530939798</v>
+      </c>
+      <c r="S28">
+        <v>0.9891426071198789</v>
+      </c>
+      <c r="T28">
+        <v>0.9997658530939798</v>
+      </c>
+      <c r="U28">
+        <v>0.9981177683189656</v>
+      </c>
+      <c r="V28">
+        <v>1.003502865038418</v>
+      </c>
+      <c r="W28">
+        <v>0.9980588324986535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9940362334840839</v>
+      </c>
+      <c r="D29">
+        <v>0.9741518358116981</v>
+      </c>
+      <c r="E29">
+        <v>0.9741518358116981</v>
+      </c>
+      <c r="F29">
+        <v>1.005221200660163</v>
+      </c>
+      <c r="G29">
+        <v>1.019438040978662</v>
+      </c>
+      <c r="H29">
+        <v>1.019438040978662</v>
+      </c>
+      <c r="I29">
+        <v>1.019438040978662</v>
+      </c>
+      <c r="J29">
+        <v>1.009464357108274</v>
+      </c>
+      <c r="K29">
+        <v>0.9943712719046848</v>
+      </c>
+      <c r="L29">
+        <v>1.00715139285431</v>
+      </c>
+      <c r="M29">
+        <v>0.9829785330659314</v>
+      </c>
+      <c r="N29">
+        <v>1.019438040978662</v>
+      </c>
+      <c r="O29">
+        <v>1.005221200660163</v>
+      </c>
+      <c r="P29">
+        <v>0.9896865182359307</v>
+      </c>
+      <c r="Q29">
+        <v>0.999796236282424</v>
+      </c>
+      <c r="R29">
+        <v>0.9996036924835078</v>
+      </c>
+      <c r="S29">
+        <v>0.991248102792182</v>
+      </c>
+      <c r="T29">
+        <v>0.9996036924835078</v>
+      </c>
+      <c r="U29">
+        <v>0.998295587338802</v>
+      </c>
+      <c r="V29">
+        <v>1.002524078066774</v>
+      </c>
+      <c r="W29">
+        <v>0.998351608233476</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9977043880564197</v>
+      </c>
+      <c r="D30">
+        <v>0.9849810648624727</v>
+      </c>
+      <c r="E30">
+        <v>0.9849810648624727</v>
+      </c>
+      <c r="F30">
+        <v>1.004861258239289</v>
+      </c>
+      <c r="G30">
+        <v>1.008045461036991</v>
+      </c>
+      <c r="H30">
+        <v>1.008045461036991</v>
+      </c>
+      <c r="I30">
+        <v>1.008045461036991</v>
+      </c>
+      <c r="J30">
+        <v>1.005691046831508</v>
+      </c>
+      <c r="K30">
+        <v>0.9968392999292747</v>
+      </c>
+      <c r="L30">
+        <v>1.00313999994478</v>
+      </c>
+      <c r="M30">
+        <v>0.9904261919714085</v>
+      </c>
+      <c r="N30">
+        <v>1.008045461036991</v>
+      </c>
+      <c r="O30">
+        <v>1.004861258239289</v>
+      </c>
+      <c r="P30">
+        <v>0.9949211615508808</v>
+      </c>
+      <c r="Q30">
+        <v>1.000850279084282</v>
+      </c>
+      <c r="R30">
+        <v>0.999295928046251</v>
+      </c>
+      <c r="S30">
+        <v>0.9955605410103455</v>
+      </c>
+      <c r="T30">
+        <v>0.9992959280462509</v>
+      </c>
+      <c r="U30">
+        <v>0.9986817710170068</v>
+      </c>
+      <c r="V30">
+        <v>1.000554509021004</v>
+      </c>
+      <c r="W30">
+        <v>0.9989610888590179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9975032763085385</v>
+      </c>
+      <c r="D31">
+        <v>0.9825261832867465</v>
+      </c>
+      <c r="E31">
+        <v>0.9825261832867465</v>
+      </c>
+      <c r="F31">
+        <v>1.005927892849819</v>
+      </c>
+      <c r="G31">
+        <v>1.008876871757501</v>
+      </c>
+      <c r="H31">
+        <v>1.008876871757501</v>
+      </c>
+      <c r="I31">
+        <v>1.008876871757501</v>
+      </c>
+      <c r="J31">
+        <v>1.006649818581047</v>
+      </c>
+      <c r="K31">
+        <v>0.9963390256845401</v>
+      </c>
+      <c r="L31">
+        <v>1.003502097975585</v>
+      </c>
+      <c r="M31">
+        <v>0.9889084342968603</v>
+      </c>
+      <c r="N31">
+        <v>1.008876871757501</v>
+      </c>
+      <c r="O31">
+        <v>1.005927892849819</v>
+      </c>
+      <c r="P31">
+        <v>0.9942270380682826</v>
+      </c>
+      <c r="Q31">
+        <v>1.001133459267179</v>
+      </c>
+      <c r="R31">
+        <v>0.9991103159646887</v>
+      </c>
+      <c r="S31">
+        <v>0.9949310339403684</v>
+      </c>
+      <c r="T31">
+        <v>0.9991103159646887</v>
+      </c>
+      <c r="U31">
+        <v>0.9984174933946516</v>
+      </c>
+      <c r="V31">
+        <v>1.000509369067222</v>
+      </c>
+      <c r="W31">
+        <v>0.9987792000925797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9916501898630137</v>
+      </c>
+      <c r="D32">
+        <v>0.9699554873972599</v>
+      </c>
+      <c r="E32">
+        <v>0.9699554873972599</v>
+      </c>
+      <c r="F32">
+        <v>1.003853444520548</v>
+      </c>
+      <c r="G32">
+        <v>1.026532212465753</v>
+      </c>
+      <c r="H32">
+        <v>1.026532212465753</v>
+      </c>
+      <c r="I32">
+        <v>1.026532212465753</v>
+      </c>
+      <c r="J32">
+        <v>1.010768306164384</v>
+      </c>
+      <c r="K32">
+        <v>0.9933243169863013</v>
+      </c>
+      <c r="L32">
+        <v>1.00954316520548</v>
+      </c>
+      <c r="M32">
+        <v>0.9798315821917806</v>
+      </c>
+      <c r="N32">
+        <v>1.026532212465753</v>
+      </c>
+      <c r="O32">
+        <v>1.003853444520548</v>
+      </c>
+      <c r="P32">
+        <v>0.9869044659589039</v>
+      </c>
+      <c r="Q32">
+        <v>0.9985888807534246</v>
+      </c>
+      <c r="R32">
+        <v>1.00011371479452</v>
+      </c>
+      <c r="S32">
+        <v>0.9890444163013697</v>
+      </c>
+      <c r="T32">
+        <v>1.00011371479452</v>
+      </c>
+      <c r="U32">
+        <v>0.9984163653424656</v>
+      </c>
+      <c r="V32">
+        <v>1.004039534767123</v>
+      </c>
+      <c r="W32">
+        <v>0.998182338099315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.029750292631579</v>
+      </c>
+      <c r="D33">
+        <v>1.140071708421053</v>
+      </c>
+      <c r="E33">
+        <v>1.140071708421053</v>
+      </c>
+      <c r="F33">
+        <v>0.9676944963157896</v>
+      </c>
+      <c r="G33">
+        <v>0.9017967668421052</v>
+      </c>
+      <c r="H33">
+        <v>0.9017967668421052</v>
+      </c>
+      <c r="I33">
+        <v>0.9017967668421052</v>
+      </c>
+      <c r="J33">
+        <v>0.9482913394736844</v>
+      </c>
+      <c r="K33">
+        <v>1.030261076842105</v>
+      </c>
+      <c r="L33">
+        <v>0.9634751726315791</v>
+      </c>
+      <c r="M33">
+        <v>1.091545081052631</v>
+      </c>
+      <c r="N33">
+        <v>0.9017967668421052</v>
+      </c>
+      <c r="O33">
+        <v>0.9676944963157896</v>
+      </c>
+      <c r="P33">
+        <v>1.053883102368421</v>
+      </c>
+      <c r="Q33">
+        <v>0.9989777865789474</v>
+      </c>
+      <c r="R33">
+        <v>1.003187657192983</v>
+      </c>
+      <c r="S33">
+        <v>1.046009093859649</v>
+      </c>
+      <c r="T33">
+        <v>1.003187657192983</v>
+      </c>
+      <c r="U33">
+        <v>1.009956012105263</v>
+      </c>
+      <c r="V33">
+        <v>0.9883241630526317</v>
+      </c>
+      <c r="W33">
+        <v>1.009110741776316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9926301878947367</v>
+      </c>
+      <c r="D34">
+        <v>0.973720025263158</v>
+      </c>
+      <c r="E34">
+        <v>0.973720025263158</v>
+      </c>
+      <c r="F34">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="G34">
+        <v>1.023391712631579</v>
+      </c>
+      <c r="H34">
+        <v>1.023391712631579</v>
+      </c>
+      <c r="I34">
+        <v>1.023391712631579</v>
+      </c>
+      <c r="J34">
+        <v>1.009408188947369</v>
+      </c>
+      <c r="K34">
+        <v>0.9941545531578949</v>
+      </c>
+      <c r="L34">
+        <v>1.008404903684211</v>
+      </c>
+      <c r="M34">
+        <v>0.9823407431578948</v>
+      </c>
+      <c r="N34">
+        <v>1.023391712631579</v>
+      </c>
+      <c r="O34">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="P34">
+        <v>0.9884935818421052</v>
+      </c>
+      <c r="Q34">
+        <v>0.9987108457894738</v>
+      </c>
+      <c r="R34">
+        <v>1.000126292105263</v>
+      </c>
+      <c r="S34">
+        <v>0.9903805722807019</v>
+      </c>
+      <c r="T34">
+        <v>1.000126292105263</v>
+      </c>
+      <c r="U34">
+        <v>0.9986333573684212</v>
+      </c>
+      <c r="V34">
+        <v>1.003585028421053</v>
+      </c>
+      <c r="W34">
+        <v>0.9984146816447369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.991295741599315</v>
+      </c>
+      <c r="D35">
+        <v>0.9361923857285969</v>
+      </c>
+      <c r="E35">
+        <v>0.9361923857285969</v>
+      </c>
+      <c r="F35">
+        <v>1.022291365730696</v>
+      </c>
+      <c r="G35">
+        <v>1.031268214437598</v>
+      </c>
+      <c r="H35">
+        <v>1.031268214437598</v>
+      </c>
+      <c r="I35">
+        <v>1.031268214437598</v>
+      </c>
+      <c r="J35">
+        <v>1.024350269432132</v>
+      </c>
+      <c r="K35">
+        <v>0.9866703070407434</v>
+      </c>
+      <c r="L35">
+        <v>1.012429972613905</v>
+      </c>
+      <c r="M35">
+        <v>0.9596095652561436</v>
+      </c>
+      <c r="N35">
+        <v>1.031268214437598</v>
+      </c>
+      <c r="O35">
+        <v>1.022291365730696</v>
+      </c>
+      <c r="P35">
+        <v>0.9792418757296464</v>
+      </c>
+      <c r="Q35">
+        <v>1.00448083638572</v>
+      </c>
+      <c r="R35">
+        <v>0.996583988632297</v>
+      </c>
+      <c r="S35">
+        <v>0.9817180195000121</v>
+      </c>
+      <c r="T35">
+        <v>0.996583988632297</v>
+      </c>
+      <c r="U35">
+        <v>0.9941055682344087</v>
+      </c>
+      <c r="V35">
+        <v>1.001538097475047</v>
+      </c>
+      <c r="W35">
+        <v>0.9955134777298913</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000017276893865</v>
+      </c>
+      <c r="D36">
+        <v>0.9999655756815365</v>
+      </c>
+      <c r="E36">
+        <v>0.9999655756815365</v>
+      </c>
+      <c r="F36">
+        <v>1.000046361193685</v>
+      </c>
+      <c r="G36">
+        <v>0.9999558269506368</v>
+      </c>
+      <c r="H36">
+        <v>0.9999558269506368</v>
+      </c>
+      <c r="I36">
+        <v>0.9999558269506368</v>
+      </c>
+      <c r="J36">
+        <v>1.000016741574441</v>
+      </c>
+      <c r="K36">
+        <v>0.9999948721144788</v>
+      </c>
+      <c r="L36">
+        <v>0.9999876331927574</v>
+      </c>
+      <c r="M36">
+        <v>0.9999841562078305</v>
+      </c>
+      <c r="N36">
+        <v>0.9999558269506368</v>
+      </c>
+      <c r="O36">
+        <v>1.000046361193685</v>
+      </c>
+      <c r="P36">
+        <v>1.000005968437611</v>
+      </c>
+      <c r="Q36">
+        <v>1.000020616654082</v>
+      </c>
+      <c r="R36">
+        <v>0.9999892546086194</v>
+      </c>
+      <c r="S36">
+        <v>1.000002269663234</v>
+      </c>
+      <c r="T36">
+        <v>0.9999892546086194</v>
+      </c>
+      <c r="U36">
+        <v>0.9999906589850843</v>
+      </c>
+      <c r="V36">
+        <v>0.9999836925781949</v>
+      </c>
+      <c r="W36">
+        <v>0.9999960554761538</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999532137378868</v>
+      </c>
+      <c r="D37">
+        <v>0.9998779240781555</v>
+      </c>
+      <c r="E37">
+        <v>0.9998779240781555</v>
+      </c>
+      <c r="F37">
+        <v>0.9999955658476287</v>
+      </c>
+      <c r="G37">
+        <v>1.000143519341251</v>
+      </c>
+      <c r="H37">
+        <v>1.000143519341251</v>
+      </c>
+      <c r="I37">
+        <v>1.000143519341251</v>
+      </c>
+      <c r="J37">
+        <v>1.000041645095209</v>
+      </c>
+      <c r="K37">
+        <v>0.9999716678036198</v>
+      </c>
+      <c r="L37">
+        <v>1.000049939544589</v>
+      </c>
+      <c r="M37">
+        <v>0.9999145757953288</v>
+      </c>
+      <c r="N37">
+        <v>1.000143519341251</v>
+      </c>
+      <c r="O37">
+        <v>0.9999955658476287</v>
+      </c>
+      <c r="P37">
+        <v>0.9999367449628921</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999836168256242</v>
+      </c>
+      <c r="R37">
+        <v>1.000005669755679</v>
+      </c>
+      <c r="S37">
+        <v>0.9999483859098013</v>
+      </c>
+      <c r="T37">
+        <v>1.000005669755678</v>
+      </c>
+      <c r="U37">
+        <v>0.9999971692676637</v>
+      </c>
+      <c r="V37">
+        <v>1.000026439282381</v>
+      </c>
+      <c r="W37">
+        <v>0.9999935064054586</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999185844993872</v>
+      </c>
+      <c r="D38">
+        <v>0.9994477109054802</v>
+      </c>
+      <c r="E38">
+        <v>0.9994477109054802</v>
+      </c>
+      <c r="F38">
+        <v>1.000183448643837</v>
+      </c>
+      <c r="G38">
+        <v>1.000287516832997</v>
+      </c>
+      <c r="H38">
+        <v>1.000287516832997</v>
+      </c>
+      <c r="I38">
+        <v>1.000287516832997</v>
+      </c>
+      <c r="J38">
+        <v>1.000209768435695</v>
+      </c>
+      <c r="K38">
+        <v>0.9998840541412201</v>
+      </c>
+      <c r="L38">
+        <v>1.000112863738293</v>
+      </c>
+      <c r="M38">
+        <v>0.9996487598310621</v>
+      </c>
+      <c r="N38">
+        <v>1.000287516832997</v>
+      </c>
+      <c r="O38">
+        <v>1.000183448643837</v>
+      </c>
+      <c r="P38">
+        <v>0.9998155797746584</v>
+      </c>
+      <c r="Q38">
+        <v>1.000033751392528</v>
+      </c>
+      <c r="R38">
+        <v>0.9999728921274378</v>
+      </c>
+      <c r="S38">
+        <v>0.9998384045635124</v>
+      </c>
+      <c r="T38">
+        <v>0.9999728921274378</v>
+      </c>
+      <c r="U38">
+        <v>0.9999506826308834</v>
+      </c>
+      <c r="V38">
+        <v>1.000018049471306</v>
+      </c>
+      <c r="W38">
+        <v>0.9999615883784964</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9998502573002208</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9986458786381561</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9986458786381561</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000527720428362</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000566402307763</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000566402307763</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000566402307763</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000522497441397</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9997204040067069</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000233419849397</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9991523043883592</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000566402307763</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000527720428362</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9995867995332592</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000124062217535</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999133337914273</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9996313343577418</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999133337914273</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9998651013452473</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.00000536153775</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9999023605450453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9986147567483004</v>
+      </c>
+      <c r="D40">
+        <v>0.9896464078244349</v>
+      </c>
+      <c r="E40">
+        <v>0.9896464078244349</v>
+      </c>
+      <c r="F40">
+        <v>1.003659455185878</v>
+      </c>
+      <c r="G40">
+        <v>1.004998292311812</v>
+      </c>
+      <c r="H40">
+        <v>1.004998292311812</v>
+      </c>
+      <c r="I40">
+        <v>1.004998292311812</v>
+      </c>
+      <c r="J40">
+        <v>1.003955591993647</v>
+      </c>
+      <c r="K40">
+        <v>0.9978396368919109</v>
+      </c>
+      <c r="L40">
+        <v>1.001993370120277</v>
+      </c>
+      <c r="M40">
+        <v>0.9934534834689561</v>
+      </c>
+      <c r="N40">
+        <v>1.004998292311812</v>
+      </c>
+      <c r="O40">
+        <v>1.003659455185878</v>
+      </c>
+      <c r="P40">
+        <v>0.9966529315051564</v>
+      </c>
+      <c r="Q40">
+        <v>1.000749546038894</v>
+      </c>
+      <c r="R40">
+        <v>0.9994347184407083</v>
+      </c>
+      <c r="S40">
+        <v>0.997048499967408</v>
+      </c>
+      <c r="T40">
+        <v>0.9994347184407083</v>
+      </c>
+      <c r="U40">
+        <v>0.9990359480535089</v>
+      </c>
+      <c r="V40">
+        <v>1.000228416905169</v>
+      </c>
+      <c r="W40">
+        <v>0.9992701243181521</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9906892232476082</v>
+      </c>
+      <c r="D41">
+        <v>0.9532256320648799</v>
+      </c>
+      <c r="E41">
+        <v>0.9532256320648799</v>
+      </c>
+      <c r="F41">
+        <v>1.01176249316229</v>
+      </c>
+      <c r="G41">
+        <v>1.031060416178911</v>
+      </c>
+      <c r="H41">
+        <v>1.031060416178911</v>
+      </c>
+      <c r="I41">
+        <v>1.031060416178911</v>
+      </c>
+      <c r="J41">
+        <v>1.017369464938312</v>
+      </c>
+      <c r="K41">
+        <v>0.989953451746046</v>
+      </c>
+      <c r="L41">
+        <v>1.01165531591254</v>
+      </c>
+      <c r="M41">
+        <v>0.9695989686883391</v>
+      </c>
+      <c r="N41">
+        <v>1.031060416178911</v>
+      </c>
+      <c r="O41">
+        <v>1.01176249316229</v>
+      </c>
+      <c r="P41">
+        <v>0.982494062613585</v>
+      </c>
+      <c r="Q41">
+        <v>1.000857972454168</v>
+      </c>
+      <c r="R41">
+        <v>0.9986828471353602</v>
+      </c>
+      <c r="S41">
+        <v>0.9849805256577385</v>
+      </c>
+      <c r="T41">
+        <v>0.99868284713536</v>
+      </c>
+      <c r="U41">
+        <v>0.9965004982880314</v>
+      </c>
+      <c r="V41">
+        <v>1.003412481866207</v>
+      </c>
+      <c r="W41">
+        <v>0.9969143707423658</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9869337517378345</v>
+      </c>
+      <c r="D42">
+        <v>0.9348732245195992</v>
+      </c>
+      <c r="E42">
+        <v>0.9348732245195992</v>
+      </c>
+      <c r="F42">
+        <v>1.016217797495625</v>
+      </c>
+      <c r="G42">
+        <v>1.043531437474624</v>
+      </c>
+      <c r="H42">
+        <v>1.043531437474624</v>
+      </c>
+      <c r="I42">
+        <v>1.043531437474624</v>
+      </c>
+      <c r="J42">
+        <v>1.024167775745772</v>
+      </c>
+      <c r="K42">
+        <v>0.986001977009579</v>
+      </c>
+      <c r="L42">
+        <v>1.016317195627781</v>
+      </c>
+      <c r="M42">
+        <v>0.9576431354939693</v>
+      </c>
+      <c r="N42">
+        <v>1.043531437474624</v>
+      </c>
+      <c r="O42">
+        <v>1.016217797495625</v>
+      </c>
+      <c r="P42">
+        <v>0.9755455110076123</v>
+      </c>
+      <c r="Q42">
+        <v>1.001109887252602</v>
+      </c>
+      <c r="R42">
+        <v>0.9982074864966162</v>
+      </c>
+      <c r="S42">
+        <v>0.9790309996749346</v>
+      </c>
+      <c r="T42">
+        <v>0.9982074864966162</v>
+      </c>
+      <c r="U42">
+        <v>0.9951561091248569</v>
+      </c>
+      <c r="V42">
+        <v>1.00483117479481</v>
+      </c>
+      <c r="W42">
+        <v>0.9957107868880981</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,49 +85,46 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
     <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001309339523482</v>
+        <v>1.000008613809069</v>
       </c>
       <c r="D3">
-        <v>0.998417457385777</v>
+        <v>0.9999629627462964</v>
       </c>
       <c r="E3">
-        <v>1.000252584110811</v>
+        <v>0.9999629627462964</v>
       </c>
       <c r="F3">
-        <v>1.001309339523482</v>
+        <v>1.000034294730554</v>
       </c>
       <c r="G3">
-        <v>0.9996513516244195</v>
+        <v>0.999980181993475</v>
       </c>
       <c r="H3">
-        <v>1.000572410175627</v>
+        <v>0.999980181993475</v>
       </c>
       <c r="I3">
-        <v>1.001309339523482</v>
+        <v>0.999980181993475</v>
       </c>
       <c r="J3">
-        <v>0.998417457385777</v>
+        <v>1.000016376142092</v>
       </c>
       <c r="K3">
-        <v>0.9995919374725618</v>
+        <v>0.9999935461405631</v>
       </c>
       <c r="L3">
-        <v>1.000475110494009</v>
+        <v>0.9999953532520527</v>
       </c>
       <c r="M3">
-        <v>0.9989462551925379</v>
+        <v>0.9999802549430595</v>
       </c>
       <c r="N3">
-        <v>1.001309339523482</v>
+        <v>0.999980181993475</v>
       </c>
       <c r="O3">
-        <v>1.000252584110811</v>
+        <v>1.000034294730554</v>
       </c>
       <c r="P3">
-        <v>0.9993350207482943</v>
+        <v>0.999998628738425</v>
       </c>
       <c r="Q3">
-        <v>0.9999519678676154</v>
+        <v>1.000013920435558</v>
       </c>
       <c r="R3">
-        <v>0.9999931270066901</v>
+        <v>0.9999924798234417</v>
       </c>
       <c r="S3">
-        <v>0.9994404643736693</v>
+        <v>0.9999969345391376</v>
       </c>
       <c r="T3">
-        <v>0.9999931270066901</v>
+        <v>0.9999924798234417</v>
       </c>
       <c r="U3">
-        <v>0.9999076831611224</v>
+        <v>0.9999927464027221</v>
       </c>
       <c r="V3">
-        <v>1.000188014433594</v>
+        <v>0.9999902335208727</v>
       </c>
       <c r="W3">
-        <v>0.9999020557474031</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999964479696453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002532032879154</v>
+        <v>0.9986147567483004</v>
       </c>
       <c r="D4">
-        <v>0.99694737855699</v>
+        <v>0.9896464078244349</v>
       </c>
       <c r="E4">
-        <v>1.000483617637495</v>
+        <v>0.9896464078244349</v>
       </c>
       <c r="F4">
-        <v>1.002532032879154</v>
+        <v>1.003659455185878</v>
       </c>
       <c r="G4">
-        <v>0.9993272647152831</v>
+        <v>1.004998292311812</v>
       </c>
       <c r="H4">
-        <v>1.001103762898346</v>
+        <v>1.004998292311812</v>
       </c>
       <c r="I4">
-        <v>1.002532032879154</v>
+        <v>1.004998292311812</v>
       </c>
       <c r="J4">
-        <v>0.99694737855699</v>
+        <v>1.003955591993647</v>
       </c>
       <c r="K4">
-        <v>0.9992105715851728</v>
+        <v>0.9978396368919109</v>
       </c>
       <c r="L4">
-        <v>1.000918454697044</v>
+        <v>1.001993370120277</v>
       </c>
       <c r="M4">
-        <v>0.9979667700354508</v>
+        <v>0.9934534834689561</v>
       </c>
       <c r="N4">
-        <v>1.002532032879154</v>
+        <v>1.004998292311812</v>
       </c>
       <c r="O4">
-        <v>1.000483617637495</v>
+        <v>1.003659455185878</v>
       </c>
       <c r="P4">
-        <v>0.9987154980972426</v>
+        <v>0.9966529315051564</v>
       </c>
       <c r="Q4">
-        <v>0.9999054411763891</v>
+        <v>1.000749546038894</v>
       </c>
       <c r="R4">
-        <v>0.9999876763578798</v>
+        <v>0.9994347184407083</v>
       </c>
       <c r="S4">
-        <v>0.9989194203032561</v>
+        <v>0.997048499967408</v>
       </c>
       <c r="T4">
-        <v>0.9999876763578798</v>
+        <v>0.9994347184407083</v>
       </c>
       <c r="U4">
-        <v>0.9998225734472306</v>
+        <v>0.9990359480535089</v>
       </c>
       <c r="V4">
-        <v>1.000364465333615</v>
+        <v>1.000228416905169</v>
       </c>
       <c r="W4">
-        <v>0.9998112316256169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9992701243181521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004809098569759</v>
+        <v>0.9970447433213279</v>
       </c>
       <c r="D5">
-        <v>0.9941257153295334</v>
+        <v>0.9813121635086443</v>
       </c>
       <c r="E5">
-        <v>1.000966309005693</v>
+        <v>0.9813121635086443</v>
       </c>
       <c r="F5">
-        <v>1.004809098569759</v>
+        <v>1.005894320396254</v>
       </c>
       <c r="G5">
-        <v>0.9987075729724719</v>
+        <v>1.010285465994235</v>
       </c>
       <c r="H5">
-        <v>1.002127757514393</v>
+        <v>1.010285465994235</v>
       </c>
       <c r="I5">
-        <v>1.004809098569759</v>
+        <v>1.010285465994235</v>
       </c>
       <c r="J5">
-        <v>0.9941257153295334</v>
+        <v>1.007065070756483</v>
       </c>
       <c r="K5">
-        <v>0.9985036944963006</v>
+        <v>0.9960579020316999</v>
       </c>
       <c r="L5">
-        <v>1.001747605040423</v>
+        <v>1.003992870180115</v>
       </c>
       <c r="M5">
-        <v>0.9960935419524207</v>
+        <v>0.9880607074711844</v>
       </c>
       <c r="N5">
-        <v>1.004809098569759</v>
+        <v>1.010285465994235</v>
       </c>
       <c r="O5">
-        <v>1.000966309005693</v>
+        <v>1.005894320396254</v>
       </c>
       <c r="P5">
-        <v>0.997546012167613</v>
+        <v>0.9936032419524494</v>
       </c>
       <c r="Q5">
-        <v>0.9998369409890823</v>
+        <v>1.000976111213977</v>
       </c>
       <c r="R5">
-        <v>0.9999670409683284</v>
+        <v>0.9991639832997112</v>
       </c>
       <c r="S5">
-        <v>0.9979331991025658</v>
+        <v>0.9944214619788663</v>
       </c>
       <c r="T5">
-        <v>0.9999670409683284</v>
+        <v>0.9991639832997112</v>
       </c>
       <c r="U5">
-        <v>0.9996521739693642</v>
+        <v>0.9983874629827084</v>
       </c>
       <c r="V5">
-        <v>1.000683558889443</v>
+        <v>1.000767063585014</v>
       </c>
       <c r="W5">
-        <v>0.9996351618601242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.998714155457493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.007032548113844</v>
+        <v>0.991295741599315</v>
       </c>
       <c r="D6">
-        <v>0.9913725499258402</v>
+        <v>0.9361923857285969</v>
       </c>
       <c r="E6">
-        <v>1.001436347624764</v>
+        <v>0.9361923857285969</v>
       </c>
       <c r="F6">
-        <v>1.007032548113844</v>
+        <v>1.022291365730696</v>
       </c>
       <c r="G6">
-        <v>0.9981028668106035</v>
+        <v>1.031268214437598</v>
       </c>
       <c r="H6">
-        <v>1.003126794342685</v>
+        <v>1.031268214437598</v>
       </c>
       <c r="I6">
-        <v>1.007032548113844</v>
+        <v>1.031268214437598</v>
       </c>
       <c r="J6">
-        <v>0.9913725499258402</v>
+        <v>1.024350269432132</v>
       </c>
       <c r="K6">
-        <v>0.9978133812074885</v>
+        <v>0.9866703070407434</v>
       </c>
       <c r="L6">
-        <v>1.002557141953514</v>
+        <v>1.012429972613905</v>
       </c>
       <c r="M6">
-        <v>0.9942656314795321</v>
+        <v>0.9596095652561436</v>
       </c>
       <c r="N6">
-        <v>1.007032548113844</v>
+        <v>1.031268214437598</v>
       </c>
       <c r="O6">
-        <v>1.001436347624764</v>
+        <v>1.022291365730696</v>
       </c>
       <c r="P6">
-        <v>0.9964044487753023</v>
+        <v>0.9792418757296464</v>
       </c>
       <c r="Q6">
-        <v>0.9997696072176838</v>
+        <v>1.00448083638572</v>
       </c>
       <c r="R6">
-        <v>0.9999471485548161</v>
+        <v>0.996583988632297</v>
       </c>
       <c r="S6">
-        <v>0.9969705881204027</v>
+        <v>0.9817180195000121</v>
       </c>
       <c r="T6">
-        <v>0.9999471485548161</v>
+        <v>0.996583988632297</v>
       </c>
       <c r="U6">
-        <v>0.999486078118763</v>
+        <v>0.9941055682344087</v>
       </c>
       <c r="V6">
-        <v>1.000995372117779</v>
+        <v>1.001538097475047</v>
       </c>
       <c r="W6">
-        <v>0.9994634076822839</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9955134777298913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000018818678323</v>
+        <v>0.9995226474797871</v>
       </c>
       <c r="D7">
-        <v>0.9999417582930989</v>
+        <v>0.9981634941999236</v>
       </c>
       <c r="E7">
-        <v>1.000025814220723</v>
+        <v>0.9981634941999236</v>
       </c>
       <c r="F7">
-        <v>1.000018818678323</v>
+        <v>1.000287172508489</v>
       </c>
       <c r="G7">
-        <v>0.9999881614183147</v>
+        <v>1.001530029670082</v>
       </c>
       <c r="H7">
-        <v>1.000022800664458</v>
+        <v>1.001530029670082</v>
       </c>
       <c r="I7">
-        <v>1.000018818678323</v>
+        <v>1.001530029670082</v>
       </c>
       <c r="J7">
-        <v>0.9999417582930989</v>
+        <v>1.00066364529721</v>
       </c>
       <c r="K7">
-        <v>0.9999955526119443</v>
+        <v>0.9995950436385362</v>
       </c>
       <c r="L7">
-        <v>1.000008310364364</v>
+        <v>1.000554658191328</v>
       </c>
       <c r="M7">
-        <v>0.9999640814344909</v>
+        <v>0.9987761223084084</v>
       </c>
       <c r="N7">
-        <v>1.000018818678323</v>
+        <v>1.001530029670082</v>
       </c>
       <c r="O7">
-        <v>1.000025814220723</v>
+        <v>1.000287172508489</v>
       </c>
       <c r="P7">
-        <v>0.9999837862569108</v>
+        <v>0.9992253333542064</v>
       </c>
       <c r="Q7">
-        <v>1.000006987819519</v>
+        <v>0.9999411080735128</v>
       </c>
       <c r="R7">
-        <v>0.9999954637307148</v>
+        <v>0.9999935654594981</v>
       </c>
       <c r="S7">
-        <v>0.9999852446440455</v>
+        <v>0.9993485701156497</v>
       </c>
       <c r="T7">
-        <v>0.9999954637307148</v>
+        <v>0.9999935654594981</v>
       </c>
       <c r="U7">
-        <v>0.9999936381526148</v>
+        <v>0.9998939350042576</v>
       </c>
       <c r="V7">
-        <v>0.9999986742577563</v>
+        <v>1.000221153937422</v>
       </c>
       <c r="W7">
-        <v>0.9999956622107145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9998866016617205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999801819934753</v>
+        <v>0.9999532137378868</v>
       </c>
       <c r="D8">
-        <v>0.999962962746296</v>
+        <v>0.9998779240781555</v>
       </c>
       <c r="E8">
-        <v>1.000034294730554</v>
+        <v>0.9998779240781555</v>
       </c>
       <c r="F8">
-        <v>0.9999801819934753</v>
+        <v>0.9999955658476287</v>
       </c>
       <c r="G8">
-        <v>0.9999935461405631</v>
+        <v>1.000143519341251</v>
       </c>
       <c r="H8">
-        <v>1.000016376142093</v>
+        <v>1.000143519341251</v>
       </c>
       <c r="I8">
-        <v>0.9999801819934753</v>
+        <v>1.000143519341251</v>
       </c>
       <c r="J8">
-        <v>0.999962962746296</v>
+        <v>1.000041645095209</v>
       </c>
       <c r="K8">
-        <v>1.000008613809069</v>
+        <v>0.9999716678036198</v>
       </c>
       <c r="L8">
-        <v>0.9999953532520527</v>
+        <v>1.000049939544589</v>
       </c>
       <c r="M8">
-        <v>0.9999802549430595</v>
+        <v>0.9999145757953288</v>
       </c>
       <c r="N8">
-        <v>0.9999801819934753</v>
+        <v>1.000143519341251</v>
       </c>
       <c r="O8">
-        <v>1.000034294730554</v>
+        <v>0.9999955658476287</v>
       </c>
       <c r="P8">
-        <v>0.9999986287384248</v>
+        <v>0.9999367449628921</v>
       </c>
       <c r="Q8">
-        <v>1.000013920435558</v>
+        <v>0.9999836168256242</v>
       </c>
       <c r="R8">
-        <v>0.9999924798234416</v>
+        <v>1.000005669755679</v>
       </c>
       <c r="S8">
-        <v>0.9999969345391376</v>
+        <v>0.9999483859098013</v>
       </c>
       <c r="T8">
-        <v>0.9999924798234416</v>
+        <v>1.000005669755678</v>
       </c>
       <c r="U8">
-        <v>0.9999927464027221</v>
+        <v>0.9999971692676637</v>
       </c>
       <c r="V8">
-        <v>0.9999902335208727</v>
+        <v>1.000026439282381</v>
       </c>
       <c r="W8">
-        <v>0.9999964479696453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999935064054586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9998511278963021</v>
+        <v>0.9992105715851728</v>
       </c>
       <c r="D9">
-        <v>1.000152453616179</v>
+        <v>0.99694737855699</v>
       </c>
       <c r="E9">
-        <v>0.9999884561728483</v>
+        <v>0.99694737855699</v>
       </c>
       <c r="F9">
-        <v>0.9998511278963021</v>
+        <v>1.000483617637495</v>
       </c>
       <c r="G9">
-        <v>1.00003435517359</v>
+        <v>1.002532032879154</v>
       </c>
       <c r="H9">
-        <v>0.999946200109595</v>
+        <v>1.002532032879154</v>
       </c>
       <c r="I9">
-        <v>0.9998511278963021</v>
+        <v>1.002532032879154</v>
       </c>
       <c r="J9">
-        <v>1.000152453616179</v>
+        <v>1.001103762898346</v>
       </c>
       <c r="K9">
-        <v>1.000047493195834</v>
+        <v>0.9993272647152831</v>
       </c>
       <c r="L9">
-        <v>0.9999471284895873</v>
+        <v>1.000918454697044</v>
       </c>
       <c r="M9">
-        <v>1.000103728428504</v>
+        <v>0.9979667700354508</v>
       </c>
       <c r="N9">
-        <v>0.9998511278963021</v>
+        <v>1.002532032879154</v>
       </c>
       <c r="O9">
-        <v>0.9999884561728483</v>
+        <v>1.000483617637495</v>
       </c>
       <c r="P9">
-        <v>1.000070454894514</v>
+        <v>0.9987154980972426</v>
       </c>
       <c r="Q9">
-        <v>1.000011405673219</v>
+        <v>0.9999054411763891</v>
       </c>
       <c r="R9">
-        <v>0.9999973458951098</v>
+        <v>0.9999876763578798</v>
       </c>
       <c r="S9">
-        <v>1.000058421654206</v>
+        <v>0.9989194203032561</v>
       </c>
       <c r="T9">
-        <v>0.9999973458951098</v>
+        <v>0.9999876763578798</v>
       </c>
       <c r="U9">
-        <v>1.00000659821473</v>
+        <v>0.9998225734472306</v>
       </c>
       <c r="V9">
-        <v>0.9999755041510443</v>
+        <v>1.000364465333615</v>
       </c>
       <c r="W9">
-        <v>1.000008867885305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9998112316256169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9997855729726347</v>
+        <v>0.9912166311103692</v>
       </c>
       <c r="D10">
-        <v>1.000141760205109</v>
+        <v>0.9351645491520044</v>
       </c>
       <c r="E10">
-        <v>1.000032012198073</v>
+        <v>0.9351645491520044</v>
       </c>
       <c r="F10">
-        <v>0.9997855729726347</v>
+        <v>1.022745913986419</v>
       </c>
       <c r="G10">
-        <v>1.000034515336138</v>
+        <v>1.031602169890295</v>
       </c>
       <c r="H10">
-        <v>0.9999544598172817</v>
+        <v>1.031602169890295</v>
       </c>
       <c r="I10">
-        <v>0.9997855729726347</v>
+        <v>1.031602169890295</v>
       </c>
       <c r="J10">
-        <v>1.000141760205109</v>
+        <v>1.024752533594121</v>
       </c>
       <c r="K10">
-        <v>1.000071521503119</v>
+        <v>0.9864613256683028</v>
       </c>
       <c r="L10">
-        <v>0.9999270877467316</v>
+        <v>1.012577159622414</v>
       </c>
       <c r="M10">
-        <v>1.000103855032913</v>
+        <v>0.958975471001117</v>
       </c>
       <c r="N10">
-        <v>0.9997855729726347</v>
+        <v>1.031602169890295</v>
       </c>
       <c r="O10">
-        <v>1.000032012198073</v>
+        <v>1.022745913986419</v>
       </c>
       <c r="P10">
-        <v>1.000086886201591</v>
+        <v>0.9789552315692119</v>
       </c>
       <c r="Q10">
-        <v>1.000033263767106</v>
+        <v>1.004603619827361</v>
       </c>
       <c r="R10">
-        <v>0.9999864484586057</v>
+        <v>0.9965042110095729</v>
       </c>
       <c r="S10">
-        <v>1.00006942924644</v>
+        <v>0.9814572629355757</v>
       </c>
       <c r="T10">
-        <v>0.9999864484586057</v>
+        <v>0.9965042110095729</v>
       </c>
       <c r="U10">
-        <v>0.9999984651779888</v>
+        <v>0.9939934896742554</v>
       </c>
       <c r="V10">
-        <v>0.9999558867369179</v>
+        <v>1.001515225717463</v>
       </c>
       <c r="W10">
-        <v>1.0000063481015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9954369692531304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9993704709480303</v>
+        <v>0.9875898099221926</v>
       </c>
       <c r="D11">
-        <v>1.000702043745861</v>
+        <v>0.9347063259912063</v>
       </c>
       <c r="E11">
-        <v>0.9999153296641975</v>
+        <v>0.9347063259912063</v>
       </c>
       <c r="F11">
-        <v>0.9993704709480303</v>
+        <v>1.017336769534847</v>
       </c>
       <c r="G11">
-        <v>1.000156311448642</v>
+        <v>1.041727600630298</v>
       </c>
       <c r="H11">
-        <v>0.9997489440449054</v>
+        <v>1.041727600630298</v>
       </c>
       <c r="I11">
-        <v>0.9993704709480303</v>
+        <v>1.041727600630298</v>
       </c>
       <c r="J11">
-        <v>1.000702043745861</v>
+        <v>1.024342806856133</v>
       </c>
       <c r="K11">
-        <v>1.000198545047889</v>
+        <v>0.9860308626547815</v>
       </c>
       <c r="L11">
-        <v>0.9997740197104076</v>
+        <v>1.015760450039149</v>
       </c>
       <c r="M11">
-        <v>1.000472206316395</v>
+        <v>0.9577211344157045</v>
       </c>
       <c r="N11">
-        <v>0.9993704709480303</v>
+        <v>1.041727600630298</v>
       </c>
       <c r="O11">
-        <v>0.9999153296641975</v>
+        <v>1.017336769534847</v>
       </c>
       <c r="P11">
-        <v>1.000308686705029</v>
+        <v>0.9760215477630264</v>
       </c>
       <c r="Q11">
-        <v>1.00003582055642</v>
+        <v>1.001683816094814</v>
       </c>
       <c r="R11">
-        <v>0.9999959481193629</v>
+        <v>0.9979235653854502</v>
       </c>
       <c r="S11">
-        <v>1.0002578949529</v>
+        <v>0.9793579860602781</v>
       </c>
       <c r="T11">
-        <v>0.9999959481193629</v>
+        <v>0.9979235653854502</v>
       </c>
       <c r="U11">
-        <v>1.000036038951683</v>
+        <v>0.994950389702783</v>
       </c>
       <c r="V11">
-        <v>0.9999029253509523</v>
+        <v>1.004305831888286</v>
       </c>
       <c r="W11">
-        <v>1.000042233865791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.995651970005539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.002417857854792</v>
+        <v>0.9969199877578955</v>
       </c>
       <c r="D12">
-        <v>0.9973719629308202</v>
+        <v>0.9784028141789475</v>
       </c>
       <c r="E12">
-        <v>1.000282481962374</v>
+        <v>0.9784028141789475</v>
       </c>
       <c r="F12">
-        <v>1.002417857854792</v>
+        <v>1.007335899178949</v>
       </c>
       <c r="G12">
-        <v>0.9994127906670638</v>
+        <v>1.010955269684212</v>
       </c>
       <c r="H12">
-        <v>1.000936190435607</v>
+        <v>1.010955269684212</v>
       </c>
       <c r="I12">
-        <v>1.002417857854792</v>
+        <v>1.010955269684212</v>
       </c>
       <c r="J12">
-        <v>0.9973719629308202</v>
+        <v>1.008219968884208</v>
       </c>
       <c r="K12">
-        <v>0.9992346878604405</v>
+        <v>0.9954756816210516</v>
       </c>
       <c r="L12">
-        <v>1.000865077468418</v>
+        <v>1.004323406799999</v>
       </c>
       <c r="M12">
-        <v>0.9982263831254611</v>
+        <v>0.9862926976526337</v>
       </c>
       <c r="N12">
-        <v>1.002417857854792</v>
+        <v>1.010955269684212</v>
       </c>
       <c r="O12">
-        <v>1.000282481962374</v>
+        <v>1.007335899178949</v>
       </c>
       <c r="P12">
-        <v>0.9988272224465973</v>
+        <v>0.9928693566789479</v>
       </c>
       <c r="Q12">
-        <v>0.9998476363147191</v>
+        <v>1.0014057904</v>
       </c>
       <c r="R12">
-        <v>1.000024100915995</v>
+        <v>0.9988979943473694</v>
       </c>
       <c r="S12">
-        <v>0.9990224118534194</v>
+        <v>0.9937381316596491</v>
       </c>
       <c r="T12">
-        <v>1.000024100915995</v>
+        <v>0.9988979943473694</v>
       </c>
       <c r="U12">
-        <v>0.9998712733537625</v>
+        <v>0.9980424161657899</v>
       </c>
       <c r="V12">
-        <v>1.000380590253968</v>
+        <v>1.000624986869475</v>
       </c>
       <c r="W12">
-        <v>0.9998434290381222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9984907157197369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000290957719287</v>
+        <v>1.002275018962365</v>
       </c>
       <c r="D13">
-        <v>0.9990817833146899</v>
+        <v>1.011946021187304</v>
       </c>
       <c r="E13">
-        <v>1.000410226801606</v>
+        <v>1.011946021187304</v>
       </c>
       <c r="F13">
-        <v>1.000290957719287</v>
+        <v>0.9968350825022425</v>
       </c>
       <c r="G13">
-        <v>0.9998135526204949</v>
+        <v>0.9923531615682246</v>
       </c>
       <c r="H13">
-        <v>1.000359801015239</v>
+        <v>0.9923531615682246</v>
       </c>
       <c r="I13">
-        <v>1.000290957719287</v>
+        <v>0.9923531615682246</v>
       </c>
       <c r="J13">
-        <v>0.9990817833146899</v>
+        <v>0.9955470138773841</v>
       </c>
       <c r="K13">
-        <v>0.9999319837421724</v>
+        <v>1.00255618964269</v>
       </c>
       <c r="L13">
-        <v>1.000129187227138</v>
+        <v>0.9971126153898674</v>
       </c>
       <c r="M13">
-        <v>0.9994342523920382</v>
+        <v>1.007736481994372</v>
       </c>
       <c r="N13">
-        <v>1.000290957719287</v>
+        <v>0.9923531615682246</v>
       </c>
       <c r="O13">
-        <v>1.000410226801606</v>
+        <v>0.9968350825022425</v>
       </c>
       <c r="P13">
-        <v>0.9997460050581481</v>
+        <v>1.004390551844773</v>
       </c>
       <c r="Q13">
-        <v>1.000111889711051</v>
+        <v>0.9996956360724665</v>
       </c>
       <c r="R13">
-        <v>0.9999276559451943</v>
+        <v>1.000378088419257</v>
       </c>
       <c r="S13">
-        <v>0.9997685209122636</v>
+        <v>1.003779097777412</v>
       </c>
       <c r="T13">
-        <v>0.9999276559451943</v>
+        <v>1.000378088419257</v>
       </c>
       <c r="U13">
-        <v>0.9998991301140194</v>
+        <v>1.000922613725115</v>
       </c>
       <c r="V13">
-        <v>0.9999774956350729</v>
+        <v>0.9992087232937372</v>
       </c>
       <c r="W13">
-        <v>0.9999314681040832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.000795198140556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8196082955855434</v>
+        <v>0.98495226</v>
       </c>
       <c r="D14">
-        <v>1.277954329490422</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="E14">
-        <v>0.9277488733131458</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="F14">
-        <v>0.8196082955855434</v>
+        <v>1.0396018</v>
       </c>
       <c r="G14">
-        <v>1.059559687412855</v>
+        <v>1.0542662</v>
       </c>
       <c r="H14">
-        <v>0.8965358238763459</v>
+        <v>1.0542662</v>
       </c>
       <c r="I14">
-        <v>0.8196082955855434</v>
+        <v>1.0542662</v>
       </c>
       <c r="J14">
-        <v>1.277954329490422</v>
+        <v>1.042861100000001</v>
       </c>
       <c r="K14">
-        <v>1.053822836603556</v>
+        <v>0.9765846500000002</v>
       </c>
       <c r="L14">
-        <v>0.9320461621327375</v>
+        <v>1.0216333</v>
       </c>
       <c r="M14">
-        <v>1.180249211616174</v>
+        <v>0.9290452899999994</v>
       </c>
       <c r="N14">
-        <v>0.8196082955855434</v>
+        <v>1.0542662</v>
       </c>
       <c r="O14">
-        <v>0.9277488733131458</v>
+        <v>1.0396018</v>
       </c>
       <c r="P14">
-        <v>1.102851601401784</v>
+        <v>0.9636996350000004</v>
       </c>
       <c r="Q14">
-        <v>0.9936542803630006</v>
+        <v>1.008093225</v>
       </c>
       <c r="R14">
-        <v>1.008437166129704</v>
+        <v>0.9938884900000003</v>
       </c>
       <c r="S14">
-        <v>1.088420963405474</v>
+        <v>0.9679946400000002</v>
       </c>
       <c r="T14">
-        <v>1.008437166129704</v>
+        <v>0.9938884900000003</v>
       </c>
       <c r="U14">
-        <v>1.021217796450492</v>
+        <v>0.9895625300000004</v>
       </c>
       <c r="V14">
-        <v>0.9808958962775021</v>
+        <v>1.002503264</v>
       </c>
       <c r="W14">
-        <v>1.018440652503847</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9920927587500001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9494224432153224</v>
+        <v>1.0795259</v>
       </c>
       <c r="D15">
-        <v>1.072680463717056</v>
+        <v>1.4203764</v>
       </c>
       <c r="E15">
-        <v>0.9830245918534591</v>
+        <v>1.4203764</v>
       </c>
       <c r="F15">
-        <v>0.9494224432153224</v>
+        <v>0.88779747</v>
       </c>
       <c r="G15">
-        <v>1.015689095667364</v>
+        <v>0.73238625</v>
       </c>
       <c r="H15">
-        <v>0.9731470645764246</v>
+        <v>0.73238625</v>
       </c>
       <c r="I15">
-        <v>0.9494224432153224</v>
+        <v>0.73238625</v>
       </c>
       <c r="J15">
-        <v>1.072680463717056</v>
+        <v>0.8432138100000001</v>
       </c>
       <c r="K15">
-        <v>1.015300701163529</v>
+        <v>1.0899016</v>
       </c>
       <c r="L15">
-        <v>0.9811661573293712</v>
+        <v>0.8988550199999998</v>
       </c>
       <c r="M15">
-        <v>1.04746410601897</v>
+        <v>1.2721004</v>
       </c>
       <c r="N15">
-        <v>0.9494224432153224</v>
+        <v>0.73238625</v>
       </c>
       <c r="O15">
-        <v>0.9830245918534591</v>
+        <v>0.88779747</v>
       </c>
       <c r="P15">
-        <v>1.027852527785258</v>
+        <v>1.154086935</v>
       </c>
       <c r="Q15">
-        <v>0.9993568437604115</v>
+        <v>0.9888495349999999</v>
       </c>
       <c r="R15">
-        <v>1.001709166261946</v>
+        <v>1.01352004</v>
       </c>
       <c r="S15">
-        <v>1.023798050412626</v>
+        <v>1.132691823333333</v>
       </c>
       <c r="T15">
-        <v>1.001709166261946</v>
+        <v>1.01352004</v>
       </c>
       <c r="U15">
-        <v>1.0052041486133</v>
+        <v>1.03261543</v>
       </c>
       <c r="V15">
-        <v>0.9940478075337047</v>
+        <v>0.9725695940000001</v>
       </c>
       <c r="W15">
-        <v>1.004736827942687</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>1.02801960625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999558269506368</v>
+        <v>0.98495226</v>
       </c>
       <c r="D16">
-        <v>0.9999655756815368</v>
+        <v>0.88779747</v>
       </c>
       <c r="E16">
-        <v>1.000046361193685</v>
+        <v>0.88779747</v>
       </c>
       <c r="F16">
-        <v>0.9999558269506368</v>
+        <v>1.0396018</v>
       </c>
       <c r="G16">
-        <v>0.9999948721144788</v>
+        <v>1.0542662</v>
       </c>
       <c r="H16">
-        <v>1.000016741574441</v>
+        <v>1.0542662</v>
       </c>
       <c r="I16">
-        <v>0.9999558269506368</v>
+        <v>1.0542662</v>
       </c>
       <c r="J16">
-        <v>0.9999655756815368</v>
+        <v>1.0428611</v>
       </c>
       <c r="K16">
-        <v>1.000017276893865</v>
+        <v>0.9765846500000001</v>
       </c>
       <c r="L16">
-        <v>0.9999876331927574</v>
+        <v>1.0216333</v>
       </c>
       <c r="M16">
-        <v>0.9999841562078304</v>
+        <v>0.9290452899999999</v>
       </c>
       <c r="N16">
-        <v>0.9999558269506368</v>
+        <v>1.0542662</v>
       </c>
       <c r="O16">
-        <v>1.000046361193685</v>
+        <v>1.0396018</v>
       </c>
       <c r="P16">
-        <v>1.000005968437611</v>
+        <v>0.963699635</v>
       </c>
       <c r="Q16">
-        <v>1.000020616654082</v>
+        <v>1.008093225</v>
       </c>
       <c r="R16">
-        <v>0.9999892546086194</v>
+        <v>0.9938884900000001</v>
       </c>
       <c r="S16">
-        <v>1.000002269663234</v>
+        <v>0.96799464</v>
       </c>
       <c r="T16">
-        <v>0.9999892546086194</v>
+        <v>0.9938884900000001</v>
       </c>
       <c r="U16">
-        <v>0.9999906589850843</v>
+        <v>0.9895625300000001</v>
       </c>
       <c r="V16">
-        <v>0.9999836925781949</v>
+        <v>1.002503264</v>
       </c>
       <c r="W16">
-        <v>0.9999960554761538</v>
+        <v>0.99209275875</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000143519341251</v>
+        <v>1.0558825</v>
       </c>
       <c r="D17">
-        <v>0.9998779240781552</v>
+        <v>1.2872317</v>
       </c>
       <c r="E17">
-        <v>0.9999955658476287</v>
+        <v>1.2872317</v>
       </c>
       <c r="F17">
-        <v>1.000143519341251</v>
+        <v>0.9257485600000002</v>
       </c>
       <c r="G17">
-        <v>0.9999716678036198</v>
+        <v>0.8128562499999999</v>
       </c>
       <c r="H17">
-        <v>1.000041645095209</v>
+        <v>0.8128562499999999</v>
       </c>
       <c r="I17">
-        <v>1.000143519341251</v>
+        <v>0.8128562499999999</v>
       </c>
       <c r="J17">
-        <v>0.9998779240781552</v>
+        <v>0.8931256400000001</v>
       </c>
       <c r="K17">
-        <v>0.9999532137378868</v>
+        <v>1.0615723</v>
       </c>
       <c r="L17">
-        <v>1.000049939544589</v>
+        <v>0.92954959</v>
       </c>
       <c r="M17">
-        <v>0.9999145757953288</v>
+        <v>1.1863366</v>
       </c>
       <c r="N17">
-        <v>1.000143519341251</v>
+        <v>0.8128562499999999</v>
       </c>
       <c r="O17">
-        <v>0.9999955658476287</v>
+        <v>0.9257485600000002</v>
       </c>
       <c r="P17">
-        <v>0.999936744962892</v>
+        <v>1.10649013</v>
       </c>
       <c r="Q17">
-        <v>0.9999836168256242</v>
+        <v>0.99366043</v>
       </c>
       <c r="R17">
-        <v>1.000005669755678</v>
+        <v>1.00861217</v>
       </c>
       <c r="S17">
-        <v>0.9999483859098013</v>
+        <v>1.09151752</v>
       </c>
       <c r="T17">
-        <v>1.000005669755678</v>
+        <v>1.00861217</v>
       </c>
       <c r="U17">
-        <v>0.9999971692676637</v>
+        <v>1.0218522025</v>
       </c>
       <c r="V17">
-        <v>1.000026439282381</v>
+        <v>0.9800530120000002</v>
       </c>
       <c r="W17">
-        <v>0.9999935064054586</v>
+        <v>1.0190378925</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000287516832997</v>
+        <v>0.9916501898630137</v>
       </c>
       <c r="D18">
-        <v>0.9994477109054805</v>
+        <v>0.9699554873972599</v>
       </c>
       <c r="E18">
-        <v>1.000183448643836</v>
+        <v>0.9699554873972599</v>
       </c>
       <c r="F18">
-        <v>1.000287516832997</v>
+        <v>1.003853444520548</v>
       </c>
       <c r="G18">
-        <v>0.9998840541412199</v>
+        <v>1.026532212465753</v>
       </c>
       <c r="H18">
-        <v>1.000209768435695</v>
+        <v>1.026532212465753</v>
       </c>
       <c r="I18">
-        <v>1.000287516832997</v>
+        <v>1.026532212465753</v>
       </c>
       <c r="J18">
-        <v>0.9994477109054805</v>
+        <v>1.010768306164384</v>
       </c>
       <c r="K18">
-        <v>0.9999185844993872</v>
+        <v>0.9933243169863013</v>
       </c>
       <c r="L18">
-        <v>1.000112863738293</v>
+        <v>1.00954316520548</v>
       </c>
       <c r="M18">
-        <v>0.9996487598310622</v>
+        <v>0.9798315821917806</v>
       </c>
       <c r="N18">
-        <v>1.000287516832997</v>
+        <v>1.026532212465753</v>
       </c>
       <c r="O18">
-        <v>1.000183448643836</v>
+        <v>1.003853444520548</v>
       </c>
       <c r="P18">
-        <v>0.9998155797746583</v>
+        <v>0.9869044659589039</v>
       </c>
       <c r="Q18">
-        <v>1.000033751392528</v>
+        <v>0.9985888807534246</v>
       </c>
       <c r="R18">
-        <v>0.9999728921274377</v>
+        <v>1.00011371479452</v>
       </c>
       <c r="S18">
-        <v>0.9998384045635121</v>
+        <v>0.9890444163013697</v>
       </c>
       <c r="T18">
-        <v>0.9999728921274377</v>
+        <v>1.00011371479452</v>
       </c>
       <c r="U18">
-        <v>0.9999506826308833</v>
+        <v>0.9984163653424656</v>
       </c>
       <c r="V18">
-        <v>1.000018049471306</v>
+        <v>1.004039534767123</v>
       </c>
       <c r="W18">
-        <v>0.9999615883784962</v>
+        <v>0.998182338099315</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000566402307763</v>
+        <v>1.029750292631579</v>
       </c>
       <c r="D19">
-        <v>0.9986458786381561</v>
+        <v>1.140071708421053</v>
       </c>
       <c r="E19">
-        <v>1.000527720428362</v>
+        <v>1.140071708421053</v>
       </c>
       <c r="F19">
-        <v>1.000566402307763</v>
+        <v>0.9676944963157896</v>
       </c>
       <c r="G19">
-        <v>0.9997204040067069</v>
+        <v>0.9017967668421052</v>
       </c>
       <c r="H19">
-        <v>1.000522497441397</v>
+        <v>0.9017967668421052</v>
       </c>
       <c r="I19">
-        <v>1.000566402307763</v>
+        <v>0.9017967668421052</v>
       </c>
       <c r="J19">
-        <v>0.9986458786381561</v>
+        <v>0.9482913394736844</v>
       </c>
       <c r="K19">
-        <v>0.9998502573002208</v>
+        <v>1.030261076842105</v>
       </c>
       <c r="L19">
-        <v>1.000233419849397</v>
+        <v>0.9634751726315791</v>
       </c>
       <c r="M19">
-        <v>0.9991523043883592</v>
+        <v>1.091545081052631</v>
       </c>
       <c r="N19">
-        <v>1.000566402307763</v>
+        <v>0.9017967668421052</v>
       </c>
       <c r="O19">
-        <v>1.000527720428362</v>
+        <v>0.9676944963157896</v>
       </c>
       <c r="P19">
-        <v>0.9995867995332592</v>
+        <v>1.053883102368421</v>
       </c>
       <c r="Q19">
-        <v>1.000124062217535</v>
+        <v>0.9989777865789474</v>
       </c>
       <c r="R19">
-        <v>0.9999133337914273</v>
+        <v>1.003187657192983</v>
       </c>
       <c r="S19">
-        <v>0.9996313343577418</v>
+        <v>1.046009093859649</v>
       </c>
       <c r="T19">
-        <v>0.9999133337914273</v>
+        <v>1.003187657192983</v>
       </c>
       <c r="U19">
-        <v>0.9998651013452473</v>
+        <v>1.009956012105263</v>
       </c>
       <c r="V19">
-        <v>1.00000536153775</v>
+        <v>0.9883241630526317</v>
       </c>
       <c r="W19">
-        <v>0.9999023605450453</v>
+        <v>1.009110741776316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9926301878947367</v>
+      </c>
+      <c r="D20">
+        <v>0.973720025263158</v>
+      </c>
+      <c r="E20">
+        <v>0.973720025263158</v>
+      </c>
+      <c r="F20">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="G20">
+        <v>1.023391712631579</v>
+      </c>
+      <c r="H20">
+        <v>1.023391712631579</v>
+      </c>
+      <c r="I20">
+        <v>1.023391712631579</v>
+      </c>
+      <c r="J20">
+        <v>1.009408188947369</v>
+      </c>
+      <c r="K20">
+        <v>0.9941545531578949</v>
+      </c>
+      <c r="L20">
+        <v>1.008404903684211</v>
+      </c>
+      <c r="M20">
+        <v>0.9823407431578948</v>
+      </c>
+      <c r="N20">
+        <v>1.023391712631579</v>
+      </c>
+      <c r="O20">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="P20">
+        <v>0.9884935818421052</v>
+      </c>
+      <c r="Q20">
+        <v>0.9987108457894738</v>
+      </c>
+      <c r="R20">
+        <v>1.000126292105263</v>
+      </c>
+      <c r="S20">
+        <v>0.9903805722807019</v>
+      </c>
+      <c r="T20">
+        <v>1.000126292105263</v>
+      </c>
+      <c r="U20">
+        <v>0.9986333573684212</v>
+      </c>
+      <c r="V20">
+        <v>1.003585028421053</v>
+      </c>
+      <c r="W20">
+        <v>0.9984146816447369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.053822836603556</v>
+      </c>
+      <c r="D21">
+        <v>1.277954329490422</v>
+      </c>
+      <c r="E21">
+        <v>1.277954329490422</v>
+      </c>
+      <c r="F21">
+        <v>0.9277488733131457</v>
+      </c>
+      <c r="G21">
+        <v>0.8196082955855434</v>
+      </c>
+      <c r="H21">
+        <v>0.8196082955855434</v>
+      </c>
+      <c r="I21">
+        <v>0.8196082955855434</v>
+      </c>
+      <c r="J21">
+        <v>0.8965358238763459</v>
+      </c>
+      <c r="K21">
+        <v>1.059559687412855</v>
+      </c>
+      <c r="L21">
+        <v>0.9320461621327375</v>
+      </c>
+      <c r="M21">
+        <v>1.180249211616174</v>
+      </c>
+      <c r="N21">
+        <v>0.8196082955855434</v>
+      </c>
+      <c r="O21">
+        <v>0.9277488733131457</v>
+      </c>
+      <c r="P21">
+        <v>1.102851601401784</v>
+      </c>
+      <c r="Q21">
+        <v>0.9936542803630006</v>
+      </c>
+      <c r="R21">
+        <v>1.008437166129704</v>
+      </c>
+      <c r="S21">
+        <v>1.088420963405474</v>
+      </c>
+      <c r="T21">
+        <v>1.008437166129704</v>
+      </c>
+      <c r="U21">
+        <v>1.021217796450492</v>
+      </c>
+      <c r="V21">
+        <v>0.980895896277502</v>
+      </c>
+      <c r="W21">
+        <v>1.018440652503847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.015300701163529</v>
+      </c>
+      <c r="D22">
+        <v>1.072680463717056</v>
+      </c>
+      <c r="E22">
+        <v>1.072680463717056</v>
+      </c>
+      <c r="F22">
+        <v>0.9830245918534591</v>
+      </c>
+      <c r="G22">
+        <v>0.9494224432153225</v>
+      </c>
+      <c r="H22">
+        <v>0.9494224432153225</v>
+      </c>
+      <c r="I22">
+        <v>0.9494224432153225</v>
+      </c>
+      <c r="J22">
+        <v>0.9731470645764246</v>
+      </c>
+      <c r="K22">
+        <v>1.015689095667364</v>
+      </c>
+      <c r="L22">
+        <v>0.9811661573293712</v>
+      </c>
+      <c r="M22">
+        <v>1.04746410601897</v>
+      </c>
+      <c r="N22">
+        <v>0.9494224432153225</v>
+      </c>
+      <c r="O22">
+        <v>0.9830245918534591</v>
+      </c>
+      <c r="P22">
+        <v>1.027852527785258</v>
+      </c>
+      <c r="Q22">
+        <v>0.9993568437604115</v>
+      </c>
+      <c r="R22">
+        <v>1.001709166261946</v>
+      </c>
+      <c r="S22">
+        <v>1.023798050412626</v>
+      </c>
+      <c r="T22">
+        <v>1.001709166261946</v>
+      </c>
+      <c r="U22">
+        <v>1.0052041486133</v>
+      </c>
+      <c r="V22">
+        <v>0.9940478075337047</v>
+      </c>
+      <c r="W22">
+        <v>1.004736827942687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9992346878604407</v>
+      </c>
+      <c r="D23">
+        <v>0.9973719629308202</v>
+      </c>
+      <c r="E23">
+        <v>0.9973719629308202</v>
+      </c>
+      <c r="F23">
+        <v>1.000282481962374</v>
+      </c>
+      <c r="G23">
+        <v>1.002417857854792</v>
+      </c>
+      <c r="H23">
+        <v>1.002417857854792</v>
+      </c>
+      <c r="I23">
+        <v>1.002417857854792</v>
+      </c>
+      <c r="J23">
+        <v>1.000936190435607</v>
+      </c>
+      <c r="K23">
+        <v>0.9994127906670638</v>
+      </c>
+      <c r="L23">
+        <v>1.000865077468418</v>
+      </c>
+      <c r="M23">
+        <v>0.9982263831254611</v>
+      </c>
+      <c r="N23">
+        <v>1.002417857854792</v>
+      </c>
+      <c r="O23">
+        <v>1.000282481962374</v>
+      </c>
+      <c r="P23">
+        <v>0.9988272224465973</v>
+      </c>
+      <c r="Q23">
+        <v>0.9998476363147191</v>
+      </c>
+      <c r="R23">
+        <v>1.000024100915995</v>
+      </c>
+      <c r="S23">
+        <v>0.9990224118534194</v>
+      </c>
+      <c r="T23">
+        <v>1.000024100915995</v>
+      </c>
+      <c r="U23">
+        <v>0.9998712733537625</v>
+      </c>
+      <c r="V23">
+        <v>1.000380590253968</v>
+      </c>
+      <c r="W23">
+        <v>0.9998434290381222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9999319837421722</v>
+      </c>
+      <c r="D24">
+        <v>0.9990817833146899</v>
+      </c>
+      <c r="E24">
+        <v>0.9990817833146899</v>
+      </c>
+      <c r="F24">
+        <v>1.000410226801606</v>
+      </c>
+      <c r="G24">
+        <v>1.000290957719287</v>
+      </c>
+      <c r="H24">
+        <v>1.000290957719287</v>
+      </c>
+      <c r="I24">
+        <v>1.000290957719287</v>
+      </c>
+      <c r="J24">
+        <v>1.000359801015239</v>
+      </c>
+      <c r="K24">
+        <v>0.9998135526204949</v>
+      </c>
+      <c r="L24">
+        <v>1.000129187227138</v>
+      </c>
+      <c r="M24">
+        <v>0.9994342523920381</v>
+      </c>
+      <c r="N24">
+        <v>1.000290957719287</v>
+      </c>
+      <c r="O24">
+        <v>1.000410226801606</v>
+      </c>
+      <c r="P24">
+        <v>0.999746005058148</v>
+      </c>
+      <c r="Q24">
+        <v>1.000111889711051</v>
+      </c>
+      <c r="R24">
+        <v>0.9999276559451943</v>
+      </c>
+      <c r="S24">
+        <v>0.9997685209122636</v>
+      </c>
+      <c r="T24">
+        <v>0.9999276559451943</v>
+      </c>
+      <c r="U24">
+        <v>0.9998991301140194</v>
+      </c>
+      <c r="V24">
+        <v>0.9999774956350729</v>
+      </c>
+      <c r="W24">
+        <v>0.9999314681040831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.953319229254493</v>
+      </c>
+      <c r="D25">
+        <v>0.7894649163113109</v>
+      </c>
+      <c r="E25">
+        <v>0.7894649163113109</v>
+      </c>
+      <c r="F25">
+        <v>1.04548728095121</v>
+      </c>
+      <c r="G25">
+        <v>1.153061593316328</v>
+      </c>
+      <c r="H25">
+        <v>1.153061593316328</v>
+      </c>
+      <c r="I25">
+        <v>1.153061593316328</v>
+      </c>
+      <c r="J25">
+        <v>1.077398575607244</v>
+      </c>
+      <c r="K25">
+        <v>0.9543315154103008</v>
+      </c>
+      <c r="L25">
+        <v>1.056604045948</v>
+      </c>
+      <c r="M25">
+        <v>0.8618715018156087</v>
+      </c>
+      <c r="N25">
+        <v>1.153061593316328</v>
+      </c>
+      <c r="O25">
+        <v>1.04548728095121</v>
+      </c>
+      <c r="P25">
+        <v>0.9174760986312605</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999093981807554</v>
+      </c>
+      <c r="R25">
+        <v>0.9960045968596164</v>
+      </c>
+      <c r="S25">
+        <v>0.9297612375576073</v>
+      </c>
+      <c r="T25">
+        <v>0.9960045968596164</v>
+      </c>
+      <c r="U25">
+        <v>0.9855863264972875</v>
+      </c>
+      <c r="V25">
+        <v>1.019081379861096</v>
+      </c>
+      <c r="W25">
+        <v>0.9864423323268119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.989895734690261</v>
+      </c>
+      <c r="D26">
+        <v>0.9398945720535595</v>
+      </c>
+      <c r="E26">
+        <v>0.9398945720535595</v>
+      </c>
+      <c r="F26">
+        <v>1.018021394410658</v>
+      </c>
+      <c r="G26">
+        <v>1.034745780519005</v>
+      </c>
+      <c r="H26">
+        <v>1.034745780519005</v>
+      </c>
+      <c r="I26">
+        <v>1.034745780519005</v>
+      </c>
+      <c r="J26">
+        <v>1.02262499322634</v>
+      </c>
+      <c r="K26">
+        <v>0.9872647981106624</v>
+      </c>
+      <c r="L26">
+        <v>1.013362453267904</v>
+      </c>
+      <c r="M26">
+        <v>0.9614376734756624</v>
+      </c>
+      <c r="N26">
+        <v>1.034745780519005</v>
+      </c>
+      <c r="O26">
+        <v>1.018021394410658</v>
+      </c>
+      <c r="P26">
+        <v>0.9789579832321089</v>
+      </c>
+      <c r="Q26">
+        <v>1.00264309626066</v>
+      </c>
+      <c r="R26">
+        <v>0.9975539156610741</v>
+      </c>
+      <c r="S26">
+        <v>0.9817269215249601</v>
+      </c>
+      <c r="T26">
+        <v>0.9975539156610741</v>
+      </c>
+      <c r="U26">
+        <v>0.9949816362734711</v>
+      </c>
+      <c r="V26">
+        <v>1.002934465122578</v>
+      </c>
+      <c r="W26">
+        <v>0.9959059249692563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9986324961191303</v>
+      </c>
+      <c r="D27">
+        <v>0.9940048727552425</v>
+      </c>
+      <c r="E27">
+        <v>0.9940048727552425</v>
+      </c>
+      <c r="F27">
+        <v>1.001235552300847</v>
+      </c>
+      <c r="G27">
+        <v>1.004464756287293</v>
+      </c>
+      <c r="H27">
+        <v>1.004464756287293</v>
+      </c>
+      <c r="I27">
+        <v>1.004464756287293</v>
+      </c>
+      <c r="J27">
+        <v>1.002197698393207</v>
+      </c>
+      <c r="K27">
+        <v>0.9986959714500555</v>
+      </c>
+      <c r="L27">
+        <v>1.001645029790329</v>
+      </c>
+      <c r="M27">
+        <v>0.9960563488472974</v>
+      </c>
+      <c r="N27">
+        <v>1.004464756287293</v>
+      </c>
+      <c r="O27">
+        <v>1.001235552300847</v>
+      </c>
+      <c r="P27">
+        <v>0.9976202125280449</v>
+      </c>
+      <c r="Q27">
+        <v>0.9999657618754514</v>
+      </c>
+      <c r="R27">
+        <v>0.9999017271144611</v>
+      </c>
+      <c r="S27">
+        <v>0.9979787988353818</v>
+      </c>
+      <c r="T27">
+        <v>0.999901727114461</v>
+      </c>
+      <c r="U27">
+        <v>0.9996002881983597</v>
+      </c>
+      <c r="V27">
+        <v>1.000573181816147</v>
+      </c>
+      <c r="W27">
+        <v>0.9996165907429253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000630341530529</v>
+      </c>
+      <c r="D28">
+        <v>1.007150191367457</v>
+      </c>
+      <c r="E28">
+        <v>1.007150191367457</v>
+      </c>
+      <c r="F28">
+        <v>0.9969629268849463</v>
+      </c>
+      <c r="G28">
+        <v>0.9974545780919949</v>
+      </c>
+      <c r="H28">
+        <v>0.9974545780919949</v>
+      </c>
+      <c r="I28">
+        <v>0.9974545780919949</v>
+      </c>
+      <c r="J28">
+        <v>0.9972147393439499</v>
+      </c>
+      <c r="K28">
+        <v>1.001461309407396</v>
+      </c>
+      <c r="L28">
+        <v>0.9989066269410791</v>
+      </c>
+      <c r="M28">
+        <v>1.00443276038561</v>
+      </c>
+      <c r="N28">
+        <v>0.9974545780919949</v>
+      </c>
+      <c r="O28">
+        <v>0.9969629268849463</v>
+      </c>
+      <c r="P28">
+        <v>1.002056559126201</v>
+      </c>
+      <c r="Q28">
+        <v>0.9992121181461709</v>
+      </c>
+      <c r="R28">
+        <v>1.000522565448133</v>
+      </c>
+      <c r="S28">
+        <v>1.001858142553266</v>
+      </c>
+      <c r="T28">
+        <v>1.000522565448133</v>
+      </c>
+      <c r="U28">
+        <v>1.000757251437948</v>
+      </c>
+      <c r="V28">
+        <v>1.000096716768758</v>
+      </c>
+      <c r="W28">
+        <v>1.00052668424412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.004307264016756</v>
+      </c>
+      <c r="D29">
+        <v>1.028791806092115</v>
+      </c>
+      <c r="E29">
+        <v>1.028791806092115</v>
+      </c>
+      <c r="F29">
+        <v>0.9905347163257885</v>
+      </c>
+      <c r="G29">
+        <v>0.9848362686572451</v>
+      </c>
+      <c r="H29">
+        <v>0.9848362686572451</v>
+      </c>
+      <c r="I29">
+        <v>0.9848362686572451</v>
+      </c>
+      <c r="J29">
+        <v>0.9890747062808406</v>
+      </c>
+      <c r="K29">
+        <v>1.006050395502251</v>
+      </c>
+      <c r="L29">
+        <v>0.9940616775728298</v>
+      </c>
+      <c r="M29">
+        <v>1.01832803898203</v>
+      </c>
+      <c r="N29">
+        <v>0.9848362686572451</v>
+      </c>
+      <c r="O29">
+        <v>0.9905347163257885</v>
+      </c>
+      <c r="P29">
+        <v>1.009663261208952</v>
+      </c>
+      <c r="Q29">
+        <v>0.9982925559140197</v>
+      </c>
+      <c r="R29">
+        <v>1.001387597025049</v>
+      </c>
+      <c r="S29">
+        <v>1.008458972640051</v>
+      </c>
+      <c r="T29">
+        <v>1.001387597025049</v>
+      </c>
+      <c r="U29">
+        <v>1.00255329664435</v>
+      </c>
+      <c r="V29">
+        <v>0.9990098910469289</v>
+      </c>
+      <c r="W29">
+        <v>1.001998109178732</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9986147567483004</v>
+        <v>0.9971843345547082</v>
       </c>
       <c r="D4">
-        <v>0.9896464078244349</v>
+        <v>0.9822041070643793</v>
       </c>
       <c r="E4">
-        <v>0.9896464078244349</v>
+        <v>0.9822041070643793</v>
       </c>
       <c r="F4">
-        <v>1.003659455185878</v>
+        <v>1.005610714995183</v>
       </c>
       <c r="G4">
-        <v>1.004998292311812</v>
+        <v>1.009798607245047</v>
       </c>
       <c r="H4">
-        <v>1.004998292311812</v>
+        <v>1.009798607245047</v>
       </c>
       <c r="I4">
-        <v>1.004998292311812</v>
+        <v>1.009798607245047</v>
       </c>
       <c r="J4">
-        <v>1.003955591993647</v>
+        <v>1.006727626496192</v>
       </c>
       <c r="K4">
-        <v>0.9978396368919109</v>
+        <v>0.9962459154369687</v>
       </c>
       <c r="L4">
-        <v>1.001993370120277</v>
+        <v>1.003803562701073</v>
       </c>
       <c r="M4">
-        <v>0.9934534834689561</v>
+        <v>0.9886301582346482</v>
       </c>
       <c r="N4">
-        <v>1.004998292311812</v>
+        <v>1.009798607245047</v>
       </c>
       <c r="O4">
-        <v>1.003659455185878</v>
+        <v>1.005610714995183</v>
       </c>
       <c r="P4">
-        <v>0.9966529315051564</v>
+        <v>0.993907411029781</v>
       </c>
       <c r="Q4">
-        <v>1.000749546038894</v>
+        <v>1.000928315216076</v>
       </c>
       <c r="R4">
-        <v>0.9994347184407083</v>
+        <v>0.9992044764348696</v>
       </c>
       <c r="S4">
-        <v>0.997048499967408</v>
+        <v>0.9946869124988437</v>
       </c>
       <c r="T4">
-        <v>0.9994347184407083</v>
+        <v>0.9992044764348696</v>
       </c>
       <c r="U4">
-        <v>0.9990359480535089</v>
+        <v>0.9984648361853945</v>
       </c>
       <c r="V4">
-        <v>1.000228416905169</v>
+        <v>1.000731590397325</v>
       </c>
       <c r="W4">
-        <v>0.9992701243181521</v>
+        <v>0.9987756283410248</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9970447433213279</v>
+        <v>0.9912151717551803</v>
       </c>
       <c r="D5">
-        <v>0.9813121635086443</v>
+        <v>0.9700504114319629</v>
       </c>
       <c r="E5">
-        <v>0.9813121635086443</v>
+        <v>0.9700504114319629</v>
       </c>
       <c r="F5">
-        <v>1.005894320396254</v>
+        <v>1.003120332843378</v>
       </c>
       <c r="G5">
-        <v>1.010285465994235</v>
+        <v>1.027730049476684</v>
       </c>
       <c r="H5">
-        <v>1.010285465994235</v>
+        <v>1.027730049476684</v>
       </c>
       <c r="I5">
-        <v>1.010285465994235</v>
+        <v>1.027730049476684</v>
       </c>
       <c r="J5">
-        <v>1.007065070756483</v>
+        <v>1.010658608555417</v>
       </c>
       <c r="K5">
-        <v>0.9960579020316999</v>
+        <v>0.9933020766029648</v>
       </c>
       <c r="L5">
-        <v>1.003992870180115</v>
+        <v>1.009913534414464</v>
       </c>
       <c r="M5">
-        <v>0.9880607074711844</v>
+        <v>0.9797704772413025</v>
       </c>
       <c r="N5">
-        <v>1.010285465994235</v>
+        <v>1.027730049476684</v>
       </c>
       <c r="O5">
-        <v>1.005894320396254</v>
+        <v>1.003120332843378</v>
       </c>
       <c r="P5">
-        <v>0.9936032419524494</v>
+        <v>0.9865853721376703</v>
       </c>
       <c r="Q5">
-        <v>1.000976111213977</v>
+        <v>0.9982112047231713</v>
       </c>
       <c r="R5">
-        <v>0.9991639832997112</v>
+        <v>1.000300264584008</v>
       </c>
       <c r="S5">
-        <v>0.9944214619788663</v>
+        <v>0.9888242736261018</v>
       </c>
       <c r="T5">
-        <v>0.9991639832997112</v>
+        <v>1.000300264584008</v>
       </c>
       <c r="U5">
-        <v>0.9983874629827084</v>
+        <v>0.9985507175887474</v>
       </c>
       <c r="V5">
-        <v>1.000767063585014</v>
+        <v>1.004386583966335</v>
       </c>
       <c r="W5">
-        <v>0.998714155457493</v>
+        <v>0.9982200827901692</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.991295741599315</v>
+        <v>0.9986147567483004</v>
       </c>
       <c r="D6">
-        <v>0.9361923857285969</v>
+        <v>0.9896464078244349</v>
       </c>
       <c r="E6">
-        <v>0.9361923857285969</v>
+        <v>0.9896464078244349</v>
       </c>
       <c r="F6">
-        <v>1.022291365730696</v>
+        <v>1.003659455185878</v>
       </c>
       <c r="G6">
-        <v>1.031268214437598</v>
+        <v>1.004998292311812</v>
       </c>
       <c r="H6">
-        <v>1.031268214437598</v>
+        <v>1.004998292311812</v>
       </c>
       <c r="I6">
-        <v>1.031268214437598</v>
+        <v>1.004998292311812</v>
       </c>
       <c r="J6">
-        <v>1.024350269432132</v>
+        <v>1.003955591993647</v>
       </c>
       <c r="K6">
-        <v>0.9866703070407434</v>
+        <v>0.9978396368919109</v>
       </c>
       <c r="L6">
-        <v>1.012429972613905</v>
+        <v>1.001993370120277</v>
       </c>
       <c r="M6">
-        <v>0.9596095652561436</v>
+        <v>0.9934534834689561</v>
       </c>
       <c r="N6">
-        <v>1.031268214437598</v>
+        <v>1.004998292311812</v>
       </c>
       <c r="O6">
-        <v>1.022291365730696</v>
+        <v>1.003659455185878</v>
       </c>
       <c r="P6">
-        <v>0.9792418757296464</v>
+        <v>0.9966529315051564</v>
       </c>
       <c r="Q6">
-        <v>1.00448083638572</v>
+        <v>1.000749546038894</v>
       </c>
       <c r="R6">
-        <v>0.996583988632297</v>
+        <v>0.9994347184407083</v>
       </c>
       <c r="S6">
-        <v>0.9817180195000121</v>
+        <v>0.997048499967408</v>
       </c>
       <c r="T6">
-        <v>0.996583988632297</v>
+        <v>0.9994347184407083</v>
       </c>
       <c r="U6">
-        <v>0.9941055682344087</v>
+        <v>0.9990359480535089</v>
       </c>
       <c r="V6">
-        <v>1.001538097475047</v>
+        <v>1.000228416905169</v>
       </c>
       <c r="W6">
-        <v>0.9955134777298913</v>
+        <v>0.9992701243181521</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9995226474797871</v>
+        <v>0.9970447433213279</v>
       </c>
       <c r="D7">
-        <v>0.9981634941999236</v>
+        <v>0.9813121635086443</v>
       </c>
       <c r="E7">
-        <v>0.9981634941999236</v>
+        <v>0.9813121635086443</v>
       </c>
       <c r="F7">
-        <v>1.000287172508489</v>
+        <v>1.005894320396254</v>
       </c>
       <c r="G7">
-        <v>1.001530029670082</v>
+        <v>1.010285465994235</v>
       </c>
       <c r="H7">
-        <v>1.001530029670082</v>
+        <v>1.010285465994235</v>
       </c>
       <c r="I7">
-        <v>1.001530029670082</v>
+        <v>1.010285465994235</v>
       </c>
       <c r="J7">
-        <v>1.00066364529721</v>
+        <v>1.007065070756483</v>
       </c>
       <c r="K7">
-        <v>0.9995950436385362</v>
+        <v>0.9960579020316999</v>
       </c>
       <c r="L7">
-        <v>1.000554658191328</v>
+        <v>1.003992870180115</v>
       </c>
       <c r="M7">
-        <v>0.9987761223084084</v>
+        <v>0.9880607074711844</v>
       </c>
       <c r="N7">
-        <v>1.001530029670082</v>
+        <v>1.010285465994235</v>
       </c>
       <c r="O7">
-        <v>1.000287172508489</v>
+        <v>1.005894320396254</v>
       </c>
       <c r="P7">
-        <v>0.9992253333542064</v>
+        <v>0.9936032419524494</v>
       </c>
       <c r="Q7">
-        <v>0.9999411080735128</v>
+        <v>1.000976111213977</v>
       </c>
       <c r="R7">
-        <v>0.9999935654594981</v>
+        <v>0.9991639832997112</v>
       </c>
       <c r="S7">
-        <v>0.9993485701156497</v>
+        <v>0.9944214619788663</v>
       </c>
       <c r="T7">
-        <v>0.9999935654594981</v>
+        <v>0.9991639832997112</v>
       </c>
       <c r="U7">
-        <v>0.9998939350042576</v>
+        <v>0.9983874629827084</v>
       </c>
       <c r="V7">
-        <v>1.000221153937422</v>
+        <v>1.000767063585014</v>
       </c>
       <c r="W7">
-        <v>0.9998866016617205</v>
+        <v>0.998714155457493</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999532137378868</v>
+        <v>0.991295741599315</v>
       </c>
       <c r="D8">
-        <v>0.9998779240781555</v>
+        <v>0.9361923857285969</v>
       </c>
       <c r="E8">
-        <v>0.9998779240781555</v>
+        <v>0.9361923857285969</v>
       </c>
       <c r="F8">
-        <v>0.9999955658476287</v>
+        <v>1.022291365730696</v>
       </c>
       <c r="G8">
-        <v>1.000143519341251</v>
+        <v>1.031268214437598</v>
       </c>
       <c r="H8">
-        <v>1.000143519341251</v>
+        <v>1.031268214437598</v>
       </c>
       <c r="I8">
-        <v>1.000143519341251</v>
+        <v>1.031268214437598</v>
       </c>
       <c r="J8">
-        <v>1.000041645095209</v>
+        <v>1.024350269432132</v>
       </c>
       <c r="K8">
-        <v>0.9999716678036198</v>
+        <v>0.9866703070407434</v>
       </c>
       <c r="L8">
-        <v>1.000049939544589</v>
+        <v>1.012429972613905</v>
       </c>
       <c r="M8">
-        <v>0.9999145757953288</v>
+        <v>0.9596095652561436</v>
       </c>
       <c r="N8">
-        <v>1.000143519341251</v>
+        <v>1.031268214437598</v>
       </c>
       <c r="O8">
-        <v>0.9999955658476287</v>
+        <v>1.022291365730696</v>
       </c>
       <c r="P8">
-        <v>0.9999367449628921</v>
+        <v>0.9792418757296464</v>
       </c>
       <c r="Q8">
-        <v>0.9999836168256242</v>
+        <v>1.00448083638572</v>
       </c>
       <c r="R8">
-        <v>1.000005669755679</v>
+        <v>0.996583988632297</v>
       </c>
       <c r="S8">
-        <v>0.9999483859098013</v>
+        <v>0.9817180195000121</v>
       </c>
       <c r="T8">
-        <v>1.000005669755678</v>
+        <v>0.996583988632297</v>
       </c>
       <c r="U8">
-        <v>0.9999971692676637</v>
+        <v>0.9941055682344087</v>
       </c>
       <c r="V8">
-        <v>1.000026439282381</v>
+        <v>1.001538097475047</v>
       </c>
       <c r="W8">
-        <v>0.9999935064054586</v>
+        <v>0.9955134777298913</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9992105715851728</v>
+        <v>0.9995226474797871</v>
       </c>
       <c r="D9">
-        <v>0.99694737855699</v>
+        <v>0.9981634941999236</v>
       </c>
       <c r="E9">
-        <v>0.99694737855699</v>
+        <v>0.9981634941999236</v>
       </c>
       <c r="F9">
-        <v>1.000483617637495</v>
+        <v>1.000287172508489</v>
       </c>
       <c r="G9">
-        <v>1.002532032879154</v>
+        <v>1.001530029670082</v>
       </c>
       <c r="H9">
-        <v>1.002532032879154</v>
+        <v>1.001530029670082</v>
       </c>
       <c r="I9">
-        <v>1.002532032879154</v>
+        <v>1.001530029670082</v>
       </c>
       <c r="J9">
-        <v>1.001103762898346</v>
+        <v>1.00066364529721</v>
       </c>
       <c r="K9">
-        <v>0.9993272647152831</v>
+        <v>0.9995950436385362</v>
       </c>
       <c r="L9">
-        <v>1.000918454697044</v>
+        <v>1.000554658191328</v>
       </c>
       <c r="M9">
-        <v>0.9979667700354508</v>
+        <v>0.9987761223084084</v>
       </c>
       <c r="N9">
-        <v>1.002532032879154</v>
+        <v>1.001530029670082</v>
       </c>
       <c r="O9">
-        <v>1.000483617637495</v>
+        <v>1.000287172508489</v>
       </c>
       <c r="P9">
-        <v>0.9987154980972426</v>
+        <v>0.9992253333542064</v>
       </c>
       <c r="Q9">
-        <v>0.9999054411763891</v>
+        <v>0.9999411080735128</v>
       </c>
       <c r="R9">
-        <v>0.9999876763578798</v>
+        <v>0.9999935654594981</v>
       </c>
       <c r="S9">
-        <v>0.9989194203032561</v>
+        <v>0.9993485701156497</v>
       </c>
       <c r="T9">
-        <v>0.9999876763578798</v>
+        <v>0.9999935654594981</v>
       </c>
       <c r="U9">
-        <v>0.9998225734472306</v>
+        <v>0.9998939350042576</v>
       </c>
       <c r="V9">
-        <v>1.000364465333615</v>
+        <v>1.000221153937422</v>
       </c>
       <c r="W9">
-        <v>0.9998112316256169</v>
+        <v>0.9998866016617205</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9912166311103692</v>
+        <v>0.9999532137378868</v>
       </c>
       <c r="D10">
-        <v>0.9351645491520044</v>
+        <v>0.9998779240781555</v>
       </c>
       <c r="E10">
-        <v>0.9351645491520044</v>
+        <v>0.9998779240781555</v>
       </c>
       <c r="F10">
-        <v>1.022745913986419</v>
+        <v>0.9999955658476287</v>
       </c>
       <c r="G10">
-        <v>1.031602169890295</v>
+        <v>1.000143519341251</v>
       </c>
       <c r="H10">
-        <v>1.031602169890295</v>
+        <v>1.000143519341251</v>
       </c>
       <c r="I10">
-        <v>1.031602169890295</v>
+        <v>1.000143519341251</v>
       </c>
       <c r="J10">
-        <v>1.024752533594121</v>
+        <v>1.000041645095209</v>
       </c>
       <c r="K10">
-        <v>0.9864613256683028</v>
+        <v>0.9999716678036198</v>
       </c>
       <c r="L10">
-        <v>1.012577159622414</v>
+        <v>1.000049939544589</v>
       </c>
       <c r="M10">
-        <v>0.958975471001117</v>
+        <v>0.9999145757953288</v>
       </c>
       <c r="N10">
-        <v>1.031602169890295</v>
+        <v>1.000143519341251</v>
       </c>
       <c r="O10">
-        <v>1.022745913986419</v>
+        <v>0.9999955658476287</v>
       </c>
       <c r="P10">
-        <v>0.9789552315692119</v>
+        <v>0.9999367449628921</v>
       </c>
       <c r="Q10">
-        <v>1.004603619827361</v>
+        <v>0.9999836168256242</v>
       </c>
       <c r="R10">
-        <v>0.9965042110095729</v>
+        <v>1.000005669755679</v>
       </c>
       <c r="S10">
-        <v>0.9814572629355757</v>
+        <v>0.9999483859098013</v>
       </c>
       <c r="T10">
-        <v>0.9965042110095729</v>
+        <v>1.000005669755678</v>
       </c>
       <c r="U10">
-        <v>0.9939934896742554</v>
+        <v>0.9999971692676637</v>
       </c>
       <c r="V10">
-        <v>1.001515225717463</v>
+        <v>1.000026439282381</v>
       </c>
       <c r="W10">
-        <v>0.9954369692531304</v>
+        <v>0.9999935064054586</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9875898099221926</v>
+        <v>0.9992105715851728</v>
       </c>
       <c r="D11">
-        <v>0.9347063259912063</v>
+        <v>0.99694737855699</v>
       </c>
       <c r="E11">
-        <v>0.9347063259912063</v>
+        <v>0.99694737855699</v>
       </c>
       <c r="F11">
-        <v>1.017336769534847</v>
+        <v>1.000483617637495</v>
       </c>
       <c r="G11">
-        <v>1.041727600630298</v>
+        <v>1.002532032879154</v>
       </c>
       <c r="H11">
-        <v>1.041727600630298</v>
+        <v>1.002532032879154</v>
       </c>
       <c r="I11">
-        <v>1.041727600630298</v>
+        <v>1.002532032879154</v>
       </c>
       <c r="J11">
-        <v>1.024342806856133</v>
+        <v>1.001103762898346</v>
       </c>
       <c r="K11">
-        <v>0.9860308626547815</v>
+        <v>0.9993272647152831</v>
       </c>
       <c r="L11">
-        <v>1.015760450039149</v>
+        <v>1.000918454697044</v>
       </c>
       <c r="M11">
-        <v>0.9577211344157045</v>
+        <v>0.9979667700354508</v>
       </c>
       <c r="N11">
-        <v>1.041727600630298</v>
+        <v>1.002532032879154</v>
       </c>
       <c r="O11">
-        <v>1.017336769534847</v>
+        <v>1.000483617637495</v>
       </c>
       <c r="P11">
-        <v>0.9760215477630264</v>
+        <v>0.9987154980972426</v>
       </c>
       <c r="Q11">
-        <v>1.001683816094814</v>
+        <v>0.9999054411763891</v>
       </c>
       <c r="R11">
-        <v>0.9979235653854502</v>
+        <v>0.9999876763578798</v>
       </c>
       <c r="S11">
-        <v>0.9793579860602781</v>
+        <v>0.9989194203032561</v>
       </c>
       <c r="T11">
-        <v>0.9979235653854502</v>
+        <v>0.9999876763578798</v>
       </c>
       <c r="U11">
-        <v>0.994950389702783</v>
+        <v>0.9998225734472306</v>
       </c>
       <c r="V11">
-        <v>1.004305831888286</v>
+        <v>1.000364465333615</v>
       </c>
       <c r="W11">
-        <v>0.995651970005539</v>
+        <v>0.9998112316256169</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9969199877578955</v>
+        <v>0.9912166311103692</v>
       </c>
       <c r="D12">
-        <v>0.9784028141789475</v>
+        <v>0.9351645491520044</v>
       </c>
       <c r="E12">
-        <v>0.9784028141789475</v>
+        <v>0.9351645491520044</v>
       </c>
       <c r="F12">
-        <v>1.007335899178949</v>
+        <v>1.022745913986419</v>
       </c>
       <c r="G12">
-        <v>1.010955269684212</v>
+        <v>1.031602169890295</v>
       </c>
       <c r="H12">
-        <v>1.010955269684212</v>
+        <v>1.031602169890295</v>
       </c>
       <c r="I12">
-        <v>1.010955269684212</v>
+        <v>1.031602169890295</v>
       </c>
       <c r="J12">
-        <v>1.008219968884208</v>
+        <v>1.024752533594121</v>
       </c>
       <c r="K12">
-        <v>0.9954756816210516</v>
+        <v>0.9864613256683028</v>
       </c>
       <c r="L12">
-        <v>1.004323406799999</v>
+        <v>1.012577159622414</v>
       </c>
       <c r="M12">
-        <v>0.9862926976526337</v>
+        <v>0.958975471001117</v>
       </c>
       <c r="N12">
-        <v>1.010955269684212</v>
+        <v>1.031602169890295</v>
       </c>
       <c r="O12">
-        <v>1.007335899178949</v>
+        <v>1.022745913986419</v>
       </c>
       <c r="P12">
-        <v>0.9928693566789479</v>
+        <v>0.9789552315692119</v>
       </c>
       <c r="Q12">
-        <v>1.0014057904</v>
+        <v>1.004603619827361</v>
       </c>
       <c r="R12">
-        <v>0.9988979943473694</v>
+        <v>0.9965042110095729</v>
       </c>
       <c r="S12">
-        <v>0.9937381316596491</v>
+        <v>0.9814572629355757</v>
       </c>
       <c r="T12">
-        <v>0.9988979943473694</v>
+        <v>0.9965042110095729</v>
       </c>
       <c r="U12">
-        <v>0.9980424161657899</v>
+        <v>0.9939934896742554</v>
       </c>
       <c r="V12">
-        <v>1.000624986869475</v>
+        <v>1.001515225717463</v>
       </c>
       <c r="W12">
-        <v>0.9984907157197369</v>
+        <v>0.9954369692531304</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.002275018962365</v>
+        <v>0.9875898099221926</v>
       </c>
       <c r="D13">
-        <v>1.011946021187304</v>
+        <v>0.9347063259912063</v>
       </c>
       <c r="E13">
-        <v>1.011946021187304</v>
+        <v>0.9347063259912063</v>
       </c>
       <c r="F13">
-        <v>0.9968350825022425</v>
+        <v>1.017336769534847</v>
       </c>
       <c r="G13">
-        <v>0.9923531615682246</v>
+        <v>1.041727600630298</v>
       </c>
       <c r="H13">
-        <v>0.9923531615682246</v>
+        <v>1.041727600630298</v>
       </c>
       <c r="I13">
-        <v>0.9923531615682246</v>
+        <v>1.041727600630298</v>
       </c>
       <c r="J13">
-        <v>0.9955470138773841</v>
+        <v>1.024342806856133</v>
       </c>
       <c r="K13">
-        <v>1.00255618964269</v>
+        <v>0.9860308626547815</v>
       </c>
       <c r="L13">
-        <v>0.9971126153898674</v>
+        <v>1.015760450039149</v>
       </c>
       <c r="M13">
-        <v>1.007736481994372</v>
+        <v>0.9577211344157045</v>
       </c>
       <c r="N13">
-        <v>0.9923531615682246</v>
+        <v>1.041727600630298</v>
       </c>
       <c r="O13">
-        <v>0.9968350825022425</v>
+        <v>1.017336769534847</v>
       </c>
       <c r="P13">
-        <v>1.004390551844773</v>
+        <v>0.9760215477630264</v>
       </c>
       <c r="Q13">
-        <v>0.9996956360724665</v>
+        <v>1.001683816094814</v>
       </c>
       <c r="R13">
-        <v>1.000378088419257</v>
+        <v>0.9979235653854502</v>
       </c>
       <c r="S13">
-        <v>1.003779097777412</v>
+        <v>0.9793579860602781</v>
       </c>
       <c r="T13">
-        <v>1.000378088419257</v>
+        <v>0.9979235653854502</v>
       </c>
       <c r="U13">
-        <v>1.000922613725115</v>
+        <v>0.994950389702783</v>
       </c>
       <c r="V13">
-        <v>0.9992087232937372</v>
+        <v>1.004305831888286</v>
       </c>
       <c r="W13">
-        <v>1.000795198140556</v>
+        <v>0.995651970005539</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.98495226</v>
+        <v>0.9969199877578955</v>
       </c>
       <c r="D14">
-        <v>0.887797470000001</v>
+        <v>0.9784028141789475</v>
       </c>
       <c r="E14">
-        <v>0.887797470000001</v>
+        <v>0.9784028141789475</v>
       </c>
       <c r="F14">
-        <v>1.0396018</v>
+        <v>1.007335899178949</v>
       </c>
       <c r="G14">
-        <v>1.0542662</v>
+        <v>1.010955269684212</v>
       </c>
       <c r="H14">
-        <v>1.0542662</v>
+        <v>1.010955269684212</v>
       </c>
       <c r="I14">
-        <v>1.0542662</v>
+        <v>1.010955269684212</v>
       </c>
       <c r="J14">
-        <v>1.042861100000001</v>
+        <v>1.008219968884208</v>
       </c>
       <c r="K14">
-        <v>0.9765846500000002</v>
+        <v>0.9954756816210516</v>
       </c>
       <c r="L14">
-        <v>1.0216333</v>
+        <v>1.004323406799999</v>
       </c>
       <c r="M14">
-        <v>0.9290452899999994</v>
+        <v>0.9862926976526337</v>
       </c>
       <c r="N14">
-        <v>1.0542662</v>
+        <v>1.010955269684212</v>
       </c>
       <c r="O14">
-        <v>1.0396018</v>
+        <v>1.007335899178949</v>
       </c>
       <c r="P14">
-        <v>0.9636996350000004</v>
+        <v>0.9928693566789479</v>
       </c>
       <c r="Q14">
-        <v>1.008093225</v>
+        <v>1.0014057904</v>
       </c>
       <c r="R14">
-        <v>0.9938884900000003</v>
+        <v>0.9988979943473694</v>
       </c>
       <c r="S14">
-        <v>0.9679946400000002</v>
+        <v>0.9937381316596491</v>
       </c>
       <c r="T14">
-        <v>0.9938884900000003</v>
+        <v>0.9988979943473694</v>
       </c>
       <c r="U14">
-        <v>0.9895625300000004</v>
+        <v>0.9980424161657899</v>
       </c>
       <c r="V14">
-        <v>1.002503264</v>
+        <v>1.000624986869475</v>
       </c>
       <c r="W14">
-        <v>0.9920927587500001</v>
+        <v>0.9984907157197369</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0795259</v>
+        <v>1.002275018962365</v>
       </c>
       <c r="D15">
-        <v>1.4203764</v>
+        <v>1.011946021187304</v>
       </c>
       <c r="E15">
-        <v>1.4203764</v>
+        <v>1.011946021187304</v>
       </c>
       <c r="F15">
-        <v>0.88779747</v>
+        <v>0.9968350825022425</v>
       </c>
       <c r="G15">
-        <v>0.73238625</v>
+        <v>0.9923531615682246</v>
       </c>
       <c r="H15">
-        <v>0.73238625</v>
+        <v>0.9923531615682246</v>
       </c>
       <c r="I15">
-        <v>0.73238625</v>
+        <v>0.9923531615682246</v>
       </c>
       <c r="J15">
-        <v>0.8432138100000001</v>
+        <v>0.9955470138773841</v>
       </c>
       <c r="K15">
-        <v>1.0899016</v>
+        <v>1.00255618964269</v>
       </c>
       <c r="L15">
-        <v>0.8988550199999998</v>
+        <v>0.9971126153898674</v>
       </c>
       <c r="M15">
-        <v>1.2721004</v>
+        <v>1.007736481994372</v>
       </c>
       <c r="N15">
-        <v>0.73238625</v>
+        <v>0.9923531615682246</v>
       </c>
       <c r="O15">
-        <v>0.88779747</v>
+        <v>0.9968350825022425</v>
       </c>
       <c r="P15">
-        <v>1.154086935</v>
+        <v>1.004390551844773</v>
       </c>
       <c r="Q15">
-        <v>0.9888495349999999</v>
+        <v>0.9996956360724665</v>
       </c>
       <c r="R15">
-        <v>1.01352004</v>
+        <v>1.000378088419257</v>
       </c>
       <c r="S15">
-        <v>1.132691823333333</v>
+        <v>1.003779097777412</v>
       </c>
       <c r="T15">
-        <v>1.01352004</v>
+        <v>1.000378088419257</v>
       </c>
       <c r="U15">
-        <v>1.03261543</v>
+        <v>1.000922613725115</v>
       </c>
       <c r="V15">
-        <v>0.9725695940000001</v>
+        <v>0.9992087232937372</v>
       </c>
       <c r="W15">
-        <v>1.02801960625</v>
+        <v>1.000795198140556</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1597,10 +1603,10 @@
         <v>0.98495226</v>
       </c>
       <c r="D16">
-        <v>0.88779747</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="E16">
-        <v>0.88779747</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="F16">
         <v>1.0396018</v>
@@ -1615,16 +1621,16 @@
         <v>1.0542662</v>
       </c>
       <c r="J16">
-        <v>1.0428611</v>
+        <v>1.042861100000001</v>
       </c>
       <c r="K16">
-        <v>0.9765846500000001</v>
+        <v>0.9765846500000002</v>
       </c>
       <c r="L16">
         <v>1.0216333</v>
       </c>
       <c r="M16">
-        <v>0.9290452899999999</v>
+        <v>0.9290452899999994</v>
       </c>
       <c r="N16">
         <v>1.0542662</v>
@@ -1633,28 +1639,28 @@
         <v>1.0396018</v>
       </c>
       <c r="P16">
-        <v>0.963699635</v>
+        <v>0.9636996350000004</v>
       </c>
       <c r="Q16">
         <v>1.008093225</v>
       </c>
       <c r="R16">
-        <v>0.9938884900000001</v>
+        <v>0.9938884900000003</v>
       </c>
       <c r="S16">
-        <v>0.96799464</v>
+        <v>0.9679946400000002</v>
       </c>
       <c r="T16">
-        <v>0.9938884900000001</v>
+        <v>0.9938884900000003</v>
       </c>
       <c r="U16">
-        <v>0.9895625300000001</v>
+        <v>0.9895625300000004</v>
       </c>
       <c r="V16">
         <v>1.002503264</v>
       </c>
       <c r="W16">
-        <v>0.99209275875</v>
+        <v>0.9920927587500001</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0558825</v>
+        <v>1.0795259</v>
       </c>
       <c r="D17">
-        <v>1.2872317</v>
+        <v>1.4203764</v>
       </c>
       <c r="E17">
-        <v>1.2872317</v>
+        <v>1.4203764</v>
       </c>
       <c r="F17">
-        <v>0.9257485600000002</v>
+        <v>0.88779747</v>
       </c>
       <c r="G17">
-        <v>0.8128562499999999</v>
+        <v>0.73238625</v>
       </c>
       <c r="H17">
-        <v>0.8128562499999999</v>
+        <v>0.73238625</v>
       </c>
       <c r="I17">
-        <v>0.8128562499999999</v>
+        <v>0.73238625</v>
       </c>
       <c r="J17">
-        <v>0.8931256400000001</v>
+        <v>0.8432138100000001</v>
       </c>
       <c r="K17">
-        <v>1.0615723</v>
+        <v>1.0899016</v>
       </c>
       <c r="L17">
-        <v>0.92954959</v>
+        <v>0.8988550199999998</v>
       </c>
       <c r="M17">
-        <v>1.1863366</v>
+        <v>1.2721004</v>
       </c>
       <c r="N17">
-        <v>0.8128562499999999</v>
+        <v>0.73238625</v>
       </c>
       <c r="O17">
-        <v>0.9257485600000002</v>
+        <v>0.88779747</v>
       </c>
       <c r="P17">
-        <v>1.10649013</v>
+        <v>1.154086935</v>
       </c>
       <c r="Q17">
-        <v>0.99366043</v>
+        <v>0.9888495349999999</v>
       </c>
       <c r="R17">
-        <v>1.00861217</v>
+        <v>1.01352004</v>
       </c>
       <c r="S17">
-        <v>1.09151752</v>
+        <v>1.132691823333333</v>
       </c>
       <c r="T17">
-        <v>1.00861217</v>
+        <v>1.01352004</v>
       </c>
       <c r="U17">
-        <v>1.0218522025</v>
+        <v>1.03261543</v>
       </c>
       <c r="V17">
-        <v>0.9800530120000002</v>
+        <v>0.9725695940000001</v>
       </c>
       <c r="W17">
-        <v>1.0190378925</v>
+        <v>1.02801960625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9916501898630137</v>
+        <v>0.98495226</v>
       </c>
       <c r="D18">
-        <v>0.9699554873972599</v>
+        <v>0.88779747</v>
       </c>
       <c r="E18">
-        <v>0.9699554873972599</v>
+        <v>0.88779747</v>
       </c>
       <c r="F18">
-        <v>1.003853444520548</v>
+        <v>1.0396018</v>
       </c>
       <c r="G18">
-        <v>1.026532212465753</v>
+        <v>1.0542662</v>
       </c>
       <c r="H18">
-        <v>1.026532212465753</v>
+        <v>1.0542662</v>
       </c>
       <c r="I18">
-        <v>1.026532212465753</v>
+        <v>1.0542662</v>
       </c>
       <c r="J18">
-        <v>1.010768306164384</v>
+        <v>1.0428611</v>
       </c>
       <c r="K18">
-        <v>0.9933243169863013</v>
+        <v>0.9765846500000001</v>
       </c>
       <c r="L18">
-        <v>1.00954316520548</v>
+        <v>1.0216333</v>
       </c>
       <c r="M18">
-        <v>0.9798315821917806</v>
+        <v>0.9290452899999999</v>
       </c>
       <c r="N18">
-        <v>1.026532212465753</v>
+        <v>1.0542662</v>
       </c>
       <c r="O18">
-        <v>1.003853444520548</v>
+        <v>1.0396018</v>
       </c>
       <c r="P18">
-        <v>0.9869044659589039</v>
+        <v>0.963699635</v>
       </c>
       <c r="Q18">
-        <v>0.9985888807534246</v>
+        <v>1.008093225</v>
       </c>
       <c r="R18">
-        <v>1.00011371479452</v>
+        <v>0.9938884900000001</v>
       </c>
       <c r="S18">
-        <v>0.9890444163013697</v>
+        <v>0.96799464</v>
       </c>
       <c r="T18">
-        <v>1.00011371479452</v>
+        <v>0.9938884900000001</v>
       </c>
       <c r="U18">
-        <v>0.9984163653424656</v>
+        <v>0.9895625300000001</v>
       </c>
       <c r="V18">
-        <v>1.004039534767123</v>
+        <v>1.002503264</v>
       </c>
       <c r="W18">
-        <v>0.998182338099315</v>
+        <v>0.99209275875</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.029750292631579</v>
+        <v>1.0558825</v>
       </c>
       <c r="D19">
-        <v>1.140071708421053</v>
+        <v>1.2872317</v>
       </c>
       <c r="E19">
-        <v>1.140071708421053</v>
+        <v>1.2872317</v>
       </c>
       <c r="F19">
-        <v>0.9676944963157896</v>
+        <v>0.9257485600000002</v>
       </c>
       <c r="G19">
-        <v>0.9017967668421052</v>
+        <v>0.8128562499999999</v>
       </c>
       <c r="H19">
-        <v>0.9017967668421052</v>
+        <v>0.8128562499999999</v>
       </c>
       <c r="I19">
-        <v>0.9017967668421052</v>
+        <v>0.8128562499999999</v>
       </c>
       <c r="J19">
-        <v>0.9482913394736844</v>
+        <v>0.8931256400000001</v>
       </c>
       <c r="K19">
-        <v>1.030261076842105</v>
+        <v>1.0615723</v>
       </c>
       <c r="L19">
-        <v>0.9634751726315791</v>
+        <v>0.92954959</v>
       </c>
       <c r="M19">
-        <v>1.091545081052631</v>
+        <v>1.1863366</v>
       </c>
       <c r="N19">
-        <v>0.9017967668421052</v>
+        <v>0.8128562499999999</v>
       </c>
       <c r="O19">
-        <v>0.9676944963157896</v>
+        <v>0.9257485600000002</v>
       </c>
       <c r="P19">
-        <v>1.053883102368421</v>
+        <v>1.10649013</v>
       </c>
       <c r="Q19">
-        <v>0.9989777865789474</v>
+        <v>0.99366043</v>
       </c>
       <c r="R19">
-        <v>1.003187657192983</v>
+        <v>1.00861217</v>
       </c>
       <c r="S19">
-        <v>1.046009093859649</v>
+        <v>1.09151752</v>
       </c>
       <c r="T19">
-        <v>1.003187657192983</v>
+        <v>1.00861217</v>
       </c>
       <c r="U19">
-        <v>1.009956012105263</v>
+        <v>1.0218522025</v>
       </c>
       <c r="V19">
-        <v>0.9883241630526317</v>
+        <v>0.9800530120000002</v>
       </c>
       <c r="W19">
-        <v>1.009110741776316</v>
+        <v>1.0190378925</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9926301878947367</v>
+        <v>0.9916501898630137</v>
       </c>
       <c r="D20">
-        <v>0.973720025263158</v>
+        <v>0.9699554873972599</v>
       </c>
       <c r="E20">
-        <v>0.973720025263158</v>
+        <v>0.9699554873972599</v>
       </c>
       <c r="F20">
-        <v>1.003267138421053</v>
+        <v>1.003853444520548</v>
       </c>
       <c r="G20">
-        <v>1.023391712631579</v>
+        <v>1.026532212465753</v>
       </c>
       <c r="H20">
-        <v>1.023391712631579</v>
+        <v>1.026532212465753</v>
       </c>
       <c r="I20">
-        <v>1.023391712631579</v>
+        <v>1.026532212465753</v>
       </c>
       <c r="J20">
-        <v>1.009408188947369</v>
+        <v>1.010768306164384</v>
       </c>
       <c r="K20">
-        <v>0.9941545531578949</v>
+        <v>0.9933243169863013</v>
       </c>
       <c r="L20">
-        <v>1.008404903684211</v>
+        <v>1.00954316520548</v>
       </c>
       <c r="M20">
-        <v>0.9823407431578948</v>
+        <v>0.9798315821917806</v>
       </c>
       <c r="N20">
-        <v>1.023391712631579</v>
+        <v>1.026532212465753</v>
       </c>
       <c r="O20">
-        <v>1.003267138421053</v>
+        <v>1.003853444520548</v>
       </c>
       <c r="P20">
-        <v>0.9884935818421052</v>
+        <v>0.9869044659589039</v>
       </c>
       <c r="Q20">
-        <v>0.9987108457894738</v>
+        <v>0.9985888807534246</v>
       </c>
       <c r="R20">
-        <v>1.000126292105263</v>
+        <v>1.00011371479452</v>
       </c>
       <c r="S20">
-        <v>0.9903805722807019</v>
+        <v>0.9890444163013697</v>
       </c>
       <c r="T20">
-        <v>1.000126292105263</v>
+        <v>1.00011371479452</v>
       </c>
       <c r="U20">
-        <v>0.9986333573684212</v>
+        <v>0.9984163653424656</v>
       </c>
       <c r="V20">
-        <v>1.003585028421053</v>
+        <v>1.004039534767123</v>
       </c>
       <c r="W20">
-        <v>0.9984146816447369</v>
+        <v>0.998182338099315</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.053822836603556</v>
+        <v>1.029750292631579</v>
       </c>
       <c r="D21">
-        <v>1.277954329490422</v>
+        <v>1.140071708421053</v>
       </c>
       <c r="E21">
-        <v>1.277954329490422</v>
+        <v>1.140071708421053</v>
       </c>
       <c r="F21">
-        <v>0.9277488733131457</v>
+        <v>0.9676944963157896</v>
       </c>
       <c r="G21">
-        <v>0.8196082955855434</v>
+        <v>0.9017967668421052</v>
       </c>
       <c r="H21">
-        <v>0.8196082955855434</v>
+        <v>0.9017967668421052</v>
       </c>
       <c r="I21">
-        <v>0.8196082955855434</v>
+        <v>0.9017967668421052</v>
       </c>
       <c r="J21">
-        <v>0.8965358238763459</v>
+        <v>0.9482913394736844</v>
       </c>
       <c r="K21">
-        <v>1.059559687412855</v>
+        <v>1.030261076842105</v>
       </c>
       <c r="L21">
-        <v>0.9320461621327375</v>
+        <v>0.9634751726315791</v>
       </c>
       <c r="M21">
-        <v>1.180249211616174</v>
+        <v>1.091545081052631</v>
       </c>
       <c r="N21">
-        <v>0.8196082955855434</v>
+        <v>0.9017967668421052</v>
       </c>
       <c r="O21">
-        <v>0.9277488733131457</v>
+        <v>0.9676944963157896</v>
       </c>
       <c r="P21">
-        <v>1.102851601401784</v>
+        <v>1.053883102368421</v>
       </c>
       <c r="Q21">
-        <v>0.9936542803630006</v>
+        <v>0.9989777865789474</v>
       </c>
       <c r="R21">
-        <v>1.008437166129704</v>
+        <v>1.003187657192983</v>
       </c>
       <c r="S21">
-        <v>1.088420963405474</v>
+        <v>1.046009093859649</v>
       </c>
       <c r="T21">
-        <v>1.008437166129704</v>
+        <v>1.003187657192983</v>
       </c>
       <c r="U21">
-        <v>1.021217796450492</v>
+        <v>1.009956012105263</v>
       </c>
       <c r="V21">
-        <v>0.980895896277502</v>
+        <v>0.9883241630526317</v>
       </c>
       <c r="W21">
-        <v>1.018440652503847</v>
+        <v>1.009110741776316</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.015300701163529</v>
+        <v>0.9926301878947367</v>
       </c>
       <c r="D22">
-        <v>1.072680463717056</v>
+        <v>0.973720025263158</v>
       </c>
       <c r="E22">
-        <v>1.072680463717056</v>
+        <v>0.973720025263158</v>
       </c>
       <c r="F22">
-        <v>0.9830245918534591</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="G22">
-        <v>0.9494224432153225</v>
+        <v>1.023391712631579</v>
       </c>
       <c r="H22">
-        <v>0.9494224432153225</v>
+        <v>1.023391712631579</v>
       </c>
       <c r="I22">
-        <v>0.9494224432153225</v>
+        <v>1.023391712631579</v>
       </c>
       <c r="J22">
-        <v>0.9731470645764246</v>
+        <v>1.009408188947369</v>
       </c>
       <c r="K22">
-        <v>1.015689095667364</v>
+        <v>0.9941545531578949</v>
       </c>
       <c r="L22">
-        <v>0.9811661573293712</v>
+        <v>1.008404903684211</v>
       </c>
       <c r="M22">
-        <v>1.04746410601897</v>
+        <v>0.9823407431578948</v>
       </c>
       <c r="N22">
-        <v>0.9494224432153225</v>
+        <v>1.023391712631579</v>
       </c>
       <c r="O22">
-        <v>0.9830245918534591</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="P22">
-        <v>1.027852527785258</v>
+        <v>0.9884935818421052</v>
       </c>
       <c r="Q22">
-        <v>0.9993568437604115</v>
+        <v>0.9987108457894738</v>
       </c>
       <c r="R22">
-        <v>1.001709166261946</v>
+        <v>1.000126292105263</v>
       </c>
       <c r="S22">
-        <v>1.023798050412626</v>
+        <v>0.9903805722807019</v>
       </c>
       <c r="T22">
-        <v>1.001709166261946</v>
+        <v>1.000126292105263</v>
       </c>
       <c r="U22">
-        <v>1.0052041486133</v>
+        <v>0.9986333573684212</v>
       </c>
       <c r="V22">
-        <v>0.9940478075337047</v>
+        <v>1.003585028421053</v>
       </c>
       <c r="W22">
-        <v>1.004736827942687</v>
+        <v>0.9984146816447369</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9992346878604407</v>
+        <v>1.053822836603556</v>
       </c>
       <c r="D23">
-        <v>0.9973719629308202</v>
+        <v>1.277954329490422</v>
       </c>
       <c r="E23">
-        <v>0.9973719629308202</v>
+        <v>1.277954329490422</v>
       </c>
       <c r="F23">
-        <v>1.000282481962374</v>
+        <v>0.9277488733131457</v>
       </c>
       <c r="G23">
-        <v>1.002417857854792</v>
+        <v>0.8196082955855434</v>
       </c>
       <c r="H23">
-        <v>1.002417857854792</v>
+        <v>0.8196082955855434</v>
       </c>
       <c r="I23">
-        <v>1.002417857854792</v>
+        <v>0.8196082955855434</v>
       </c>
       <c r="J23">
-        <v>1.000936190435607</v>
+        <v>0.8965358238763459</v>
       </c>
       <c r="K23">
-        <v>0.9994127906670638</v>
+        <v>1.059559687412855</v>
       </c>
       <c r="L23">
-        <v>1.000865077468418</v>
+        <v>0.9320461621327375</v>
       </c>
       <c r="M23">
-        <v>0.9982263831254611</v>
+        <v>1.180249211616174</v>
       </c>
       <c r="N23">
-        <v>1.002417857854792</v>
+        <v>0.8196082955855434</v>
       </c>
       <c r="O23">
-        <v>1.000282481962374</v>
+        <v>0.9277488733131457</v>
       </c>
       <c r="P23">
-        <v>0.9988272224465973</v>
+        <v>1.102851601401784</v>
       </c>
       <c r="Q23">
-        <v>0.9998476363147191</v>
+        <v>0.9936542803630006</v>
       </c>
       <c r="R23">
-        <v>1.000024100915995</v>
+        <v>1.008437166129704</v>
       </c>
       <c r="S23">
-        <v>0.9990224118534194</v>
+        <v>1.088420963405474</v>
       </c>
       <c r="T23">
-        <v>1.000024100915995</v>
+        <v>1.008437166129704</v>
       </c>
       <c r="U23">
-        <v>0.9998712733537625</v>
+        <v>1.021217796450492</v>
       </c>
       <c r="V23">
-        <v>1.000380590253968</v>
+        <v>0.980895896277502</v>
       </c>
       <c r="W23">
-        <v>0.9998434290381222</v>
+        <v>1.018440652503847</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9999319837421722</v>
+        <v>1.015300701163529</v>
       </c>
       <c r="D24">
-        <v>0.9990817833146899</v>
+        <v>1.072680463717056</v>
       </c>
       <c r="E24">
-        <v>0.9990817833146899</v>
+        <v>1.072680463717056</v>
       </c>
       <c r="F24">
-        <v>1.000410226801606</v>
+        <v>0.9830245918534591</v>
       </c>
       <c r="G24">
-        <v>1.000290957719287</v>
+        <v>0.9494224432153225</v>
       </c>
       <c r="H24">
-        <v>1.000290957719287</v>
+        <v>0.9494224432153225</v>
       </c>
       <c r="I24">
-        <v>1.000290957719287</v>
+        <v>0.9494224432153225</v>
       </c>
       <c r="J24">
-        <v>1.000359801015239</v>
+        <v>0.9731470645764246</v>
       </c>
       <c r="K24">
-        <v>0.9998135526204949</v>
+        <v>1.015689095667364</v>
       </c>
       <c r="L24">
-        <v>1.000129187227138</v>
+        <v>0.9811661573293712</v>
       </c>
       <c r="M24">
-        <v>0.9994342523920381</v>
+        <v>1.04746410601897</v>
       </c>
       <c r="N24">
-        <v>1.000290957719287</v>
+        <v>0.9494224432153225</v>
       </c>
       <c r="O24">
-        <v>1.000410226801606</v>
+        <v>0.9830245918534591</v>
       </c>
       <c r="P24">
-        <v>0.999746005058148</v>
+        <v>1.027852527785258</v>
       </c>
       <c r="Q24">
-        <v>1.000111889711051</v>
+        <v>0.9993568437604115</v>
       </c>
       <c r="R24">
-        <v>0.9999276559451943</v>
+        <v>1.001709166261946</v>
       </c>
       <c r="S24">
-        <v>0.9997685209122636</v>
+        <v>1.023798050412626</v>
       </c>
       <c r="T24">
-        <v>0.9999276559451943</v>
+        <v>1.001709166261946</v>
       </c>
       <c r="U24">
-        <v>0.9998991301140194</v>
+        <v>1.0052041486133</v>
       </c>
       <c r="V24">
-        <v>0.9999774956350729</v>
+        <v>0.9940478075337047</v>
       </c>
       <c r="W24">
-        <v>0.9999314681040831</v>
+        <v>1.004736827942687</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.953319229254493</v>
+        <v>0.9992346878604407</v>
       </c>
       <c r="D25">
-        <v>0.7894649163113109</v>
+        <v>0.9973719629308202</v>
       </c>
       <c r="E25">
-        <v>0.7894649163113109</v>
+        <v>0.9973719629308202</v>
       </c>
       <c r="F25">
-        <v>1.04548728095121</v>
+        <v>1.000282481962374</v>
       </c>
       <c r="G25">
-        <v>1.153061593316328</v>
+        <v>1.002417857854792</v>
       </c>
       <c r="H25">
-        <v>1.153061593316328</v>
+        <v>1.002417857854792</v>
       </c>
       <c r="I25">
-        <v>1.153061593316328</v>
+        <v>1.002417857854792</v>
       </c>
       <c r="J25">
-        <v>1.077398575607244</v>
+        <v>1.000936190435607</v>
       </c>
       <c r="K25">
-        <v>0.9543315154103008</v>
+        <v>0.9994127906670638</v>
       </c>
       <c r="L25">
-        <v>1.056604045948</v>
+        <v>1.000865077468418</v>
       </c>
       <c r="M25">
-        <v>0.8618715018156087</v>
+        <v>0.9982263831254611</v>
       </c>
       <c r="N25">
-        <v>1.153061593316328</v>
+        <v>1.002417857854792</v>
       </c>
       <c r="O25">
-        <v>1.04548728095121</v>
+        <v>1.000282481962374</v>
       </c>
       <c r="P25">
-        <v>0.9174760986312605</v>
+        <v>0.9988272224465973</v>
       </c>
       <c r="Q25">
-        <v>0.9999093981807554</v>
+        <v>0.9998476363147191</v>
       </c>
       <c r="R25">
-        <v>0.9960045968596164</v>
+        <v>1.000024100915995</v>
       </c>
       <c r="S25">
-        <v>0.9297612375576073</v>
+        <v>0.9990224118534194</v>
       </c>
       <c r="T25">
-        <v>0.9960045968596164</v>
+        <v>1.000024100915995</v>
       </c>
       <c r="U25">
-        <v>0.9855863264972875</v>
+        <v>0.9998712733537625</v>
       </c>
       <c r="V25">
-        <v>1.019081379861096</v>
+        <v>1.000380590253968</v>
       </c>
       <c r="W25">
-        <v>0.9864423323268119</v>
+        <v>0.9998434290381222</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.989895734690261</v>
+        <v>0.9999319837421722</v>
       </c>
       <c r="D26">
-        <v>0.9398945720535595</v>
+        <v>0.9990817833146899</v>
       </c>
       <c r="E26">
-        <v>0.9398945720535595</v>
+        <v>0.9990817833146899</v>
       </c>
       <c r="F26">
-        <v>1.018021394410658</v>
+        <v>1.000410226801606</v>
       </c>
       <c r="G26">
-        <v>1.034745780519005</v>
+        <v>1.000290957719287</v>
       </c>
       <c r="H26">
-        <v>1.034745780519005</v>
+        <v>1.000290957719287</v>
       </c>
       <c r="I26">
-        <v>1.034745780519005</v>
+        <v>1.000290957719287</v>
       </c>
       <c r="J26">
-        <v>1.02262499322634</v>
+        <v>1.000359801015239</v>
       </c>
       <c r="K26">
-        <v>0.9872647981106624</v>
+        <v>0.9998135526204949</v>
       </c>
       <c r="L26">
-        <v>1.013362453267904</v>
+        <v>1.000129187227138</v>
       </c>
       <c r="M26">
-        <v>0.9614376734756624</v>
+        <v>0.9994342523920381</v>
       </c>
       <c r="N26">
-        <v>1.034745780519005</v>
+        <v>1.000290957719287</v>
       </c>
       <c r="O26">
-        <v>1.018021394410658</v>
+        <v>1.000410226801606</v>
       </c>
       <c r="P26">
-        <v>0.9789579832321089</v>
+        <v>0.999746005058148</v>
       </c>
       <c r="Q26">
-        <v>1.00264309626066</v>
+        <v>1.000111889711051</v>
       </c>
       <c r="R26">
-        <v>0.9975539156610741</v>
+        <v>0.9999276559451943</v>
       </c>
       <c r="S26">
-        <v>0.9817269215249601</v>
+        <v>0.9997685209122636</v>
       </c>
       <c r="T26">
-        <v>0.9975539156610741</v>
+        <v>0.9999276559451943</v>
       </c>
       <c r="U26">
-        <v>0.9949816362734711</v>
+        <v>0.9998991301140194</v>
       </c>
       <c r="V26">
-        <v>1.002934465122578</v>
+        <v>0.9999774956350729</v>
       </c>
       <c r="W26">
-        <v>0.9959059249692563</v>
+        <v>0.9999314681040831</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9986324961191303</v>
+        <v>0.953319229254493</v>
       </c>
       <c r="D27">
-        <v>0.9940048727552425</v>
+        <v>0.7894649163113109</v>
       </c>
       <c r="E27">
-        <v>0.9940048727552425</v>
+        <v>0.7894649163113109</v>
       </c>
       <c r="F27">
-        <v>1.001235552300847</v>
+        <v>1.04548728095121</v>
       </c>
       <c r="G27">
-        <v>1.004464756287293</v>
+        <v>1.153061593316328</v>
       </c>
       <c r="H27">
-        <v>1.004464756287293</v>
+        <v>1.153061593316328</v>
       </c>
       <c r="I27">
-        <v>1.004464756287293</v>
+        <v>1.153061593316328</v>
       </c>
       <c r="J27">
-        <v>1.002197698393207</v>
+        <v>1.077398575607244</v>
       </c>
       <c r="K27">
-        <v>0.9986959714500555</v>
+        <v>0.9543315154103008</v>
       </c>
       <c r="L27">
-        <v>1.001645029790329</v>
+        <v>1.056604045948</v>
       </c>
       <c r="M27">
-        <v>0.9960563488472974</v>
+        <v>0.8618715018156087</v>
       </c>
       <c r="N27">
-        <v>1.004464756287293</v>
+        <v>1.153061593316328</v>
       </c>
       <c r="O27">
-        <v>1.001235552300847</v>
+        <v>1.04548728095121</v>
       </c>
       <c r="P27">
-        <v>0.9976202125280449</v>
+        <v>0.9174760986312605</v>
       </c>
       <c r="Q27">
-        <v>0.9999657618754514</v>
+        <v>0.9999093981807554</v>
       </c>
       <c r="R27">
-        <v>0.9999017271144611</v>
+        <v>0.9960045968596164</v>
       </c>
       <c r="S27">
-        <v>0.9979787988353818</v>
+        <v>0.9297612375576073</v>
       </c>
       <c r="T27">
-        <v>0.999901727114461</v>
+        <v>0.9960045968596164</v>
       </c>
       <c r="U27">
-        <v>0.9996002881983597</v>
+        <v>0.9855863264972875</v>
       </c>
       <c r="V27">
-        <v>1.000573181816147</v>
+        <v>1.019081379861096</v>
       </c>
       <c r="W27">
-        <v>0.9996165907429253</v>
+        <v>0.9864423323268119</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.000630341530529</v>
+        <v>0.989895734690261</v>
       </c>
       <c r="D28">
-        <v>1.007150191367457</v>
+        <v>0.9398945720535595</v>
       </c>
       <c r="E28">
-        <v>1.007150191367457</v>
+        <v>0.9398945720535595</v>
       </c>
       <c r="F28">
-        <v>0.9969629268849463</v>
+        <v>1.018021394410658</v>
       </c>
       <c r="G28">
-        <v>0.9974545780919949</v>
+        <v>1.034745780519005</v>
       </c>
       <c r="H28">
-        <v>0.9974545780919949</v>
+        <v>1.034745780519005</v>
       </c>
       <c r="I28">
-        <v>0.9974545780919949</v>
+        <v>1.034745780519005</v>
       </c>
       <c r="J28">
-        <v>0.9972147393439499</v>
+        <v>1.02262499322634</v>
       </c>
       <c r="K28">
-        <v>1.001461309407396</v>
+        <v>0.9872647981106624</v>
       </c>
       <c r="L28">
-        <v>0.9989066269410791</v>
+        <v>1.013362453267904</v>
       </c>
       <c r="M28">
-        <v>1.00443276038561</v>
+        <v>0.9614376734756624</v>
       </c>
       <c r="N28">
-        <v>0.9974545780919949</v>
+        <v>1.034745780519005</v>
       </c>
       <c r="O28">
-        <v>0.9969629268849463</v>
+        <v>1.018021394410658</v>
       </c>
       <c r="P28">
-        <v>1.002056559126201</v>
+        <v>0.9789579832321089</v>
       </c>
       <c r="Q28">
-        <v>0.9992121181461709</v>
+        <v>1.00264309626066</v>
       </c>
       <c r="R28">
-        <v>1.000522565448133</v>
+        <v>0.9975539156610741</v>
       </c>
       <c r="S28">
-        <v>1.001858142553266</v>
+        <v>0.9817269215249601</v>
       </c>
       <c r="T28">
-        <v>1.000522565448133</v>
+        <v>0.9975539156610741</v>
       </c>
       <c r="U28">
-        <v>1.000757251437948</v>
+        <v>0.9949816362734711</v>
       </c>
       <c r="V28">
-        <v>1.000096716768758</v>
+        <v>1.002934465122578</v>
       </c>
       <c r="W28">
-        <v>1.00052668424412</v>
+        <v>0.9959059249692563</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9986324961191303</v>
+      </c>
+      <c r="D29">
+        <v>0.9940048727552425</v>
+      </c>
+      <c r="E29">
+        <v>0.9940048727552425</v>
+      </c>
+      <c r="F29">
+        <v>1.001235552300847</v>
+      </c>
+      <c r="G29">
+        <v>1.004464756287293</v>
+      </c>
+      <c r="H29">
+        <v>1.004464756287293</v>
+      </c>
+      <c r="I29">
+        <v>1.004464756287293</v>
+      </c>
+      <c r="J29">
+        <v>1.002197698393207</v>
+      </c>
+      <c r="K29">
+        <v>0.9986959714500555</v>
+      </c>
+      <c r="L29">
+        <v>1.001645029790329</v>
+      </c>
+      <c r="M29">
+        <v>0.9960563488472974</v>
+      </c>
+      <c r="N29">
+        <v>1.004464756287293</v>
+      </c>
+      <c r="O29">
+        <v>1.001235552300847</v>
+      </c>
+      <c r="P29">
+        <v>0.9976202125280449</v>
+      </c>
+      <c r="Q29">
+        <v>0.9999657618754514</v>
+      </c>
+      <c r="R29">
+        <v>0.9999017271144611</v>
+      </c>
+      <c r="S29">
+        <v>0.9979787988353818</v>
+      </c>
+      <c r="T29">
+        <v>0.999901727114461</v>
+      </c>
+      <c r="U29">
+        <v>0.9996002881983597</v>
+      </c>
+      <c r="V29">
+        <v>1.000573181816147</v>
+      </c>
+      <c r="W29">
+        <v>0.9996165907429253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000630341530529</v>
+      </c>
+      <c r="D30">
+        <v>1.007150191367457</v>
+      </c>
+      <c r="E30">
+        <v>1.007150191367457</v>
+      </c>
+      <c r="F30">
+        <v>0.9969629268849463</v>
+      </c>
+      <c r="G30">
+        <v>0.9974545780919949</v>
+      </c>
+      <c r="H30">
+        <v>0.9974545780919949</v>
+      </c>
+      <c r="I30">
+        <v>0.9974545780919949</v>
+      </c>
+      <c r="J30">
+        <v>0.9972147393439499</v>
+      </c>
+      <c r="K30">
+        <v>1.001461309407396</v>
+      </c>
+      <c r="L30">
+        <v>0.9989066269410791</v>
+      </c>
+      <c r="M30">
+        <v>1.00443276038561</v>
+      </c>
+      <c r="N30">
+        <v>0.9974545780919949</v>
+      </c>
+      <c r="O30">
+        <v>0.9969629268849463</v>
+      </c>
+      <c r="P30">
+        <v>1.002056559126201</v>
+      </c>
+      <c r="Q30">
+        <v>0.9992121181461709</v>
+      </c>
+      <c r="R30">
+        <v>1.000522565448133</v>
+      </c>
+      <c r="S30">
+        <v>1.001858142553266</v>
+      </c>
+      <c r="T30">
+        <v>1.000522565448133</v>
+      </c>
+      <c r="U30">
+        <v>1.000757251437948</v>
+      </c>
+      <c r="V30">
+        <v>1.000096716768758</v>
+      </c>
+      <c r="W30">
+        <v>1.00052668424412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.004307264016756</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.028791806092115</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.028791806092115</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9905347163257885</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9848362686572451</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9848362686572451</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9848362686572451</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9890747062808406</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.006050395502251</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9940616775728298</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.01832803898203</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9848362686572451</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9905347163257885</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.009663261208952</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9982925559140197</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.001387597025049</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.008458972640051</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.001387597025049</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.00255329664435</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9990098910469289</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.001998109178732</v>
       </c>
     </row>
